--- a/config_management/change_requests/modulesCR11.xlsx
+++ b/config_management/change_requests/modulesCR11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="-2600" yWindow="-21160" windowWidth="28560" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Master CRs listing" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="491">
   <si>
     <t>Part number</t>
   </si>
@@ -1496,12 +1496,6 @@
     <t xml:space="preserve">to be added to pub index </t>
   </si>
   <si>
-    <t>After SMRLv8.7, CR additive ? Right NB</t>
-  </si>
-  <si>
-    <t>Additive_manufacturing</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1536,13 +1530,19 @@
   </si>
   <si>
     <t>Not changed</t>
+  </si>
+  <si>
+    <t>additive_manufacturing_part_and_build_information</t>
+  </si>
+  <si>
+    <t>CR sequence to be defined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1668,11 +1668,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF9C5700"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1988,7 +1983,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2125,9 +2120,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2195,8 +2187,8 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -2288,6 +2280,38 @@
     <cellStyle name="Normal_Sheet1" xfId="55"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2642,38 +2666,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6916,23 +6908,23 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Part number" dataDxfId="15"/>
     <tableColumn id="2" name="Module or IR name" dataDxfId="14"/>
-    <tableColumn id="3" name="Part Edition in CR" dataDxfId="13"/>
-    <tableColumn id="22" name="Final Listing" dataDxfId="12"/>
-    <tableColumn id="12" name="STEPmod publication index" dataDxfId="11"/>
+    <tableColumn id="3" name="Part Edition in CR" dataDxfId="0"/>
+    <tableColumn id="22" name="Final Listing" dataDxfId="13"/>
+    <tableColumn id="12" name="STEPmod publication index" dataDxfId="12"/>
     <tableColumn id="4" name="Status"/>
-    <tableColumn id="18" name="Comment" dataDxfId="10"/>
-    <tableColumn id="24" name="Listing and STEPmod indexes aligment check" dataDxfId="9">
+    <tableColumn id="18" name="Comment" dataDxfId="11"/>
+    <tableColumn id="24" name="Listing and STEPmod indexes aligment check" dataDxfId="10">
       <calculatedColumnFormula>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="publication_index_CR11" dataDxfId="8"/>
-    <tableColumn id="8" name="stepmod tag CR11" dataDxfId="7"/>
-    <tableColumn id="9" name="Howard Mason  listing" dataDxfId="6"/>
-    <tableColumn id="10" name="Tom Bluhm  listing" dataDxfId="5"/>
-    <tableColumn id="11" name="Lothar Klein  listing" dataDxfId="4"/>
-    <tableColumn id="13" name="Existing CR ?" dataDxfId="3"/>
-    <tableColumn id="14" name="to add For SMRL V8.7" dataDxfId="2"/>
-    <tableColumn id="16" name="Existing CR after work?" dataDxfId="1"/>
-    <tableColumn id="17" name="fully aligned" dataDxfId="0"/>
+    <tableColumn id="7" name="publication_index_CR11" dataDxfId="9"/>
+    <tableColumn id="8" name="stepmod tag CR11" dataDxfId="8"/>
+    <tableColumn id="9" name="Howard Mason  listing" dataDxfId="7"/>
+    <tableColumn id="10" name="Tom Bluhm  listing" dataDxfId="6"/>
+    <tableColumn id="11" name="Lothar Klein  listing" dataDxfId="5"/>
+    <tableColumn id="13" name="Existing CR ?" dataDxfId="4"/>
+    <tableColumn id="14" name="to add For SMRL V8.7" dataDxfId="3"/>
+    <tableColumn id="16" name="Existing CR after work?" dataDxfId="2"/>
+    <tableColumn id="17" name="fully aligned" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7207,10 +7199,10 @@
   <dimension ref="A1:Y206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7221,7 +7213,7 @@
     <col min="4" max="4" width="20" style="29" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="29" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="19" style="52" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="15.1640625" customWidth="1" outlineLevel="1"/>
@@ -7256,13 +7248,13 @@
       <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="82" t="s">
-        <v>479</v>
-      </c>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="81" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="72" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -7300,7 +7292,7 @@
       <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="62">
         <v>7</v>
       </c>
       <c r="D2" s="29" t="s">
@@ -7309,17 +7301,17 @@
       <c r="E2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>487</v>
+      <c r="F2" s="83" t="s">
+        <v>485</v>
       </c>
       <c r="G2" s="20"/>
-      <c r="H2" s="74">
+      <c r="H2" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="63" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="16"/>
@@ -7347,20 +7339,20 @@
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="62">
         <v>9</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="74">
+      <c r="F3" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7370,7 +7362,7 @@
       <c r="J3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -7400,20 +7392,20 @@
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="62">
         <v>5</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="74">
+      <c r="F4" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" s="83"/>
+      <c r="H4" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7423,7 +7415,7 @@
       <c r="J4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -7453,7 +7445,7 @@
       <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="62">
         <v>4</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -7462,11 +7454,11 @@
       <c r="E5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="84" t="s">
-        <v>486</v>
+      <c r="F5" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="74">
+      <c r="H5" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7476,7 +7468,7 @@
       <c r="J5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L5" s="17" t="s">
@@ -7508,7 +7500,7 @@
       <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="62">
         <v>3</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -7517,11 +7509,11 @@
       <c r="E6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="74">
+      <c r="F6" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" s="83"/>
+      <c r="H6" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7531,7 +7523,7 @@
       <c r="J6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -7561,7 +7553,7 @@
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="62">
         <v>3</v>
       </c>
       <c r="D7" s="29" t="s">
@@ -7570,11 +7562,11 @@
       <c r="E7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="74">
+      <c r="F7" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7584,7 +7576,7 @@
       <c r="J7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="16" t="s">
@@ -7614,7 +7606,7 @@
       <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="62">
         <v>5</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -7623,11 +7615,11 @@
       <c r="E8" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="74">
+      <c r="F8" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7637,7 +7629,7 @@
       <c r="J8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -7673,7 +7665,7 @@
       <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -7682,11 +7674,11 @@
       <c r="E9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="74">
+      <c r="F9" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7696,7 +7688,7 @@
       <c r="J9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="17" t="s">
@@ -7732,7 +7724,7 @@
       <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>7</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -7741,11 +7733,11 @@
       <c r="E10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="74">
+      <c r="F10" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="83"/>
+      <c r="H10" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7755,7 +7747,7 @@
       <c r="J10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -7791,7 +7783,7 @@
       <c r="B11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>3</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -7800,11 +7792,11 @@
       <c r="E11" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="74">
+      <c r="F11" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7814,7 +7806,7 @@
       <c r="J11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="16" t="s">
@@ -7850,7 +7842,7 @@
       <c r="B12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="62">
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -7859,11 +7851,11 @@
       <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="84" t="s">
-        <v>486</v>
+      <c r="F12" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="74">
+      <c r="H12" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7873,7 +7865,7 @@
       <c r="J12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="17" t="s">
@@ -7911,7 +7903,7 @@
       <c r="B13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="62">
         <v>6</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -7920,11 +7912,11 @@
       <c r="E13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="84" t="s">
-        <v>486</v>
+      <c r="F13" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="74">
+      <c r="H13" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7934,7 +7926,7 @@
       <c r="J13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -7972,7 +7964,7 @@
       <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="62">
         <v>7</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -7981,11 +7973,11 @@
       <c r="E14" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="74">
+      <c r="F14" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G14" s="83"/>
+      <c r="H14" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -7995,7 +7987,7 @@
       <c r="J14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="16" t="s">
@@ -8031,20 +8023,20 @@
       <c r="B15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="62">
         <v>3</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="74">
+      <c r="F15" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G15" s="83"/>
+      <c r="H15" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8054,7 +8046,7 @@
       <c r="J15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="16" t="s">
@@ -8090,7 +8082,7 @@
       <c r="B16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="62">
         <v>4</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -8099,11 +8091,11 @@
       <c r="E16" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="74">
+      <c r="F16" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G16" s="83"/>
+      <c r="H16" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8113,7 +8105,7 @@
       <c r="J16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="16" t="s">
@@ -8152,17 +8144,17 @@
       <c r="C17" s="43">
         <v>5</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="74">
+      <c r="H17" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8189,7 +8181,7 @@
       <c r="B18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="62">
         <v>2</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -8198,11 +8190,11 @@
       <c r="E18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="84" t="s">
-        <v>486</v>
+      <c r="F18" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="74">
+      <c r="H18" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8212,7 +8204,7 @@
       <c r="J18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="17" t="s">
@@ -8250,7 +8242,7 @@
       <c r="B19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>5</v>
       </c>
       <c r="D19" s="29" t="s">
@@ -8259,11 +8251,11 @@
       <c r="E19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="84" t="s">
-        <v>486</v>
+      <c r="F19" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="74">
+      <c r="H19" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8273,7 +8265,7 @@
       <c r="J19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="17" t="s">
@@ -8311,7 +8303,7 @@
       <c r="B20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="62">
         <v>3</v>
       </c>
       <c r="D20" s="29" t="s">
@@ -8320,11 +8312,11 @@
       <c r="E20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="84" t="s">
-        <v>486</v>
+      <c r="F20" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8334,7 +8326,7 @@
       <c r="J20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="17" t="s">
@@ -8372,7 +8364,7 @@
       <c r="B21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <v>5</v>
       </c>
       <c r="D21" s="29" t="s">
@@ -8381,11 +8373,11 @@
       <c r="E21" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="74">
+      <c r="F21" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" s="83"/>
+      <c r="H21" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8395,7 +8387,7 @@
       <c r="J21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="22" t="s">
@@ -8431,7 +8423,7 @@
       <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="62">
         <v>5</v>
       </c>
       <c r="D22" s="29" t="s">
@@ -8440,11 +8432,11 @@
       <c r="E22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="84" t="s">
-        <v>486</v>
+      <c r="F22" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="74">
+      <c r="H22" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8454,7 +8446,7 @@
       <c r="J22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="K22" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="17" t="s">
@@ -8492,7 +8484,7 @@
       <c r="B23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="62">
         <v>2</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -8501,11 +8493,11 @@
       <c r="E23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="84" t="s">
-        <v>486</v>
+      <c r="F23" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="74">
+      <c r="H23" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8515,7 +8507,7 @@
       <c r="J23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="64" t="s">
+      <c r="K23" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L23" s="17" t="s">
@@ -8553,7 +8545,7 @@
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="62">
         <v>4</v>
       </c>
       <c r="D24" s="29" t="s">
@@ -8562,11 +8554,11 @@
       <c r="E24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="84" t="s">
-        <v>486</v>
+      <c r="F24" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G24" s="20"/>
-      <c r="H24" s="74">
+      <c r="H24" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8576,7 +8568,7 @@
       <c r="J24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="K24" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L24" s="17" t="s">
@@ -8614,7 +8606,7 @@
       <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="62">
         <v>5</v>
       </c>
       <c r="D25" s="29" t="s">
@@ -8623,11 +8615,11 @@
       <c r="E25" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="74">
+      <c r="F25" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8637,7 +8629,7 @@
       <c r="J25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="64" t="s">
+      <c r="K25" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="16" t="s">
@@ -8673,20 +8665,20 @@
       <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="62">
         <v>5</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="74">
+      <c r="F26" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8696,7 +8688,7 @@
       <c r="J26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="64" t="s">
+      <c r="K26" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="17" t="s">
@@ -8732,7 +8724,7 @@
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="62">
         <v>6</v>
       </c>
       <c r="D27" s="29" t="s">
@@ -8741,17 +8733,17 @@
       <c r="E27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="84" t="s">
-        <v>487</v>
+      <c r="F27" s="83" t="s">
+        <v>485</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="74">
+      <c r="H27" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="63" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="16"/>
@@ -8785,7 +8777,7 @@
       <c r="B28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="62">
         <v>3</v>
       </c>
       <c r="D28" s="29" t="s">
@@ -8794,11 +8786,11 @@
       <c r="E28" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="84" t="s">
-        <v>486</v>
+      <c r="F28" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G28" s="20"/>
-      <c r="H28" s="74">
+      <c r="H28" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8808,7 +8800,7 @@
       <c r="J28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="17" t="s">
@@ -8846,7 +8838,7 @@
       <c r="B29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="62">
         <v>5</v>
       </c>
       <c r="D29" s="29" t="s">
@@ -8855,11 +8847,11 @@
       <c r="E29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="84" t="s">
-        <v>486</v>
+      <c r="F29" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="74">
+      <c r="H29" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8869,7 +8861,7 @@
       <c r="J29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L29" s="17" t="s">
@@ -8907,7 +8899,7 @@
       <c r="B30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="62">
         <v>2</v>
       </c>
       <c r="D30" s="29" t="s">
@@ -8916,11 +8908,11 @@
       <c r="E30" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="74">
+      <c r="F30" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G30" s="83"/>
+      <c r="H30" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8930,7 +8922,7 @@
       <c r="J30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="K30" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="17" t="s">
@@ -8966,7 +8958,7 @@
       <c r="B31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="62">
         <v>4</v>
       </c>
       <c r="D31" s="29" t="s">
@@ -8975,11 +8967,11 @@
       <c r="E31" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="84" t="s">
-        <v>486</v>
+      <c r="F31" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G31" s="20"/>
-      <c r="H31" s="74">
+      <c r="H31" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -8989,7 +8981,7 @@
       <c r="J31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L31" s="17" t="s">
@@ -9027,7 +9019,7 @@
       <c r="B32" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="62">
         <v>4</v>
       </c>
       <c r="D32" s="29" t="s">
@@ -9036,11 +9028,11 @@
       <c r="E32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="84" t="s">
-        <v>486</v>
+      <c r="F32" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="74">
+      <c r="H32" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9050,7 +9042,7 @@
       <c r="J32" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L32" s="17" t="s">
@@ -9088,7 +9080,7 @@
       <c r="B33" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="62">
         <v>4</v>
       </c>
       <c r="D33" s="29" t="s">
@@ -9097,11 +9089,11 @@
       <c r="E33" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="74">
+      <c r="F33" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="83"/>
+      <c r="H33" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9111,7 +9103,7 @@
       <c r="J33" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="64" t="s">
+      <c r="K33" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L33" s="17" t="s">
@@ -9147,7 +9139,7 @@
       <c r="B34" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="62">
         <v>4</v>
       </c>
       <c r="D34" s="29" t="s">
@@ -9156,11 +9148,11 @@
       <c r="E34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="84" t="s">
-        <v>486</v>
+      <c r="F34" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G34" s="20"/>
-      <c r="H34" s="74">
+      <c r="H34" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9170,7 +9162,7 @@
       <c r="J34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L34" s="17" t="s">
@@ -9208,20 +9200,20 @@
       <c r="B35" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="62">
         <v>2</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="74">
+      <c r="F35" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" s="83"/>
+      <c r="H35" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9231,7 +9223,7 @@
       <c r="J35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="64" t="s">
+      <c r="K35" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="17" t="s">
@@ -9267,20 +9259,20 @@
       <c r="B36" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="62">
         <v>3</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G36" s="84"/>
-      <c r="H36" s="74">
+      <c r="F36" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G36" s="83"/>
+      <c r="H36" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9290,7 +9282,7 @@
       <c r="J36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="64" t="s">
+      <c r="K36" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L36" s="17" t="s">
@@ -9326,20 +9318,20 @@
       <c r="B37" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="62">
         <v>4</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="74">
+      <c r="F37" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9349,7 +9341,7 @@
       <c r="J37" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="64" t="s">
+      <c r="K37" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="17" t="s">
@@ -9385,7 +9377,7 @@
       <c r="B38" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="62">
         <v>5</v>
       </c>
       <c r="D38" s="29" t="s">
@@ -9394,11 +9386,11 @@
       <c r="E38" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G38" s="84"/>
-      <c r="H38" s="74">
+      <c r="F38" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G38" s="83"/>
+      <c r="H38" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9408,7 +9400,7 @@
       <c r="J38" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="64" t="s">
+      <c r="K38" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L38" s="17" t="s">
@@ -9444,7 +9436,7 @@
       <c r="B39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>4</v>
       </c>
       <c r="D39" s="29" t="s">
@@ -9454,10 +9446,10 @@
         <v>98</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G39" s="20"/>
-      <c r="H39" s="74">
+      <c r="H39" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9467,7 +9459,7 @@
       <c r="J39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="64" t="s">
+      <c r="K39" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L39" s="17" t="s">
@@ -9503,7 +9495,7 @@
       <c r="B40" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="62">
         <v>4</v>
       </c>
       <c r="D40" s="29" t="s">
@@ -9512,11 +9504,11 @@
       <c r="E40" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="84" t="s">
-        <v>486</v>
+      <c r="F40" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="74">
+      <c r="H40" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9526,7 +9518,7 @@
       <c r="J40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="64" t="s">
+      <c r="K40" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L40" s="17" t="s">
@@ -9564,7 +9556,7 @@
       <c r="B41" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="62">
         <v>3</v>
       </c>
       <c r="D41" s="29" t="s">
@@ -9573,11 +9565,11 @@
       <c r="E41" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="84" t="s">
-        <v>486</v>
+      <c r="F41" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G41" s="20"/>
-      <c r="H41" s="74">
+      <c r="H41" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9587,7 +9579,7 @@
       <c r="J41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="64" t="s">
+      <c r="K41" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L41" s="17" t="s">
@@ -9635,10 +9627,10 @@
         <v>103</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G42" s="20"/>
-      <c r="H42" s="74">
+      <c r="H42" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9659,26 +9651,26 @@
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="78">
+      <c r="A43" s="77">
         <v>1362</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="71">
         <v>3</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G43" s="20"/>
-      <c r="H43" s="74">
+      <c r="H43" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="66" t="s">
+      <c r="K43" s="65" t="s">
         <v>105</v>
       </c>
       <c r="L43" s="16"/>
@@ -9695,20 +9687,20 @@
       <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="80">
+      <c r="A44" s="79">
         <v>113</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="71">
         <v>1</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G44" s="20"/>
-      <c r="H44" s="74">
+      <c r="H44" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9729,20 +9721,20 @@
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="71">
         <v>1</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="74">
+      <c r="H45" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9763,22 +9755,22 @@
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="80">
+      <c r="A46" s="79">
         <v>506</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="71">
         <v>3</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="74">
+      <c r="H46" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9799,22 +9791,22 @@
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="80">
+      <c r="A47" s="79">
         <v>101</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="71">
         <v>4</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9841,7 +9833,7 @@
       <c r="B48" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="62">
         <v>2</v>
       </c>
       <c r="D48" s="29" t="s">
@@ -9851,10 +9843,10 @@
         <v>98</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="74">
+      <c r="H48" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9864,7 +9856,7 @@
       <c r="J48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K48" s="64" t="s">
+      <c r="K48" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L48" s="17" t="s">
@@ -9900,7 +9892,7 @@
       <c r="B49" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="62">
         <v>2</v>
       </c>
       <c r="D49" s="29" t="s">
@@ -9910,10 +9902,10 @@
         <v>98</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="74">
+      <c r="H49" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9923,7 +9915,7 @@
       <c r="J49" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="64" t="s">
+      <c r="K49" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L49" s="17" t="s">
@@ -9959,7 +9951,7 @@
       <c r="B50" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="62">
         <v>2</v>
       </c>
       <c r="D50" s="29" t="s">
@@ -9968,11 +9960,11 @@
       <c r="E50" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G50" s="84"/>
-      <c r="H50" s="74">
+      <c r="F50" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G50" s="83"/>
+      <c r="H50" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -9982,7 +9974,7 @@
       <c r="J50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="64" t="s">
+      <c r="K50" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L50" s="17" t="s">
@@ -10018,20 +10010,20 @@
       <c r="B51" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="62">
         <v>2</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E51" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F51" s="84" t="s">
-        <v>486</v>
+      <c r="F51" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="74">
+      <c r="H51" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10041,7 +10033,7 @@
       <c r="J51" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="64" t="s">
+      <c r="K51" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L51" s="17" t="s">
@@ -10077,20 +10069,20 @@
       <c r="B52" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="62">
         <v>3</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G52" s="84"/>
-      <c r="H52" s="74">
+      <c r="F52" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="83"/>
+      <c r="H52" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10100,7 +10092,7 @@
       <c r="J52" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="64"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="17" t="s">
         <v>21</v>
       </c>
@@ -10134,20 +10126,20 @@
       <c r="B53" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="63">
+      <c r="C53" s="62">
         <v>5</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="74">
+      <c r="F53" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G53" s="83"/>
+      <c r="H53" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10157,7 +10149,7 @@
       <c r="J53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="64" t="s">
+      <c r="K53" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L53" s="17" t="s">
@@ -10193,20 +10185,20 @@
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="62">
         <v>4</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G54" s="84"/>
-      <c r="H54" s="74">
+      <c r="F54" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G54" s="83"/>
+      <c r="H54" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10216,7 +10208,7 @@
       <c r="J54" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="64" t="s">
+      <c r="K54" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L54" s="17" t="s">
@@ -10252,20 +10244,20 @@
       <c r="B55" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="62">
         <v>2</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G55" s="84"/>
-      <c r="H55" s="74">
+      <c r="F55" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" s="83"/>
+      <c r="H55" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10275,7 +10267,7 @@
       <c r="J55" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="67" t="s">
+      <c r="K55" s="66" t="s">
         <v>130</v>
       </c>
       <c r="L55" s="17" t="s">
@@ -10311,20 +10303,20 @@
       <c r="B56" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="62">
         <v>2</v>
       </c>
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G56" s="84"/>
-      <c r="H56" s="74">
+      <c r="F56" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" s="83"/>
+      <c r="H56" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10334,7 +10326,7 @@
       <c r="J56" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="64" t="s">
+      <c r="K56" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="17" t="s">
@@ -10370,20 +10362,20 @@
       <c r="B57" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="62">
         <v>2</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G57" s="84"/>
-      <c r="H57" s="74">
+      <c r="F57" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" s="83"/>
+      <c r="H57" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10393,7 +10385,7 @@
       <c r="J57" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="64" t="s">
+      <c r="K57" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L57" s="17" t="s">
@@ -10429,20 +10421,20 @@
       <c r="B58" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="62">
         <v>2</v>
       </c>
-      <c r="D58" s="65" t="s">
+      <c r="D58" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G58" s="84"/>
-      <c r="H58" s="74">
+      <c r="F58" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G58" s="83"/>
+      <c r="H58" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10452,7 +10444,7 @@
       <c r="J58" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="64" t="s">
+      <c r="K58" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L58" s="17" t="s">
@@ -10488,7 +10480,7 @@
       <c r="B59" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="63">
+      <c r="C59" s="62">
         <v>2</v>
       </c>
       <c r="D59" s="29" t="s">
@@ -10497,11 +10489,11 @@
       <c r="E59" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G59" s="84"/>
-      <c r="H59" s="74">
+      <c r="F59" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" s="83"/>
+      <c r="H59" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10511,7 +10503,7 @@
       <c r="J59" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="64" t="s">
+      <c r="K59" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L59" s="17" t="s">
@@ -10547,20 +10539,20 @@
       <c r="B60" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="62">
         <v>2</v>
       </c>
-      <c r="D60" s="65" t="s">
+      <c r="D60" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G60" s="84"/>
-      <c r="H60" s="74">
+      <c r="F60" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" s="83"/>
+      <c r="H60" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10570,7 +10562,7 @@
       <c r="J60" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="64" t="s">
+      <c r="K60" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L60" s="17" t="s">
@@ -10606,7 +10598,7 @@
       <c r="B61" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="62">
         <v>2</v>
       </c>
       <c r="D61" s="29" t="s">
@@ -10616,10 +10608,10 @@
         <v>98</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G61" s="20"/>
-      <c r="H61" s="74">
+      <c r="H61" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10629,7 +10621,7 @@
       <c r="J61" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="64" t="s">
+      <c r="K61" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L61" s="17" t="s">
@@ -10665,7 +10657,7 @@
       <c r="B62" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="63">
+      <c r="C62" s="62">
         <v>2</v>
       </c>
       <c r="D62" s="29" t="s">
@@ -10675,10 +10667,10 @@
         <v>98</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G62" s="20"/>
-      <c r="H62" s="74">
+      <c r="H62" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10688,7 +10680,7 @@
       <c r="J62" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="64" t="s">
+      <c r="K62" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L62" s="17" t="s">
@@ -10724,20 +10716,20 @@
       <c r="B63" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="63">
+      <c r="C63" s="62">
         <v>4</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="D63" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E63" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="84" t="s">
-        <v>486</v>
+      <c r="F63" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G63" s="20"/>
-      <c r="H63" s="74">
+      <c r="H63" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10747,7 +10739,7 @@
       <c r="J63" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="64" t="s">
+      <c r="K63" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L63" s="17" t="s">
@@ -10783,22 +10775,22 @@
       <c r="B64" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="65" t="s">
+      <c r="D64" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="65" t="s">
+      <c r="E64" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="85" t="s">
-        <v>490</v>
+      <c r="F64" s="84" t="s">
+        <v>488</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H64" s="74">
+      <c r="H64" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10806,7 +10798,7 @@
       <c r="J64" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="64"/>
+      <c r="K64" s="63"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="18">
@@ -10836,7 +10828,7 @@
       <c r="B65" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="62">
         <v>6</v>
       </c>
       <c r="D65" s="29" t="s">
@@ -10845,11 +10837,11 @@
       <c r="E65" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="84" t="s">
-        <v>486</v>
+      <c r="F65" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G65" s="20"/>
-      <c r="H65" s="74">
+      <c r="H65" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10859,7 +10851,7 @@
       <c r="J65" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="64" t="s">
+      <c r="K65" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L65" s="17" t="s">
@@ -10897,7 +10889,7 @@
       <c r="B66" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="63">
+      <c r="C66" s="62">
         <v>5</v>
       </c>
       <c r="D66" s="29" t="s">
@@ -10906,11 +10898,11 @@
       <c r="E66" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="84" t="s">
-        <v>486</v>
+      <c r="F66" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G66" s="20"/>
-      <c r="H66" s="74">
+      <c r="H66" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10920,7 +10912,7 @@
       <c r="J66" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K66" s="64" t="s">
+      <c r="K66" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L66" s="17" t="s">
@@ -10956,7 +10948,7 @@
       <c r="B67" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="63">
+      <c r="C67" s="62">
         <v>3</v>
       </c>
       <c r="D67" s="29" t="s">
@@ -10965,11 +10957,11 @@
       <c r="E67" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="84" t="s">
-        <v>486</v>
+      <c r="F67" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G67" s="20"/>
-      <c r="H67" s="74">
+      <c r="H67" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -10979,7 +10971,7 @@
       <c r="J67" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="64" t="s">
+      <c r="K67" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="17" t="s">
@@ -11015,20 +11007,20 @@
       <c r="B68" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="63">
+      <c r="C68" s="62">
         <v>5</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E68" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G68" s="20"/>
-      <c r="H68" s="74">
+      <c r="H68" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11038,7 +11030,7 @@
       <c r="J68" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K68" s="64" t="s">
+      <c r="K68" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L68" s="17" t="s">
@@ -11074,22 +11066,22 @@
       <c r="B69" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E69" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="85" t="s">
-        <v>490</v>
+      <c r="F69" s="84" t="s">
+        <v>488</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="H69" s="74">
+        <v>478</v>
+      </c>
+      <c r="H69" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11099,7 +11091,7 @@
       <c r="J69" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="64" t="s">
+      <c r="K69" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L69" s="17" t="s">
@@ -11135,22 +11127,22 @@
       <c r="B70" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D70" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="65" t="s">
+      <c r="E70" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="85" t="s">
-        <v>490</v>
+      <c r="F70" s="84" t="s">
+        <v>488</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="H70" s="74">
+        <v>478</v>
+      </c>
+      <c r="H70" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11160,7 +11152,7 @@
       <c r="J70" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K70" s="64" t="s">
+      <c r="K70" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L70" s="17" t="s">
@@ -11196,7 +11188,7 @@
       <c r="B71" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="63">
+      <c r="C71" s="62">
         <v>4</v>
       </c>
       <c r="D71" s="29" t="s">
@@ -11205,11 +11197,11 @@
       <c r="E71" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="84" t="s">
-        <v>486</v>
+      <c r="F71" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G71" s="20"/>
-      <c r="H71" s="74">
+      <c r="H71" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11219,7 +11211,7 @@
       <c r="J71" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K71" s="64" t="s">
+      <c r="K71" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="17" t="s">
@@ -11255,7 +11247,7 @@
       <c r="B72" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="63">
+      <c r="C72" s="62">
         <v>4</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -11264,11 +11256,11 @@
       <c r="E72" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="84" t="s">
-        <v>486</v>
+      <c r="F72" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G72" s="20"/>
-      <c r="H72" s="74">
+      <c r="H72" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11278,7 +11270,7 @@
       <c r="J72" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K72" s="64" t="s">
+      <c r="K72" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L72" s="17" t="s">
@@ -11314,20 +11306,20 @@
       <c r="B73" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="63">
+      <c r="C73" s="62">
         <v>5</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D73" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G73" s="20"/>
-      <c r="H73" s="74">
+      <c r="H73" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11337,7 +11329,7 @@
       <c r="J73" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="64" t="s">
+      <c r="K73" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L73" s="17" t="s">
@@ -11373,7 +11365,7 @@
       <c r="B74" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="63">
+      <c r="C74" s="62">
         <v>4</v>
       </c>
       <c r="D74" s="29" t="s">
@@ -11382,11 +11374,11 @@
       <c r="E74" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="84" t="s">
-        <v>486</v>
+      <c r="F74" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G74" s="20"/>
-      <c r="H74" s="74">
+      <c r="H74" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11396,7 +11388,7 @@
       <c r="J74" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="64" t="s">
+      <c r="K74" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L74" s="17" t="s">
@@ -11432,7 +11424,7 @@
       <c r="B75" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="62">
         <v>4</v>
       </c>
       <c r="D75" s="29" t="s">
@@ -11441,13 +11433,13 @@
       <c r="E75" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="84" t="s">
-        <v>486</v>
-      </c>
-      <c r="G75" s="65" t="s">
-        <v>481</v>
-      </c>
-      <c r="H75" s="74">
+      <c r="F75" s="83" t="s">
+        <v>484</v>
+      </c>
+      <c r="G75" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="H75" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11457,7 +11449,7 @@
       <c r="J75" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K75" s="64" t="s">
+      <c r="K75" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L75" s="17" t="s">
@@ -11493,7 +11485,7 @@
       <c r="B76" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="63">
+      <c r="C76" s="62">
         <v>4</v>
       </c>
       <c r="D76" s="29" t="s">
@@ -11502,11 +11494,11 @@
       <c r="E76" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="84" t="s">
-        <v>486</v>
+      <c r="F76" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G76" s="20"/>
-      <c r="H76" s="74">
+      <c r="H76" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11516,7 +11508,7 @@
       <c r="J76" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="64" t="s">
+      <c r="K76" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L76" s="17" t="s">
@@ -11552,7 +11544,7 @@
       <c r="B77" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="63">
+      <c r="C77" s="62">
         <v>5</v>
       </c>
       <c r="D77" s="29" t="s">
@@ -11561,11 +11553,11 @@
       <c r="E77" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="84" t="s">
-        <v>486</v>
+      <c r="F77" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G77" s="20"/>
-      <c r="H77" s="74">
+      <c r="H77" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11575,7 +11567,7 @@
       <c r="J77" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="64" t="s">
+      <c r="K77" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L77" s="16" t="s">
@@ -11611,7 +11603,7 @@
       <c r="B78" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="63">
+      <c r="C78" s="62">
         <v>4</v>
       </c>
       <c r="D78" s="29" t="s">
@@ -11620,11 +11612,11 @@
       <c r="E78" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G78" s="84"/>
-      <c r="H78" s="74">
+      <c r="F78" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G78" s="83"/>
+      <c r="H78" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11634,7 +11626,7 @@
       <c r="J78" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="64" t="s">
+      <c r="K78" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L78" s="16" t="s">
@@ -11670,20 +11662,20 @@
       <c r="B79" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="63">
+      <c r="C79" s="62">
         <v>4</v>
       </c>
-      <c r="D79" s="65" t="s">
+      <c r="D79" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G79" s="20"/>
-      <c r="H79" s="74">
+      <c r="H79" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11693,7 +11685,7 @@
       <c r="J79" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="64" t="s">
+      <c r="K79" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L79" s="17" t="s">
@@ -11729,7 +11721,7 @@
       <c r="B80" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="63">
+      <c r="C80" s="62">
         <v>5</v>
       </c>
       <c r="D80" s="29" t="s">
@@ -11738,11 +11730,11 @@
       <c r="E80" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="84" t="s">
-        <v>486</v>
+      <c r="F80" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G80" s="20"/>
-      <c r="H80" s="74">
+      <c r="H80" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11752,7 +11744,7 @@
       <c r="J80" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="64" t="s">
+      <c r="K80" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L80" s="17" t="s">
@@ -11788,20 +11780,20 @@
       <c r="B81" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C81" s="63">
+      <c r="C81" s="62">
         <v>6</v>
       </c>
-      <c r="D81" s="65" t="s">
+      <c r="D81" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G81" s="84"/>
-      <c r="H81" s="74">
+      <c r="F81" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G81" s="83"/>
+      <c r="H81" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11811,7 +11803,7 @@
       <c r="J81" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="64" t="s">
+      <c r="K81" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L81" s="17" t="s">
@@ -11847,20 +11839,20 @@
       <c r="B82" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C82" s="63">
+      <c r="C82" s="62">
         <v>4</v>
       </c>
-      <c r="D82" s="65" t="s">
+      <c r="D82" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E82" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="84" t="s">
-        <v>486</v>
+      <c r="F82" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G82" s="20"/>
-      <c r="H82" s="74">
+      <c r="H82" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11870,7 +11862,7 @@
       <c r="J82" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K82" s="64" t="s">
+      <c r="K82" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L82" s="17" t="s">
@@ -11906,7 +11898,7 @@
       <c r="B83" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C83" s="63">
+      <c r="C83" s="62">
         <v>6</v>
       </c>
       <c r="D83" s="29" t="s">
@@ -11915,11 +11907,11 @@
       <c r="E83" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="84" t="s">
-        <v>486</v>
+      <c r="F83" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G83" s="20"/>
-      <c r="H83" s="74">
+      <c r="H83" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11929,7 +11921,7 @@
       <c r="J83" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K83" s="64" t="s">
+      <c r="K83" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L83" s="17" t="s">
@@ -11967,7 +11959,7 @@
       <c r="B84" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="63">
+      <c r="C84" s="62">
         <v>5</v>
       </c>
       <c r="D84" s="29" t="s">
@@ -11976,13 +11968,13 @@
       <c r="E84" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="84" t="s">
-        <v>486</v>
-      </c>
-      <c r="G84" s="65" t="s">
-        <v>481</v>
-      </c>
-      <c r="H84" s="74">
+      <c r="F84" s="83" t="s">
+        <v>484</v>
+      </c>
+      <c r="G84" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="H84" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -11992,10 +11984,10 @@
       <c r="J84" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="64" t="s">
+      <c r="K84" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L84" s="68" t="s">
+      <c r="L84" s="67" t="s">
         <v>52</v>
       </c>
       <c r="M84" s="16" t="s">
@@ -12028,20 +12020,20 @@
       <c r="B85" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="63">
+      <c r="C85" s="62">
         <v>4</v>
       </c>
-      <c r="D85" s="65" t="s">
+      <c r="D85" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G85" s="20"/>
-      <c r="H85" s="74">
+      <c r="H85" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12051,7 +12043,7 @@
       <c r="J85" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="64" t="s">
+      <c r="K85" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L85" s="17" t="s">
@@ -12087,20 +12079,20 @@
       <c r="B86" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C86" s="63">
+      <c r="C86" s="62">
         <v>4</v>
       </c>
-      <c r="D86" s="65" t="s">
+      <c r="D86" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E86" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="84" t="s">
-        <v>486</v>
+      <c r="F86" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G86" s="20"/>
-      <c r="H86" s="74">
+      <c r="H86" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12110,7 +12102,7 @@
       <c r="J86" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="64" t="s">
+      <c r="K86" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L86" s="17" t="s">
@@ -12146,20 +12138,20 @@
       <c r="B87" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C87" s="63">
+      <c r="C87" s="62">
         <v>4</v>
       </c>
-      <c r="D87" s="65" t="s">
+      <c r="D87" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E87" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="84" t="s">
-        <v>486</v>
+      <c r="F87" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G87" s="20"/>
-      <c r="H87" s="74">
+      <c r="H87" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12169,7 +12161,7 @@
       <c r="J87" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K87" s="64" t="s">
+      <c r="K87" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L87" s="16"/>
@@ -12203,7 +12195,7 @@
       <c r="B88" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="62" t="s">
         <v>201</v>
       </c>
       <c r="D88" s="29" t="s">
@@ -12212,13 +12204,13 @@
       <c r="E88" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G88" s="65" t="s">
+      <c r="F88" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G88" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="H88" s="63">
+      <c r="H88" s="62">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12228,7 +12220,7 @@
       <c r="J88" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="64"/>
+      <c r="K88" s="63"/>
       <c r="L88" s="17" t="s">
         <v>28</v>
       </c>
@@ -12262,7 +12254,7 @@
       <c r="B89" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C89" s="63">
+      <c r="C89" s="62">
         <v>5</v>
       </c>
       <c r="D89" s="29" t="s">
@@ -12271,11 +12263,11 @@
       <c r="E89" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F89" s="84" t="s">
-        <v>486</v>
+      <c r="F89" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G89" s="20"/>
-      <c r="H89" s="74">
+      <c r="H89" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12285,7 +12277,7 @@
       <c r="J89" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K89" s="64" t="s">
+      <c r="K89" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L89" s="17" t="s">
@@ -12321,7 +12313,7 @@
       <c r="B90" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C90" s="63">
+      <c r="C90" s="62">
         <v>5</v>
       </c>
       <c r="D90" s="29" t="s">
@@ -12330,11 +12322,11 @@
       <c r="E90" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F90" s="84" t="s">
-        <v>486</v>
+      <c r="F90" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G90" s="20"/>
-      <c r="H90" s="74">
+      <c r="H90" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12344,7 +12336,7 @@
       <c r="J90" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K90" s="64" t="s">
+      <c r="K90" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L90" s="17" t="s">
@@ -12380,7 +12372,7 @@
       <c r="B91" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C91" s="63">
+      <c r="C91" s="62">
         <v>5</v>
       </c>
       <c r="D91" s="29" t="s">
@@ -12389,11 +12381,11 @@
       <c r="E91" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G91" s="84"/>
-      <c r="H91" s="74">
+      <c r="F91" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G91" s="83"/>
+      <c r="H91" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12403,7 +12395,7 @@
       <c r="J91" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="64" t="s">
+      <c r="K91" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L91" s="16" t="s">
@@ -12439,20 +12431,20 @@
       <c r="B92" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="63">
+      <c r="C92" s="62">
         <v>3</v>
       </c>
-      <c r="D92" s="65" t="s">
+      <c r="D92" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E92" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G92" s="20"/>
-      <c r="H92" s="74">
+      <c r="H92" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12462,7 +12454,7 @@
       <c r="J92" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K92" s="64" t="s">
+      <c r="K92" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L92" s="17" t="s">
@@ -12498,26 +12490,26 @@
       <c r="B93" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="63">
+      <c r="C93" s="62">
         <v>4</v>
       </c>
-      <c r="D93" s="65" t="s">
+      <c r="D93" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E93" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F93" s="84" t="s">
-        <v>486</v>
+      <c r="F93" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G93" s="20"/>
-      <c r="H93" s="74">
+      <c r="H93" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="64" t="s">
+      <c r="K93" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L93" s="17" t="s">
@@ -12553,20 +12545,20 @@
       <c r="B94" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C94" s="63">
+      <c r="C94" s="62">
         <v>3</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="D94" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E94" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G94" s="20"/>
-      <c r="H94" s="74">
+      <c r="H94" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12576,7 +12568,7 @@
       <c r="J94" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="64" t="s">
+      <c r="K94" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L94" s="17" t="s">
@@ -12612,7 +12604,7 @@
       <c r="B95" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="63">
+      <c r="C95" s="62">
         <v>4</v>
       </c>
       <c r="D95" s="29" t="s">
@@ -12621,11 +12613,11 @@
       <c r="E95" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="84" t="s">
-        <v>486</v>
+      <c r="F95" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G95" s="20"/>
-      <c r="H95" s="74">
+      <c r="H95" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12635,7 +12627,7 @@
       <c r="J95" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K95" s="64" t="s">
+      <c r="K95" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L95" s="16" t="s">
@@ -12673,7 +12665,7 @@
       <c r="B96" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C96" s="63">
+      <c r="C96" s="62">
         <v>5</v>
       </c>
       <c r="D96" s="29" t="s">
@@ -12682,11 +12674,11 @@
       <c r="E96" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F96" s="84" t="s">
-        <v>486</v>
+      <c r="F96" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G96" s="20"/>
-      <c r="H96" s="74">
+      <c r="H96" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12696,7 +12688,7 @@
       <c r="J96" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K96" s="64" t="s">
+      <c r="K96" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L96" s="16" t="s">
@@ -12732,7 +12724,7 @@
       <c r="B97" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C97" s="63">
+      <c r="C97" s="62">
         <v>4</v>
       </c>
       <c r="D97" s="29" t="s">
@@ -12741,11 +12733,11 @@
       <c r="E97" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F97" s="84" t="s">
-        <v>486</v>
+      <c r="F97" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G97" s="20"/>
-      <c r="H97" s="74">
+      <c r="H97" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12755,7 +12747,7 @@
       <c r="J97" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K97" s="64" t="s">
+      <c r="K97" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L97" s="17" t="s">
@@ -12791,7 +12783,7 @@
       <c r="B98" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C98" s="63">
+      <c r="C98" s="62">
         <v>5</v>
       </c>
       <c r="D98" s="29" t="s">
@@ -12800,11 +12792,11 @@
       <c r="E98" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F98" s="84" t="s">
-        <v>486</v>
+      <c r="F98" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G98" s="20"/>
-      <c r="H98" s="74">
+      <c r="H98" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12814,7 +12806,7 @@
       <c r="J98" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K98" s="64" t="s">
+      <c r="K98" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L98" s="17" t="s">
@@ -12850,7 +12842,7 @@
       <c r="B99" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C99" s="63">
+      <c r="C99" s="62">
         <v>4</v>
       </c>
       <c r="D99" s="29" t="s">
@@ -12859,11 +12851,11 @@
       <c r="E99" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F99" s="84" t="s">
-        <v>486</v>
+      <c r="F99" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G99" s="20"/>
-      <c r="H99" s="74">
+      <c r="H99" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12873,7 +12865,7 @@
       <c r="J99" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K99" s="64" t="s">
+      <c r="K99" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L99" s="17" t="s">
@@ -12909,7 +12901,7 @@
       <c r="B100" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C100" s="63">
+      <c r="C100" s="62">
         <v>5</v>
       </c>
       <c r="D100" s="29" t="s">
@@ -12918,11 +12910,11 @@
       <c r="E100" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F100" s="84" t="s">
-        <v>486</v>
+      <c r="F100" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G100" s="20"/>
-      <c r="H100" s="74">
+      <c r="H100" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12932,7 +12924,7 @@
       <c r="J100" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K100" s="64" t="s">
+      <c r="K100" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L100" s="17" t="s">
@@ -12968,7 +12960,7 @@
       <c r="B101" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C101" s="63">
+      <c r="C101" s="62">
         <v>4</v>
       </c>
       <c r="D101" s="29" t="s">
@@ -12977,11 +12969,11 @@
       <c r="E101" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F101" s="84" t="s">
-        <v>486</v>
+      <c r="F101" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G101" s="20"/>
-      <c r="H101" s="74">
+      <c r="H101" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -12991,7 +12983,7 @@
       <c r="J101" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K101" s="64" t="s">
+      <c r="K101" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L101" s="17" t="s">
@@ -13027,20 +13019,20 @@
       <c r="B102" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C102" s="63">
+      <c r="C102" s="62">
         <v>4</v>
       </c>
-      <c r="D102" s="65" t="s">
+      <c r="D102" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E102" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G102" s="20"/>
-      <c r="H102" s="74">
+      <c r="H102" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13050,7 +13042,7 @@
       <c r="J102" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K102" s="64" t="s">
+      <c r="K102" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L102" s="17" t="s">
@@ -13086,7 +13078,7 @@
       <c r="B103" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C103" s="63">
+      <c r="C103" s="62">
         <v>5</v>
       </c>
       <c r="D103" s="29" t="s">
@@ -13095,11 +13087,11 @@
       <c r="E103" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F103" s="84" t="s">
-        <v>486</v>
+      <c r="F103" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G103" s="20"/>
-      <c r="H103" s="74">
+      <c r="H103" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13109,7 +13101,7 @@
       <c r="J103" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K103" s="64" t="s">
+      <c r="K103" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L103" s="17" t="s">
@@ -13145,7 +13137,7 @@
       <c r="B104" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C104" s="63">
+      <c r="C104" s="62">
         <v>5</v>
       </c>
       <c r="D104" s="29" t="s">
@@ -13154,11 +13146,11 @@
       <c r="E104" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F104" s="84" t="s">
-        <v>486</v>
+      <c r="F104" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G104" s="20"/>
-      <c r="H104" s="74">
+      <c r="H104" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13168,7 +13160,7 @@
       <c r="J104" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K104" s="64" t="s">
+      <c r="K104" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L104" s="16" t="s">
@@ -13204,7 +13196,7 @@
       <c r="B105" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="63">
+      <c r="C105" s="62">
         <v>6</v>
       </c>
       <c r="D105" s="29" t="s">
@@ -13213,11 +13205,11 @@
       <c r="E105" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F105" s="84" t="s">
-        <v>486</v>
+      <c r="F105" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="74">
+      <c r="H105" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13227,7 +13219,7 @@
       <c r="J105" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K105" s="64" t="s">
+      <c r="K105" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L105" s="16" t="s">
@@ -13263,7 +13255,7 @@
       <c r="B106" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="63">
+      <c r="C106" s="62">
         <v>5</v>
       </c>
       <c r="D106" s="29" t="s">
@@ -13272,11 +13264,11 @@
       <c r="E106" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F106" s="84" t="s">
-        <v>486</v>
+      <c r="F106" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G106" s="20"/>
-      <c r="H106" s="74">
+      <c r="H106" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13286,7 +13278,7 @@
       <c r="J106" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K106" s="64" t="s">
+      <c r="K106" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L106" s="17" t="s">
@@ -13322,7 +13314,7 @@
       <c r="B107" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="63">
+      <c r="C107" s="62">
         <v>4</v>
       </c>
       <c r="D107" s="29" t="s">
@@ -13331,11 +13323,11 @@
       <c r="E107" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F107" s="84" t="s">
-        <v>486</v>
+      <c r="F107" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="74">
+      <c r="H107" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13345,7 +13337,7 @@
       <c r="J107" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K107" s="64" t="s">
+      <c r="K107" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L107" s="16" t="s">
@@ -13381,20 +13373,20 @@
       <c r="B108" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="63">
+      <c r="C108" s="62">
         <v>4</v>
       </c>
-      <c r="D108" s="65" t="s">
+      <c r="D108" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E108" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G108" s="84"/>
-      <c r="H108" s="74">
+      <c r="F108" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G108" s="83"/>
+      <c r="H108" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13404,7 +13396,7 @@
       <c r="J108" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K108" s="64" t="s">
+      <c r="K108" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L108" s="17" t="s">
@@ -13440,20 +13432,20 @@
       <c r="B109" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="63">
+      <c r="C109" s="62">
         <v>5</v>
       </c>
-      <c r="D109" s="65" t="s">
+      <c r="D109" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G109" s="20"/>
-      <c r="H109" s="74">
+      <c r="H109" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13463,7 +13455,7 @@
       <c r="J109" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K109" s="64" t="s">
+      <c r="K109" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L109" s="17" t="s">
@@ -13499,20 +13491,20 @@
       <c r="B110" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="63">
+      <c r="C110" s="62">
         <v>4</v>
       </c>
-      <c r="D110" s="65" t="s">
+      <c r="D110" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E110" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G110" s="20"/>
-      <c r="H110" s="74">
+      <c r="H110" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13522,7 +13514,7 @@
       <c r="J110" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K110" s="64" t="s">
+      <c r="K110" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L110" s="17" t="s">
@@ -13558,20 +13550,20 @@
       <c r="B111" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="63">
+      <c r="C111" s="62">
         <v>5</v>
       </c>
-      <c r="D111" s="65" t="s">
+      <c r="D111" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E111" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="74">
+      <c r="H111" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13581,7 +13573,7 @@
       <c r="J111" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K111" s="64" t="s">
+      <c r="K111" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L111" s="17" t="s">
@@ -13617,7 +13609,7 @@
       <c r="B112" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C112" s="63">
+      <c r="C112" s="62">
         <v>5</v>
       </c>
       <c r="D112" s="29" t="s">
@@ -13626,11 +13618,11 @@
       <c r="E112" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F112" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G112" s="84"/>
-      <c r="H112" s="74">
+      <c r="F112" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G112" s="83"/>
+      <c r="H112" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13640,7 +13632,7 @@
       <c r="J112" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K112" s="64" t="s">
+      <c r="K112" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L112" s="16" t="s">
@@ -13676,7 +13668,7 @@
       <c r="B113" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C113" s="63">
+      <c r="C113" s="62">
         <v>6</v>
       </c>
       <c r="D113" s="29" t="s">
@@ -13685,11 +13677,11 @@
       <c r="E113" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F113" s="84" t="s">
-        <v>486</v>
+      <c r="F113" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G113" s="20"/>
-      <c r="H113" s="74">
+      <c r="H113" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13699,7 +13691,7 @@
       <c r="J113" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K113" s="64" t="s">
+      <c r="K113" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L113" s="17" t="s">
@@ -13735,7 +13727,7 @@
       <c r="B114" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C114" s="63">
+      <c r="C114" s="62">
         <v>3</v>
       </c>
       <c r="D114" s="29" t="s">
@@ -13744,11 +13736,11 @@
       <c r="E114" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F114" s="84" t="s">
-        <v>486</v>
+      <c r="F114" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G114" s="20"/>
-      <c r="H114" s="74">
+      <c r="H114" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13758,7 +13750,7 @@
       <c r="J114" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K114" s="64" t="s">
+      <c r="K114" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L114" s="17" t="s">
@@ -13797,19 +13789,19 @@
       <c r="C115" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D115" s="65" t="s">
+      <c r="D115" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="65" t="s">
+      <c r="E115" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="85" t="s">
-        <v>490</v>
+      <c r="F115" s="84" t="s">
+        <v>488</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="H115" s="74">
+        <v>480</v>
+      </c>
+      <c r="H115" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13819,7 +13811,7 @@
       <c r="J115" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K115" s="64" t="s">
+      <c r="K115" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L115" s="17" t="s">
@@ -13855,7 +13847,7 @@
       <c r="B116" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C116" s="63">
+      <c r="C116" s="62">
         <v>4</v>
       </c>
       <c r="D116" s="29" t="s">
@@ -13864,11 +13856,11 @@
       <c r="E116" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F116" s="84" t="s">
-        <v>486</v>
+      <c r="F116" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G116" s="20"/>
-      <c r="H116" s="74">
+      <c r="H116" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13878,7 +13870,7 @@
       <c r="J116" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K116" s="64" t="s">
+      <c r="K116" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L116" s="17" t="s">
@@ -13914,7 +13906,7 @@
       <c r="B117" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C117" s="63">
+      <c r="C117" s="62">
         <v>4</v>
       </c>
       <c r="D117" s="29" t="s">
@@ -13923,11 +13915,11 @@
       <c r="E117" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F117" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G117" s="84"/>
-      <c r="H117" s="74">
+      <c r="F117" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G117" s="83"/>
+      <c r="H117" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13937,7 +13929,7 @@
       <c r="J117" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K117" s="64" t="s">
+      <c r="K117" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L117" s="16" t="s">
@@ -13973,7 +13965,7 @@
       <c r="B118" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C118" s="63">
+      <c r="C118" s="62">
         <v>4</v>
       </c>
       <c r="D118" s="29" t="s">
@@ -13982,11 +13974,11 @@
       <c r="E118" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F118" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G118" s="84"/>
-      <c r="H118" s="74">
+      <c r="F118" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G118" s="83"/>
+      <c r="H118" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -13996,7 +13988,7 @@
       <c r="J118" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K118" s="64" t="s">
+      <c r="K118" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L118" s="16" t="s">
@@ -14032,20 +14024,20 @@
       <c r="B119" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C119" s="63">
+      <c r="C119" s="62">
         <v>4</v>
       </c>
-      <c r="D119" s="65" t="s">
+      <c r="D119" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E119" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G119" s="20"/>
-      <c r="H119" s="74">
+      <c r="H119" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14055,7 +14047,7 @@
       <c r="J119" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K119" s="64" t="s">
+      <c r="K119" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L119" s="17" t="s">
@@ -14091,7 +14083,7 @@
       <c r="B120" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C120" s="63">
+      <c r="C120" s="62">
         <v>5</v>
       </c>
       <c r="D120" s="29" t="s">
@@ -14100,11 +14092,11 @@
       <c r="E120" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F120" s="84" t="s">
-        <v>486</v>
+      <c r="F120" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G120" s="20"/>
-      <c r="H120" s="74">
+      <c r="H120" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14114,7 +14106,7 @@
       <c r="J120" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K120" s="64" t="s">
+      <c r="K120" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L120" s="16" t="s">
@@ -14150,7 +14142,7 @@
       <c r="B121" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C121" s="63">
+      <c r="C121" s="62">
         <v>4</v>
       </c>
       <c r="D121" s="29" t="s">
@@ -14159,17 +14151,17 @@
       <c r="E121" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F121" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G121" s="84"/>
-      <c r="H121" s="74">
+      <c r="F121" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G121" s="83"/>
+      <c r="H121" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I121" s="16"/>
       <c r="J121" s="16"/>
-      <c r="K121" s="64" t="s">
+      <c r="K121" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L121" s="17" t="s">
@@ -14205,7 +14197,7 @@
       <c r="B122" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="63">
+      <c r="C122" s="62">
         <v>6</v>
       </c>
       <c r="D122" s="29" t="s">
@@ -14214,11 +14206,11 @@
       <c r="E122" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F122" s="84" t="s">
-        <v>486</v>
+      <c r="F122" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G122" s="20"/>
-      <c r="H122" s="74">
+      <c r="H122" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14228,7 +14220,7 @@
       <c r="J122" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K122" s="64" t="s">
+      <c r="K122" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L122" s="16" t="s">
@@ -14264,20 +14256,20 @@
       <c r="B123" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C123" s="63">
+      <c r="C123" s="62">
         <v>4</v>
       </c>
-      <c r="D123" s="65" t="s">
+      <c r="D123" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E123" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G123" s="20"/>
-      <c r="H123" s="74">
+      <c r="H123" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14287,7 +14279,7 @@
       <c r="J123" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K123" s="64" t="s">
+      <c r="K123" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L123" s="17" t="s">
@@ -14323,20 +14315,20 @@
       <c r="B124" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C124" s="63">
+      <c r="C124" s="62">
         <v>4</v>
       </c>
-      <c r="D124" s="65" t="s">
+      <c r="D124" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E124" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="84" t="s">
-        <v>486</v>
+      <c r="F124" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G124" s="20"/>
-      <c r="H124" s="74">
+      <c r="H124" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14346,7 +14338,7 @@
       <c r="J124" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K124" s="64" t="s">
+      <c r="K124" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L124" s="16" t="s">
@@ -14382,7 +14374,7 @@
       <c r="B125" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C125" s="63">
+      <c r="C125" s="62">
         <v>4</v>
       </c>
       <c r="D125" s="29" t="s">
@@ -14391,11 +14383,11 @@
       <c r="E125" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F125" s="84" t="s">
-        <v>486</v>
+      <c r="F125" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G125" s="20"/>
-      <c r="H125" s="74">
+      <c r="H125" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14405,7 +14397,7 @@
       <c r="J125" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K125" s="64" t="s">
+      <c r="K125" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L125" s="17" t="s">
@@ -14444,17 +14436,17 @@
       <c r="C126" s="43">
         <v>5</v>
       </c>
-      <c r="D126" s="65" t="s">
+      <c r="D126" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E126" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F126" s="84" t="s">
-        <v>486</v>
+      <c r="F126" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G126" s="20"/>
-      <c r="H126" s="74">
+      <c r="H126" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14478,31 +14470,31 @@
       <c r="A127" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B127" s="64" t="s">
+      <c r="B127" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="C127" s="63">
+      <c r="C127" s="62">
         <v>5</v>
       </c>
-      <c r="D127" s="65" t="s">
+      <c r="D127" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E127" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F127" s="84" t="s">
-        <v>486</v>
+      <c r="F127" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H127" s="74">
+      <c r="H127" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I127" s="16"/>
       <c r="J127" s="16"/>
-      <c r="K127" s="64" t="s">
+      <c r="K127" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L127" s="17" t="s">
@@ -14538,7 +14530,7 @@
       <c r="B128" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="63">
+      <c r="C128" s="62">
         <v>4</v>
       </c>
       <c r="D128" s="29" t="s">
@@ -14547,11 +14539,11 @@
       <c r="E128" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="84" t="s">
-        <v>486</v>
+      <c r="F128" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G128" s="20"/>
-      <c r="H128" s="74">
+      <c r="H128" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14561,7 +14553,7 @@
       <c r="J128" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K128" s="64" t="s">
+      <c r="K128" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L128" s="16" t="s">
@@ -14597,20 +14589,20 @@
       <c r="B129" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C129" s="63">
+      <c r="C129" s="62">
         <v>4</v>
       </c>
-      <c r="D129" s="65" t="s">
+      <c r="D129" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E129" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F129" s="84" t="s">
-        <v>486</v>
+      <c r="F129" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G129" s="20"/>
-      <c r="H129" s="74">
+      <c r="H129" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14620,7 +14612,7 @@
       <c r="J129" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K129" s="64" t="s">
+      <c r="K129" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L129" s="16"/>
@@ -14654,7 +14646,7 @@
       <c r="B130" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C130" s="63">
+      <c r="C130" s="62">
         <v>5</v>
       </c>
       <c r="D130" s="29" t="s">
@@ -14663,11 +14655,11 @@
       <c r="E130" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F130" s="84" t="s">
-        <v>486</v>
+      <c r="F130" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G130" s="20"/>
-      <c r="H130" s="74">
+      <c r="H130" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14677,7 +14669,7 @@
       <c r="J130" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K130" s="64" t="s">
+      <c r="K130" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L130" s="16" t="s">
@@ -14713,26 +14705,26 @@
       <c r="B131" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C131" s="63">
+      <c r="C131" s="62">
         <v>4</v>
       </c>
-      <c r="D131" s="65" t="s">
+      <c r="D131" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E131" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="84" t="s">
-        <v>486</v>
+      <c r="F131" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G131" s="20"/>
-      <c r="H131" s="74">
+      <c r="H131" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
-      <c r="K131" s="64" t="s">
+      <c r="K131" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L131" s="17" t="s">
@@ -14768,20 +14760,20 @@
       <c r="B132" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C132" s="63">
+      <c r="C132" s="62">
         <v>5</v>
       </c>
-      <c r="D132" s="65" t="s">
+      <c r="D132" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E132" s="65" t="s">
+      <c r="E132" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G132" s="84"/>
-      <c r="H132" s="74">
+      <c r="F132" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G132" s="83"/>
+      <c r="H132" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14791,7 +14783,7 @@
       <c r="J132" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="64" t="s">
+      <c r="K132" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L132" s="17" t="s">
@@ -14827,7 +14819,7 @@
       <c r="B133" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C133" s="63">
+      <c r="C133" s="62">
         <v>6</v>
       </c>
       <c r="D133" s="29" t="s">
@@ -14836,11 +14828,11 @@
       <c r="E133" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F133" s="84" t="s">
-        <v>487</v>
+      <c r="F133" s="83" t="s">
+        <v>485</v>
       </c>
       <c r="G133" s="20"/>
-      <c r="H133" s="74">
+      <c r="H133" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14864,29 +14856,29 @@
       <c r="A134" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B134" s="64" t="s">
+      <c r="B134" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="C134" s="63">
+      <c r="C134" s="62">
         <v>5</v>
       </c>
-      <c r="D134" s="65" t="s">
+      <c r="D134" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E134" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G134" s="20"/>
-      <c r="H134" s="74">
+      <c r="H134" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
-      <c r="K134" s="64" t="s">
+      <c r="K134" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L134" s="17"/>
@@ -14918,20 +14910,20 @@
       <c r="B135" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C135" s="63">
+      <c r="C135" s="62">
         <v>3</v>
       </c>
-      <c r="D135" s="65" t="s">
+      <c r="D135" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E135" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F135" s="84" t="s">
-        <v>486</v>
+      <c r="F135" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G135" s="20"/>
-      <c r="H135" s="74">
+      <c r="H135" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -14941,7 +14933,7 @@
       <c r="J135" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K135" s="64" t="s">
+      <c r="K135" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L135" s="17" t="s">
@@ -14977,20 +14969,20 @@
       <c r="B136" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C136" s="63">
+      <c r="C136" s="62">
         <v>4</v>
       </c>
-      <c r="D136" s="65" t="s">
+      <c r="D136" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E136" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F136" s="84" t="s">
-        <v>486</v>
+      <c r="F136" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G136" s="20"/>
-      <c r="H136" s="74">
+      <c r="H136" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15000,7 +14992,7 @@
       <c r="J136" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K136" s="64" t="s">
+      <c r="K136" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L136" s="17" t="s">
@@ -15036,20 +15028,20 @@
       <c r="B137" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C137" s="63">
+      <c r="C137" s="62">
         <v>4</v>
       </c>
-      <c r="D137" s="65" t="s">
+      <c r="D137" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E137" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F137" s="84" t="s">
-        <v>486</v>
+      <c r="F137" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G137" s="20"/>
-      <c r="H137" s="74">
+      <c r="H137" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15059,7 +15051,7 @@
       <c r="J137" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K137" s="64" t="s">
+      <c r="K137" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L137" s="17" t="s">
@@ -15095,7 +15087,7 @@
       <c r="B138" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C138" s="63">
+      <c r="C138" s="62">
         <v>5</v>
       </c>
       <c r="D138" s="29" t="s">
@@ -15104,11 +15096,11 @@
       <c r="E138" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F138" s="84" t="s">
-        <v>486</v>
+      <c r="F138" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G138" s="20"/>
-      <c r="H138" s="74">
+      <c r="H138" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15118,7 +15110,7 @@
       <c r="J138" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K138" s="64" t="s">
+      <c r="K138" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L138" s="17" t="s">
@@ -15154,20 +15146,20 @@
       <c r="B139" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="63">
+      <c r="C139" s="62">
         <v>4</v>
       </c>
-      <c r="D139" s="65" t="s">
+      <c r="D139" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E139" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G139" s="20"/>
-      <c r="H139" s="74">
+      <c r="H139" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15177,7 +15169,7 @@
       <c r="J139" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K139" s="64" t="s">
+      <c r="K139" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L139" s="17" t="s">
@@ -15213,20 +15205,20 @@
       <c r="B140" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C140" s="63">
+      <c r="C140" s="62">
         <v>5</v>
       </c>
-      <c r="D140" s="65" t="s">
+      <c r="D140" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E140" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F140" s="84" t="s">
-        <v>486</v>
+      <c r="F140" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G140" s="20"/>
-      <c r="H140" s="74">
+      <c r="H140" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15236,7 +15228,7 @@
       <c r="J140" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K140" s="64" t="s">
+      <c r="K140" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L140" s="17" t="s">
@@ -15272,20 +15264,20 @@
       <c r="B141" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C141" s="63">
+      <c r="C141" s="62">
         <v>4</v>
       </c>
-      <c r="D141" s="65" t="s">
+      <c r="D141" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E141" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F141" s="84" t="s">
-        <v>486</v>
+      <c r="F141" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G141" s="20"/>
-      <c r="H141" s="74">
+      <c r="H141" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15295,7 +15287,7 @@
       <c r="J141" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K141" s="64" t="s">
+      <c r="K141" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L141" s="17" t="s">
@@ -15331,20 +15323,20 @@
       <c r="B142" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C142" s="63">
+      <c r="C142" s="62">
         <v>4</v>
       </c>
-      <c r="D142" s="65" t="s">
+      <c r="D142" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E142" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F142" s="84" t="s">
-        <v>486</v>
+      <c r="F142" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G142" s="20"/>
-      <c r="H142" s="74">
+      <c r="H142" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15354,7 +15346,7 @@
       <c r="J142" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K142" s="64" t="s">
+      <c r="K142" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L142" s="17" t="s">
@@ -15390,7 +15382,7 @@
       <c r="B143" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C143" s="63">
+      <c r="C143" s="62">
         <v>5</v>
       </c>
       <c r="D143" s="29" t="s">
@@ -15399,11 +15391,11 @@
       <c r="E143" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F143" s="84" t="s">
-        <v>486</v>
+      <c r="F143" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G143" s="20"/>
-      <c r="H143" s="74">
+      <c r="H143" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15413,7 +15405,7 @@
       <c r="J143" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K143" s="64" t="s">
+      <c r="K143" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L143" s="17" t="s">
@@ -15451,7 +15443,7 @@
       <c r="B144" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C144" s="63">
+      <c r="C144" s="62">
         <v>3</v>
       </c>
       <c r="D144" s="29" t="s">
@@ -15460,11 +15452,11 @@
       <c r="E144" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F144" s="84" t="s">
-        <v>486</v>
+      <c r="F144" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G144" s="20"/>
-      <c r="H144" s="74">
+      <c r="H144" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15474,7 +15466,7 @@
       <c r="J144" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K144" s="64" t="s">
+      <c r="K144" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L144" s="17" t="s">
@@ -15510,20 +15502,20 @@
       <c r="B145" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C145" s="63">
+      <c r="C145" s="62">
         <v>5</v>
       </c>
-      <c r="D145" s="65" t="s">
+      <c r="D145" s="64" t="s">
         <v>120</v>
       </c>
       <c r="E145" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F145" s="84" t="s">
-        <v>486</v>
+      <c r="F145" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G145" s="20"/>
-      <c r="H145" s="74">
+      <c r="H145" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15533,7 +15525,7 @@
       <c r="J145" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K145" s="64" t="s">
+      <c r="K145" s="63" t="s">
         <v>120</v>
       </c>
       <c r="L145" s="17" t="s">
@@ -15569,7 +15561,7 @@
       <c r="B146" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C146" s="63">
+      <c r="C146" s="62">
         <v>4</v>
       </c>
       <c r="D146" s="29" t="s">
@@ -15578,11 +15570,11 @@
       <c r="E146" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F146" s="84" t="s">
-        <v>486</v>
+      <c r="F146" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G146" s="20"/>
-      <c r="H146" s="74">
+      <c r="H146" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15592,7 +15584,7 @@
       <c r="J146" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K146" s="64" t="s">
+      <c r="K146" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L146" s="17" t="s">
@@ -15630,20 +15622,20 @@
       <c r="B147" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C147" s="63">
+      <c r="C147" s="62">
         <v>5</v>
       </c>
-      <c r="D147" s="65" t="s">
+      <c r="D147" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E147" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G147" s="20"/>
-      <c r="H147" s="74">
+      <c r="H147" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15653,7 +15645,7 @@
       <c r="J147" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K147" s="64" t="s">
+      <c r="K147" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L147" s="17" t="s">
@@ -15689,7 +15681,7 @@
       <c r="B148" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C148" s="63">
+      <c r="C148" s="62">
         <v>4</v>
       </c>
       <c r="D148" s="29" t="s">
@@ -15698,11 +15690,11 @@
       <c r="E148" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F148" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G148" s="84"/>
-      <c r="H148" s="74">
+      <c r="F148" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G148" s="83"/>
+      <c r="H148" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15712,7 +15704,7 @@
       <c r="J148" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K148" s="64" t="s">
+      <c r="K148" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L148" s="17" t="s">
@@ -15748,7 +15740,7 @@
       <c r="B149" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C149" s="63">
+      <c r="C149" s="62">
         <v>3</v>
       </c>
       <c r="D149" s="29" t="s">
@@ -15757,11 +15749,11 @@
       <c r="E149" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F149" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G149" s="84"/>
-      <c r="H149" s="74">
+      <c r="F149" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G149" s="83"/>
+      <c r="H149" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15771,7 +15763,7 @@
       <c r="J149" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K149" s="64" t="s">
+      <c r="K149" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L149" s="17" t="s">
@@ -15807,20 +15799,20 @@
       <c r="B150" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C150" s="63">
+      <c r="C150" s="62">
         <v>4</v>
       </c>
-      <c r="D150" s="65" t="s">
+      <c r="D150" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E150" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F150" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G150" s="84"/>
-      <c r="H150" s="74">
+      <c r="F150" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G150" s="83"/>
+      <c r="H150" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15830,7 +15822,7 @@
       <c r="J150" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K150" s="64" t="s">
+      <c r="K150" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L150" s="16" t="s">
@@ -15866,7 +15858,7 @@
       <c r="B151" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C151" s="63">
+      <c r="C151" s="62">
         <v>4</v>
       </c>
       <c r="D151" s="29" t="s">
@@ -15876,10 +15868,10 @@
         <v>98</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G151" s="20"/>
-      <c r="H151" s="74">
+      <c r="H151" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15889,7 +15881,7 @@
       <c r="J151" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K151" s="64" t="s">
+      <c r="K151" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L151" s="17" t="s">
@@ -15925,7 +15917,7 @@
       <c r="B152" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="63">
+      <c r="C152" s="62">
         <v>3</v>
       </c>
       <c r="D152" s="29" t="s">
@@ -15935,10 +15927,10 @@
         <v>98</v>
       </c>
       <c r="F152" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G152" s="20"/>
-      <c r="H152" s="74">
+      <c r="H152" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -15948,7 +15940,7 @@
       <c r="J152" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K152" s="64" t="s">
+      <c r="K152" s="63" t="s">
         <v>98</v>
       </c>
       <c r="L152" s="17" t="s">
@@ -15984,7 +15976,7 @@
       <c r="B153" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C153" s="63">
+      <c r="C153" s="62">
         <v>2</v>
       </c>
       <c r="D153" s="29" t="s">
@@ -15993,11 +15985,11 @@
       <c r="E153" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F153" s="84" t="s">
-        <v>486</v>
+      <c r="F153" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G153" s="20"/>
-      <c r="H153" s="74">
+      <c r="H153" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16007,7 +15999,7 @@
       <c r="J153" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K153" s="64" t="s">
+      <c r="K153" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L153" s="17" t="s">
@@ -16045,7 +16037,7 @@
       <c r="B154" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C154" s="63">
+      <c r="C154" s="62">
         <v>2</v>
       </c>
       <c r="D154" s="29" t="s">
@@ -16054,11 +16046,11 @@
       <c r="E154" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F154" s="84" t="s">
-        <v>486</v>
+      <c r="F154" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G154" s="20"/>
-      <c r="H154" s="74">
+      <c r="H154" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16068,7 +16060,7 @@
       <c r="J154" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K154" s="64" t="s">
+      <c r="K154" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L154" s="17" t="s">
@@ -16106,20 +16098,20 @@
       <c r="B155" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C155" s="63">
+      <c r="C155" s="62">
         <v>2</v>
       </c>
-      <c r="D155" s="65" t="s">
+      <c r="D155" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E155" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F155" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G155" s="84"/>
-      <c r="H155" s="74">
+      <c r="F155" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G155" s="83"/>
+      <c r="H155" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16129,7 +16121,7 @@
       <c r="J155" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K155" s="64" t="s">
+      <c r="K155" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L155" s="17" t="s">
@@ -16165,20 +16157,20 @@
       <c r="B156" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C156" s="63">
+      <c r="C156" s="62">
         <v>2</v>
       </c>
-      <c r="D156" s="65" t="s">
+      <c r="D156" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E156" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F156" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G156" s="84"/>
-      <c r="H156" s="74">
+      <c r="F156" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G156" s="83"/>
+      <c r="H156" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16188,7 +16180,7 @@
       <c r="J156" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K156" s="64" t="s">
+      <c r="K156" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L156" s="17" t="s">
@@ -16224,20 +16216,20 @@
       <c r="B157" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C157" s="63">
+      <c r="C157" s="62">
         <v>3</v>
       </c>
-      <c r="D157" s="65" t="s">
+      <c r="D157" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E157" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F157" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G157" s="84"/>
-      <c r="H157" s="74">
+      <c r="F157" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G157" s="83"/>
+      <c r="H157" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16247,7 +16239,7 @@
       <c r="J157" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K157" s="64" t="s">
+      <c r="K157" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L157" s="17" t="s">
@@ -16283,20 +16275,20 @@
       <c r="B158" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C158" s="63">
+      <c r="C158" s="62">
         <v>2</v>
       </c>
-      <c r="D158" s="65" t="s">
+      <c r="D158" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E158" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F158" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G158" s="84"/>
-      <c r="H158" s="74">
+      <c r="F158" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G158" s="83"/>
+      <c r="H158" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16306,7 +16298,7 @@
       <c r="J158" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K158" s="64" t="s">
+      <c r="K158" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L158" s="17" t="s">
@@ -16342,7 +16334,7 @@
       <c r="B159" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C159" s="63">
+      <c r="C159" s="62">
         <v>2</v>
       </c>
       <c r="D159" s="29" t="s">
@@ -16351,11 +16343,11 @@
       <c r="E159" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F159" s="84" t="s">
-        <v>486</v>
+      <c r="F159" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G159" s="20"/>
-      <c r="H159" s="74">
+      <c r="H159" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16365,7 +16357,7 @@
       <c r="J159" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K159" s="64" t="s">
+      <c r="K159" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L159" s="17" t="s">
@@ -16403,7 +16395,7 @@
       <c r="B160" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C160" s="63">
+      <c r="C160" s="62">
         <v>2</v>
       </c>
       <c r="D160" s="29" t="s">
@@ -16412,11 +16404,11 @@
       <c r="E160" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F160" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G160" s="84"/>
-      <c r="H160" s="74">
+      <c r="F160" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G160" s="83"/>
+      <c r="H160" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16426,7 +16418,7 @@
       <c r="J160" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K160" s="64" t="s">
+      <c r="K160" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L160" s="16" t="s">
@@ -16462,7 +16454,7 @@
       <c r="B161" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C161" s="63">
+      <c r="C161" s="62">
         <v>2</v>
       </c>
       <c r="D161" s="29" t="s">
@@ -16471,11 +16463,11 @@
       <c r="E161" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F161" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G161" s="84"/>
-      <c r="H161" s="74">
+      <c r="F161" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G161" s="83"/>
+      <c r="H161" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16485,7 +16477,7 @@
       <c r="J161" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K161" s="64" t="s">
+      <c r="K161" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L161" s="16" t="s">
@@ -16521,7 +16513,7 @@
       <c r="B162" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C162" s="63">
+      <c r="C162" s="62">
         <v>2</v>
       </c>
       <c r="D162" s="29" t="s">
@@ -16530,11 +16522,11 @@
       <c r="E162" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F162" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G162" s="84"/>
-      <c r="H162" s="74">
+      <c r="F162" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G162" s="83"/>
+      <c r="H162" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16544,7 +16536,7 @@
       <c r="J162" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K162" s="64" t="s">
+      <c r="K162" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L162" s="16" t="s">
@@ -16580,7 +16572,7 @@
       <c r="B163" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C163" s="63">
+      <c r="C163" s="62">
         <v>2</v>
       </c>
       <c r="D163" s="29" t="s">
@@ -16589,11 +16581,11 @@
       <c r="E163" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F163" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G163" s="84"/>
-      <c r="H163" s="74">
+      <c r="F163" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G163" s="83"/>
+      <c r="H163" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16603,7 +16595,7 @@
       <c r="J163" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K163" s="64" t="s">
+      <c r="K163" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L163" s="17" t="s">
@@ -16639,7 +16631,7 @@
       <c r="B164" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C164" s="63">
+      <c r="C164" s="62">
         <v>3</v>
       </c>
       <c r="D164" s="29" t="s">
@@ -16648,11 +16640,11 @@
       <c r="E164" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F164" s="84" t="s">
-        <v>486</v>
+      <c r="F164" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G164" s="20"/>
-      <c r="H164" s="74">
+      <c r="H164" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16662,7 +16654,7 @@
       <c r="J164" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K164" s="64" t="s">
+      <c r="K164" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L164" s="16" t="s">
@@ -16700,7 +16692,7 @@
       <c r="B165" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C165" s="63">
+      <c r="C165" s="62">
         <v>2</v>
       </c>
       <c r="D165" s="29" t="s">
@@ -16709,11 +16701,11 @@
       <c r="E165" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F165" s="84" t="s">
-        <v>486</v>
+      <c r="F165" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G165" s="20"/>
-      <c r="H165" s="74">
+      <c r="H165" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16723,7 +16715,7 @@
       <c r="J165" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K165" s="64" t="s">
+      <c r="K165" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L165" s="17" t="s">
@@ -16761,7 +16753,7 @@
       <c r="B166" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C166" s="63">
+      <c r="C166" s="62">
         <v>2</v>
       </c>
       <c r="D166" s="29" t="s">
@@ -16770,11 +16762,11 @@
       <c r="E166" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F166" s="84" t="s">
-        <v>486</v>
+      <c r="F166" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G166" s="20"/>
-      <c r="H166" s="74">
+      <c r="H166" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16784,7 +16776,7 @@
       <c r="J166" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K166" s="64" t="s">
+      <c r="K166" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L166" s="17" t="s">
@@ -16831,11 +16823,11 @@
       <c r="E167" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F167" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G167" s="84"/>
-      <c r="H167" s="74">
+      <c r="F167" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G167" s="83"/>
+      <c r="H167" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16865,19 +16857,19 @@
       <c r="C168" s="43">
         <v>3</v>
       </c>
-      <c r="D168" s="65" t="s">
+      <c r="D168" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E168" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="H168" s="74">
+        <v>481</v>
+      </c>
+      <c r="H168" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16887,7 +16879,7 @@
       <c r="J168" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K168" s="64" t="s">
+      <c r="K168" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L168" s="16" t="s">
@@ -16923,7 +16915,7 @@
       <c r="B169" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C169" s="63">
+      <c r="C169" s="62">
         <v>2</v>
       </c>
       <c r="D169" s="29" t="s">
@@ -16932,11 +16924,11 @@
       <c r="E169" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F169" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G169" s="84"/>
-      <c r="H169" s="74">
+      <c r="F169" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G169" s="83"/>
+      <c r="H169" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -16946,7 +16938,7 @@
       <c r="J169" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K169" s="64" t="s">
+      <c r="K169" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L169" s="17" t="s">
@@ -16982,7 +16974,7 @@
       <c r="B170" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C170" s="63">
+      <c r="C170" s="62">
         <v>2</v>
       </c>
       <c r="D170" s="29" t="s">
@@ -16991,11 +16983,11 @@
       <c r="E170" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F170" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G170" s="84"/>
-      <c r="H170" s="74">
+      <c r="F170" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G170" s="83"/>
+      <c r="H170" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17005,7 +16997,7 @@
       <c r="J170" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K170" s="64" t="s">
+      <c r="K170" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L170" s="17" t="s">
@@ -17041,7 +17033,7 @@
       <c r="B171" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C171" s="63" t="s">
+      <c r="C171" s="62" t="s">
         <v>201</v>
       </c>
       <c r="D171" s="29" t="s">
@@ -17050,13 +17042,13 @@
       <c r="E171" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F171" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G171" s="65" t="s">
+      <c r="F171" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G171" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="H171" s="63">
+      <c r="H171" s="62">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17066,7 +17058,7 @@
       <c r="J171" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K171" s="64"/>
+      <c r="K171" s="63"/>
       <c r="L171" s="16" t="s">
         <v>35</v>
       </c>
@@ -17100,7 +17092,7 @@
       <c r="B172" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C172" s="63">
+      <c r="C172" s="62">
         <v>2</v>
       </c>
       <c r="D172" s="29" t="s">
@@ -17109,11 +17101,11 @@
       <c r="E172" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F172" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G172" s="84"/>
-      <c r="H172" s="74">
+      <c r="F172" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G172" s="83"/>
+      <c r="H172" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17123,7 +17115,7 @@
       <c r="J172" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K172" s="64" t="s">
+      <c r="K172" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L172" s="16" t="s">
@@ -17159,7 +17151,7 @@
       <c r="B173" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C173" s="63">
+      <c r="C173" s="62">
         <v>2</v>
       </c>
       <c r="D173" s="29" t="s">
@@ -17168,11 +17160,11 @@
       <c r="E173" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F173" s="83" t="s">
-        <v>488</v>
-      </c>
-      <c r="G173" s="84"/>
-      <c r="H173" s="74">
+      <c r="F173" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="G173" s="83"/>
+      <c r="H173" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17182,7 +17174,7 @@
       <c r="J173" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K173" s="64" t="s">
+      <c r="K173" s="63" t="s">
         <v>35</v>
       </c>
       <c r="L173" s="16" t="s">
@@ -17218,20 +17210,20 @@
       <c r="B174" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C174" s="63">
+      <c r="C174" s="62">
         <v>2</v>
       </c>
-      <c r="D174" s="65" t="s">
+      <c r="D174" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E174" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F174" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G174" s="84"/>
-      <c r="H174" s="74">
+      <c r="F174" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G174" s="83"/>
+      <c r="H174" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17241,7 +17233,7 @@
       <c r="J174" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K174" s="64" t="s">
+      <c r="K174" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L174" s="17" t="s">
@@ -17277,7 +17269,7 @@
       <c r="B175" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C175" s="63">
+      <c r="C175" s="62">
         <v>2</v>
       </c>
       <c r="D175" s="29" t="s">
@@ -17286,11 +17278,11 @@
       <c r="E175" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F175" s="84" t="s">
-        <v>486</v>
+      <c r="F175" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G175" s="20"/>
-      <c r="H175" s="74">
+      <c r="H175" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17300,7 +17292,7 @@
       <c r="J175" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K175" s="64" t="s">
+      <c r="K175" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L175" s="17" t="s">
@@ -17336,22 +17328,22 @@
       <c r="B176" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C176" s="63">
+      <c r="C176" s="62">
         <v>2</v>
       </c>
-      <c r="D176" s="65" t="s">
+      <c r="D176" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E176" s="65" t="s">
+      <c r="E176" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F176" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G176" s="84" t="s">
-        <v>484</v>
-      </c>
-      <c r="H176" s="74">
+      <c r="F176" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G176" s="83" t="s">
+        <v>482</v>
+      </c>
+      <c r="H176" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17361,7 +17353,7 @@
       <c r="J176" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K176" s="64" t="s">
+      <c r="K176" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L176" s="17" t="s">
@@ -17397,20 +17389,20 @@
       <c r="B177" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C177" s="63">
+      <c r="C177" s="62">
         <v>3</v>
       </c>
-      <c r="D177" s="65" t="s">
+      <c r="D177" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E177" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G177" s="20"/>
-      <c r="H177" s="74">
+      <c r="H177" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17437,20 +17429,20 @@
       <c r="B178" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C178" s="63">
+      <c r="C178" s="62">
         <v>2</v>
       </c>
-      <c r="D178" s="65" t="s">
+      <c r="D178" s="64" t="s">
         <v>32</v>
       </c>
       <c r="E178" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F178" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G178" s="84"/>
-      <c r="H178" s="74">
+      <c r="F178" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G178" s="83"/>
+      <c r="H178" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17460,7 +17452,7 @@
       <c r="J178" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K178" s="64" t="s">
+      <c r="K178" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L178" s="17" t="s">
@@ -17496,20 +17488,20 @@
       <c r="B179" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C179" s="63">
+      <c r="C179" s="62">
         <v>2</v>
       </c>
-      <c r="D179" s="65" t="s">
+      <c r="D179" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E179" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F179" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G179" s="84"/>
-      <c r="H179" s="74">
+      <c r="F179" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G179" s="83"/>
+      <c r="H179" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17519,7 +17511,7 @@
       <c r="J179" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K179" s="64" t="s">
+      <c r="K179" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L179" s="17" t="s">
@@ -17555,20 +17547,20 @@
       <c r="B180" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="C180" s="63">
+      <c r="C180" s="62">
         <v>2</v>
       </c>
-      <c r="D180" s="65" t="s">
+      <c r="D180" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E180" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F180" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G180" s="84"/>
-      <c r="H180" s="74">
+      <c r="F180" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G180" s="83"/>
+      <c r="H180" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17578,7 +17570,7 @@
       <c r="J180" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K180" s="64" t="s">
+      <c r="K180" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L180" s="17" t="s">
@@ -17614,7 +17606,7 @@
       <c r="B181" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C181" s="63">
+      <c r="C181" s="62">
         <v>2</v>
       </c>
       <c r="D181" s="29" t="s">
@@ -17623,11 +17615,11 @@
       <c r="E181" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F181" s="84" t="s">
-        <v>486</v>
+      <c r="F181" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G181" s="20"/>
-      <c r="H181" s="74">
+      <c r="H181" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17637,7 +17629,7 @@
       <c r="J181" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K181" s="64" t="s">
+      <c r="K181" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L181" s="17" t="s">
@@ -17675,7 +17667,7 @@
       <c r="B182" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C182" s="63">
+      <c r="C182" s="62">
         <v>2</v>
       </c>
       <c r="D182" s="29" t="s">
@@ -17684,11 +17676,11 @@
       <c r="E182" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F182" s="84" t="s">
-        <v>486</v>
+      <c r="F182" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G182" s="20"/>
-      <c r="H182" s="74">
+      <c r="H182" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17698,7 +17690,7 @@
       <c r="J182" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K182" s="64" t="s">
+      <c r="K182" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L182" s="17" t="s">
@@ -17736,20 +17728,20 @@
       <c r="B183" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="C183" s="63">
-        <v>1</v>
-      </c>
-      <c r="D183" s="65" t="s">
+      <c r="C183" s="62">
+        <v>1</v>
+      </c>
+      <c r="D183" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E183" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F183" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G183" s="20"/>
-      <c r="H183" s="74">
+      <c r="H183" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17759,10 +17751,10 @@
       <c r="J183" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K183" s="64" t="s">
+      <c r="K183" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="L183" s="69" t="s">
+      <c r="L183" s="68" t="s">
         <v>52</v>
       </c>
       <c r="M183" s="17" t="s">
@@ -17795,20 +17787,20 @@
       <c r="B184" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="C184" s="63">
-        <v>1</v>
-      </c>
-      <c r="D184" s="65" t="s">
+      <c r="C184" s="62">
+        <v>1</v>
+      </c>
+      <c r="D184" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E184" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F184" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G184" s="20"/>
-      <c r="H184" s="74">
+      <c r="H184" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17818,7 +17810,7 @@
       <c r="J184" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K184" s="64" t="s">
+      <c r="K184" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L184" s="16" t="s">
@@ -17854,20 +17846,20 @@
       <c r="B185" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C185" s="63">
-        <v>1</v>
-      </c>
-      <c r="D185" s="65" t="s">
+      <c r="C185" s="62">
+        <v>1</v>
+      </c>
+      <c r="D185" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E185" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F185" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G185" s="20"/>
-      <c r="H185" s="74">
+      <c r="H185" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17877,7 +17869,7 @@
       <c r="J185" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K185" s="64" t="s">
+      <c r="K185" s="63" t="s">
         <v>52</v>
       </c>
       <c r="L185" s="17" t="s">
@@ -17913,7 +17905,7 @@
       <c r="B186" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="C186" s="63">
+      <c r="C186" s="62">
         <v>1</v>
       </c>
       <c r="D186" s="29" t="s">
@@ -17922,11 +17914,11 @@
       <c r="E186" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F186" s="84" t="s">
-        <v>486</v>
+      <c r="F186" s="83" t="s">
+        <v>484</v>
       </c>
       <c r="G186" s="20"/>
-      <c r="H186" s="74">
+      <c r="H186" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17936,7 +17928,7 @@
       <c r="J186" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K186" s="64" t="s">
+      <c r="K186" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L186" s="17" t="s">
@@ -17972,20 +17964,20 @@
       <c r="B187" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="63">
-        <v>1</v>
-      </c>
-      <c r="D187" s="65" t="s">
+      <c r="C187" s="62">
+        <v>1</v>
+      </c>
+      <c r="D187" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E187" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F187" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G187" s="84"/>
-      <c r="H187" s="74">
+      <c r="F187" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G187" s="83"/>
+      <c r="H187" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -17995,7 +17987,7 @@
       <c r="J187" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K187" s="64" t="s">
+      <c r="K187" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L187" s="17" t="s">
@@ -18031,20 +18023,20 @@
       <c r="B188" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C188" s="63">
-        <v>1</v>
-      </c>
-      <c r="D188" s="65" t="s">
+      <c r="C188" s="62">
+        <v>1</v>
+      </c>
+      <c r="D188" s="64" t="s">
         <v>21</v>
       </c>
       <c r="E188" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F188" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G188" s="84"/>
-      <c r="H188" s="74">
+      <c r="F188" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G188" s="83"/>
+      <c r="H188" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18054,7 +18046,7 @@
       <c r="J188" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K188" s="64" t="s">
+      <c r="K188" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L188" s="17" t="s">
@@ -18090,7 +18082,7 @@
       <c r="B189" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C189" s="63">
+      <c r="C189" s="62">
         <v>1</v>
       </c>
       <c r="D189" s="29" t="s">
@@ -18099,17 +18091,17 @@
       <c r="E189" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F189" s="84" t="s">
-        <v>487</v>
+      <c r="F189" s="83" t="s">
+        <v>485</v>
       </c>
       <c r="G189" s="20"/>
-      <c r="H189" s="74">
+      <c r="H189" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I189" s="16"/>
       <c r="J189" s="16"/>
-      <c r="K189" s="64" t="s">
+      <c r="K189" s="63" t="s">
         <v>18</v>
       </c>
       <c r="L189" s="16"/>
@@ -18143,7 +18135,7 @@
       <c r="B190" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C190" s="63">
+      <c r="C190" s="62">
         <v>1</v>
       </c>
       <c r="D190" s="29" t="s">
@@ -18152,17 +18144,17 @@
       <c r="E190" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F190" s="84" t="s">
-        <v>487</v>
+      <c r="F190" s="83" t="s">
+        <v>485</v>
       </c>
       <c r="G190" s="20"/>
-      <c r="H190" s="74">
+      <c r="H190" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I190" s="16"/>
       <c r="J190" s="16"/>
-      <c r="K190" s="64" t="s">
+      <c r="K190" s="63" t="s">
         <v>18</v>
       </c>
       <c r="L190" s="16"/>
@@ -18199,19 +18191,19 @@
       <c r="C191" s="19">
         <v>1</v>
       </c>
-      <c r="D191" s="65" t="s">
+      <c r="D191" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E191" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F191" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="H191" s="74">
+        <v>483</v>
+      </c>
+      <c r="H191" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18252,19 +18244,19 @@
       <c r="C192" s="19">
         <v>1</v>
       </c>
-      <c r="D192" s="65" t="s">
+      <c r="D192" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E192" s="61" t="s">
         <v>52</v>
       </c>
       <c r="F192" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="H192" s="74">
+        <v>483</v>
+      </c>
+      <c r="H192" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18302,7 +18294,7 @@
       <c r="B193" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C193" s="63">
+      <c r="C193" s="62">
         <v>2</v>
       </c>
       <c r="D193" s="29" t="s">
@@ -18312,12 +18304,12 @@
         <v>404</v>
       </c>
       <c r="F193" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G193" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="H193" s="74">
+      <c r="H193" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18327,7 +18319,7 @@
       <c r="J193" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K193" s="70" t="s">
+      <c r="K193" s="69" t="s">
         <v>21</v>
       </c>
       <c r="L193" s="17" t="s">
@@ -18366,19 +18358,19 @@
       <c r="C194" s="18">
         <v>5</v>
       </c>
-      <c r="D194" s="65" t="s">
+      <c r="D194" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="E194" s="65" t="s">
+      <c r="E194" s="64" t="s">
         <v>408</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="G194" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="G194" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="H194" s="75">
+      <c r="H194" s="74">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18418,20 +18410,20 @@
       <c r="B195" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C195" s="63">
+      <c r="C195" s="62">
         <v>4</v>
       </c>
-      <c r="D195" s="65" t="s">
+      <c r="D195" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="E195" s="65" t="s">
+      <c r="E195" s="64" t="s">
         <v>413</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G195" s="20"/>
-      <c r="H195" s="74">
+      <c r="H195" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18441,7 +18433,7 @@
       <c r="J195" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K195" s="70" t="s">
+      <c r="K195" s="69" t="s">
         <v>21</v>
       </c>
       <c r="L195" s="17" t="s">
@@ -18477,28 +18469,28 @@
       <c r="B196" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C196" s="63">
+      <c r="C196" s="62">
         <v>5</v>
       </c>
-      <c r="D196" s="65" t="s">
+      <c r="D196" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E196" s="65" t="s">
+      <c r="E196" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F196" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G196" s="84" t="s">
+      <c r="F196" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G196" s="83" t="s">
         <v>416</v>
       </c>
-      <c r="H196" s="74">
+      <c r="H196" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I196" s="24"/>
       <c r="J196" s="24"/>
-      <c r="K196" s="64" t="s">
+      <c r="K196" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L196" s="16" t="s">
@@ -18534,26 +18526,26 @@
       <c r="B197" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C197" s="63">
+      <c r="C197" s="62">
         <v>6</v>
       </c>
-      <c r="D197" s="65" t="s">
+      <c r="D197" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E197" s="65" t="s">
+      <c r="E197" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F197" s="84" t="s">
-        <v>487</v>
-      </c>
-      <c r="G197" s="71"/>
-      <c r="H197" s="75">
+      <c r="F197" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="G197" s="70"/>
+      <c r="H197" s="74">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I197" s="24"/>
       <c r="J197" s="24"/>
-      <c r="K197" s="64" t="s">
+      <c r="K197" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L197" s="16" t="s">
@@ -18589,28 +18581,28 @@
       <c r="B198" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C198" s="63">
+      <c r="C198" s="62">
         <v>4</v>
       </c>
-      <c r="D198" s="65" t="s">
+      <c r="D198" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E198" s="65" t="s">
+      <c r="E198" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F198" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="G198" s="84" t="s">
+      <c r="F198" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G198" s="83" t="s">
         <v>419</v>
       </c>
-      <c r="H198" s="74">
+      <c r="H198" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I198" s="24"/>
       <c r="J198" s="24"/>
-      <c r="K198" s="64" t="s">
+      <c r="K198" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L198" s="17" t="s">
@@ -18646,26 +18638,26 @@
       <c r="B199" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C199" s="63">
+      <c r="C199" s="62">
         <v>5</v>
       </c>
-      <c r="D199" s="65" t="s">
+      <c r="D199" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E199" s="65" t="s">
+      <c r="E199" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F199" s="84" t="s">
-        <v>487</v>
-      </c>
-      <c r="G199" s="71"/>
-      <c r="H199" s="75">
+      <c r="F199" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="G199" s="70"/>
+      <c r="H199" s="74">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I199" s="24"/>
       <c r="J199" s="24"/>
-      <c r="K199" s="64" t="s">
+      <c r="K199" s="63" t="s">
         <v>21</v>
       </c>
       <c r="L199" s="17" t="s">
@@ -18701,28 +18693,28 @@
       <c r="B200" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="C200" s="63">
+      <c r="C200" s="62">
         <v>4</v>
       </c>
-      <c r="D200" s="65" t="s">
+      <c r="D200" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="E200" s="65" t="s">
+      <c r="E200" s="64" t="s">
         <v>408</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="G200" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="G200" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="H200" s="75">
+      <c r="H200" s="74">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I200" s="24"/>
       <c r="J200" s="24"/>
-      <c r="K200" s="64"/>
+      <c r="K200" s="63"/>
       <c r="L200" s="17"/>
       <c r="M200" s="23" t="s">
         <v>29</v>
@@ -18756,20 +18748,20 @@
       <c r="B201" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="C201" s="63">
+      <c r="C201" s="62">
         <v>2</v>
       </c>
-      <c r="D201" s="65" t="s">
+      <c r="D201" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="E201" s="65" t="s">
+      <c r="E201" s="64" t="s">
         <v>413</v>
       </c>
       <c r="F201" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G201" s="20"/>
-      <c r="H201" s="74">
+      <c r="H201" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18779,7 +18771,7 @@
       <c r="J201" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K201" s="64" t="s">
+      <c r="K201" s="63" t="s">
         <v>28</v>
       </c>
       <c r="L201" s="17" t="s">
@@ -18825,12 +18817,12 @@
         <v>404</v>
       </c>
       <c r="F202" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G202" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="H202" s="74">
+      <c r="H202" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -18857,7 +18849,7 @@
       <c r="B203" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="C203" s="63">
+      <c r="C203" s="62">
         <v>4</v>
       </c>
       <c r="D203" s="29" t="s">
@@ -18866,17 +18858,17 @@
       <c r="E203" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F203" s="84" t="s">
-        <v>487</v>
-      </c>
-      <c r="G203" s="71"/>
-      <c r="H203" s="75">
+      <c r="F203" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="G203" s="70"/>
+      <c r="H203" s="74">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I203" s="24"/>
       <c r="J203" s="24"/>
-      <c r="K203" s="64"/>
+      <c r="K203" s="63"/>
       <c r="L203" s="17"/>
       <c r="M203" s="23"/>
       <c r="N203" s="18">
@@ -18900,28 +18892,26 @@
       <c r="Y203" s="3"/>
     </row>
     <row r="204" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="88">
-        <v>1847</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="C204" s="19">
-        <v>1</v>
-      </c>
-      <c r="D204" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E204" s="62"/>
+      <c r="A204" s="26">
+        <v>1835</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C204" s="87">
+        <v>1</v>
+      </c>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
       <c r="F204" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="H204" s="74">
+        <v>490</v>
+      </c>
+      <c r="H204" s="73">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" s="16"/>
       <c r="J204" s="16"/>
@@ -18963,15 +18953,15 @@
       </c>
       <c r="D205" s="50">
         <f>COUNTBLANK(D2:D204)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E205" s="50">
         <f>COUNTBLANK(E2:E204)</f>
         <v>6</v>
       </c>
-      <c r="F205" s="86"/>
+      <c r="F205" s="85"/>
       <c r="G205" s="38"/>
-      <c r="H205" s="76"/>
+      <c r="H205" s="75"/>
       <c r="I205" s="36">
         <f>COUNTBLANK(I2:I204)</f>
         <v>32</v>
@@ -19012,15 +19002,15 @@
       </c>
       <c r="D206" s="51">
         <f>COUNTA(D2:D204)</f>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E206" s="51">
         <f>COUNTA(E2:E204)</f>
         <v>197</v>
       </c>
-      <c r="F206" s="87"/>
+      <c r="F206" s="86"/>
       <c r="G206" s="42"/>
-      <c r="H206" s="77"/>
+      <c r="H206" s="76"/>
       <c r="I206" s="40">
         <f t="shared" ref="I206:J206" si="27">COUNTA(I2:I204)</f>
         <v>171</v>

--- a/config_management/change_requests/modulesCR11.xlsx
+++ b/config_management/change_requests/modulesCR11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6440" yWindow="-21160" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-4080" yWindow="-21160" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -10139,7 +10139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B199" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -13346,10 +13346,10 @@
   <dimension ref="A1:Y206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F182" sqref="F182"/>
+      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -13518,18 +13518,18 @@
         <v>25</v>
       </c>
       <c r="N3" s="18">
-        <f>IF(ISBLANK(E3),0,1)</f>
+        <f t="shared" ref="N3:N9" si="0">IF(ISBLANK(E3),0,1)</f>
         <v>1</v>
       </c>
       <c r="O3" s="23" t="s">
         <v>251</v>
       </c>
       <c r="P3" s="18">
-        <f>IF(ISBLANK(O3),IF(ISBLANK(E3),0,1),1)</f>
+        <f t="shared" ref="P3:P9" si="1">IF(ISBLANK(O3),IF(ISBLANK(E3),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q3" s="19">
-        <f>IF(AND(I3="Yes",J3="CR11",K3=L3,L3=M3,M3=E3),1,IF(AND(I3="Yes",J3="CR11",K3=M3,M3=E3),0.5,0))</f>
+        <f t="shared" ref="Q3:Q9" si="2">IF(AND(I3="Yes",J3="CR11",K3=L3,L3=M3,M3=E3),1,IF(AND(I3="Yes",J3="CR11",K3=M3,M3=E3),0.5,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -13571,16 +13571,16 @@
         <v>19</v>
       </c>
       <c r="N4" s="18">
-        <f>IF(ISBLANK(E4),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4" s="24"/>
       <c r="P4" s="18">
-        <f>IF(ISBLANK(O4),IF(ISBLANK(E4),0,1),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q4" s="19">
-        <f>IF(AND(I4="Yes",J4="CR11",K4=L4,L4=M4,M4=E4),1,IF(AND(I4="Yes",J4="CR11",K4=M4,M4=E4),0.5,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13620,16 +13620,16 @@
         <v>19</v>
       </c>
       <c r="N5" s="18">
-        <f>IF(ISBLANK(E5),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O5" s="24"/>
       <c r="P5" s="18">
-        <f>IF(ISBLANK(O5),IF(ISBLANK(E5),0,1),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q5" s="19">
-        <f>IF(AND(I5="Yes",J5="CR11",K5=L5,L5=M5,M5=E5),1,IF(AND(I5="Yes",J5="CR11",K5=M5,M5=E5),0.5,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13671,16 +13671,16 @@
         <v>19</v>
       </c>
       <c r="N6" s="18">
-        <f>IF(ISBLANK(E6),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="18">
-        <f>IF(ISBLANK(O6),IF(ISBLANK(E6),0,1),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q6" s="19">
-        <f>IF(AND(I6="Yes",J6="CR11",K6=L6,L6=M6,M6=E6),1,IF(AND(I6="Yes",J6="CR11",K6=M6,M6=E6),0.5,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13720,16 +13720,16 @@
         <v>19</v>
       </c>
       <c r="N7" s="18">
-        <f>IF(ISBLANK(E7),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O7" s="24"/>
       <c r="P7" s="18">
-        <f>IF(ISBLANK(O7),IF(ISBLANK(E7),0,1),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q7" s="19">
-        <f>IF(AND(I7="Yes",J7="CR11",K7=L7,L7=M7,M7=E7),1,IF(AND(I7="Yes",J7="CR11",K7=M7,M7=E7),0.5,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13767,18 +13767,18 @@
         <v>25</v>
       </c>
       <c r="N8" s="18">
-        <f>IF(ISBLANK(E8),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O8" s="23" t="s">
         <v>251</v>
       </c>
       <c r="P8" s="18">
-        <f>IF(ISBLANK(O8),IF(ISBLANK(E8),0,1),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q8" s="19">
-        <f>IF(AND(I8="Yes",J8="CR11",K8=L8,L8=M8,M8=E8),1,IF(AND(I8="Yes",J8="CR11",K8=M8,M8=E8),0.5,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="3"/>
@@ -13818,16 +13818,16 @@
       <c r="L9" s="17"/>
       <c r="M9" s="23"/>
       <c r="N9" s="18">
-        <f>IF(ISBLANK(E9),0,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O9" s="24"/>
       <c r="P9" s="18">
-        <f>IF(ISBLANK(O9),IF(ISBLANK(E9),0,1),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q9" s="19">
-        <f>IF(AND(I9="Yes",J9="CR11",K9=L9,L9=M9,M9=E9),1,IF(AND(I9="Yes",J9="CR11",K9=M9,M9=E9),0.5,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="3"/>
@@ -14204,16 +14204,16 @@
         <v>17</v>
       </c>
       <c r="N17" s="18">
-        <f>IF(ISBLANK(E17),0,1)</f>
+        <f t="shared" ref="N17:N30" si="3">IF(ISBLANK(E17),0,1)</f>
         <v>1</v>
       </c>
       <c r="O17" s="16"/>
       <c r="P17" s="18">
-        <f>IF(ISBLANK(O17),IF(ISBLANK(E17),0,1),1)</f>
+        <f t="shared" ref="P17:P30" si="4">IF(ISBLANK(O17),IF(ISBLANK(E17),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q17" s="19">
-        <f>IF(AND(I17="Yes",J17="CR11",K17=L17,L17=M17,M17=E17),1,IF(AND(I17="Yes",J17="CR11",K17=M17,M17=E17),0.5,0))</f>
+        <f t="shared" ref="Q17:Q30" si="5">IF(AND(I17="Yes",J17="CR11",K17=L17,L17=M17,M17=E17),1,IF(AND(I17="Yes",J17="CR11",K17=M17,M17=E17),0.5,0))</f>
         <v>0</v>
       </c>
       <c r="R17" s="3"/>
@@ -14263,16 +14263,16 @@
         <v>19</v>
       </c>
       <c r="N18" s="18">
-        <f>IF(ISBLANK(E18),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="18">
-        <f>IF(ISBLANK(O18),IF(ISBLANK(E18),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q18" s="19">
-        <f>IF(AND(I18="Yes",J18="CR11",K18=L18,L18=M18,M18=E18),1,IF(AND(I18="Yes",J18="CR11",K18=M18,M18=E18),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R18" s="3"/>
@@ -14322,16 +14322,16 @@
         <v>19</v>
       </c>
       <c r="N19" s="18">
-        <f>IF(ISBLANK(E19),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="18">
-        <f>IF(ISBLANK(O19),IF(ISBLANK(E19),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q19" s="19">
-        <f>IF(AND(I19="Yes",J19="CR11",K19=L19,L19=M19,M19=E19),1,IF(AND(I19="Yes",J19="CR11",K19=M19,M19=E19),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R19" s="3"/>
@@ -14381,18 +14381,18 @@
         <v>25</v>
       </c>
       <c r="N20" s="18">
-        <f>IF(ISBLANK(E20),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="18">
-        <f>IF(ISBLANK(O20),IF(ISBLANK(E20),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q20" s="19">
-        <f>IF(AND(I20="Yes",J20="CR11",K20=L20,L20=M20,M20=E20),1,IF(AND(I20="Yes",J20="CR11",K20=M20,M20=E20),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R20" s="3"/>
@@ -14442,16 +14442,16 @@
         <v>27</v>
       </c>
       <c r="N21" s="18">
-        <f>IF(ISBLANK(E21),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O21" s="16"/>
       <c r="P21" s="18">
-        <f>IF(ISBLANK(O21),IF(ISBLANK(E21),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q21" s="19">
-        <f>IF(AND(I21="Yes",J21="CR11",K21=L21,L21=M21,M21=E21),1,IF(AND(I21="Yes",J21="CR11",K21=M21,M21=E21),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R21" s="3"/>
@@ -14501,16 +14501,16 @@
         <v>29</v>
       </c>
       <c r="N22" s="18">
-        <f>IF(ISBLANK(E22),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="18">
-        <f>IF(ISBLANK(O22),IF(ISBLANK(E22),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q22" s="19">
-        <f>IF(AND(I22="Yes",J22="CR11",K22=L22,L22=M22,M22=E22),1,IF(AND(I22="Yes",J22="CR11",K22=M22,M22=E22),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R22" s="3"/>
@@ -14560,16 +14560,16 @@
         <v>27</v>
       </c>
       <c r="N23" s="18">
-        <f>IF(ISBLANK(E23),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="18">
-        <f>IF(ISBLANK(O23),IF(ISBLANK(E23),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q23" s="19">
-        <f>IF(AND(I23="Yes",J23="CR11",K23=L23,L23=M23,M23=E23),1,IF(AND(I23="Yes",J23="CR11",K23=M23,M23=E23),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R23" s="3"/>
@@ -14619,16 +14619,16 @@
         <v>27</v>
       </c>
       <c r="N24" s="18">
-        <f>IF(ISBLANK(E24),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="18">
-        <f>IF(ISBLANK(O24),IF(ISBLANK(E24),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q24" s="19">
-        <f>IF(AND(I24="Yes",J24="CR11",K24=L24,L24=M24,M24=E24),1,IF(AND(I24="Yes",J24="CR11",K24=M24,M24=E24),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R24" s="3"/>
@@ -14678,16 +14678,16 @@
         <v>27</v>
       </c>
       <c r="N25" s="18">
-        <f>IF(ISBLANK(E25),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="18">
-        <f>IF(ISBLANK(O25),IF(ISBLANK(E25),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q25" s="19">
-        <f>IF(AND(I25="Yes",J25="CR11",K25=L25,L25=M25,M25=E25),1,IF(AND(I25="Yes",J25="CR11",K25=M25,M25=E25),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R25" s="3"/>
@@ -14737,16 +14737,16 @@
         <v>27</v>
       </c>
       <c r="N26" s="18">
-        <f>IF(ISBLANK(E26),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="18">
-        <f>IF(ISBLANK(O26),IF(ISBLANK(E26),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q26" s="19">
-        <f>IF(AND(I26="Yes",J26="CR11",K26=L26,L26=M26,M26=E26),1,IF(AND(I26="Yes",J26="CR11",K26=M26,M26=E26),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R26" s="3"/>
@@ -14796,18 +14796,18 @@
         <v>25</v>
       </c>
       <c r="N27" s="18">
-        <f>IF(ISBLANK(E27),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="18">
-        <f>IF(ISBLANK(O27),IF(ISBLANK(E27),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q27" s="19">
-        <f>IF(AND(I27="Yes",J27="CR11",K27=L27,L27=M27,M27=E27),1,IF(AND(I27="Yes",J27="CR11",K27=M27,M27=E27),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R27" s="3"/>
@@ -14857,18 +14857,18 @@
         <v>25</v>
       </c>
       <c r="N28" s="18">
-        <f>IF(ISBLANK(E28),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="18">
-        <f>IF(ISBLANK(O28),IF(ISBLANK(E28),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q28" s="19">
-        <f>IF(AND(I28="Yes",J28="CR11",K28=L28,L28=M28,M28=E28),1,IF(AND(I28="Yes",J28="CR11",K28=M28,M28=E28),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R28" s="3"/>
@@ -14918,16 +14918,16 @@
         <v>29</v>
       </c>
       <c r="N29" s="18">
-        <f>IF(ISBLANK(E29),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="18">
-        <f>IF(ISBLANK(O29),IF(ISBLANK(E29),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q29" s="19">
-        <f>IF(AND(I29="Yes",J29="CR11",K29=L29,L29=M29,M29=E29),1,IF(AND(I29="Yes",J29="CR11",K29=M29,M29=E29),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R29" s="3"/>
@@ -14977,16 +14977,16 @@
         <v>19</v>
       </c>
       <c r="N30" s="18">
-        <f>IF(ISBLANK(E30),0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="18">
-        <f>IF(ISBLANK(O30),IF(ISBLANK(E30),0,1),1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q30" s="19">
-        <f>IF(AND(I30="Yes",J30="CR11",K30=L30,L30=M30,M30=E30),1,IF(AND(I30="Yes",J30="CR11",K30=M30,M30=E30),0.5,0))</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="R30" s="3"/>
@@ -15076,16 +15076,16 @@
         <v>29</v>
       </c>
       <c r="N32" s="18">
-        <f>IF(ISBLANK(E32),0,1)</f>
+        <f t="shared" ref="N32:N47" si="6">IF(ISBLANK(E32),0,1)</f>
         <v>1</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="18">
-        <f>IF(ISBLANK(O32),IF(ISBLANK(E32),0,1),1)</f>
+        <f t="shared" ref="P32:P47" si="7">IF(ISBLANK(O32),IF(ISBLANK(E32),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q32" s="19">
-        <f>IF(AND(I32="Yes",J32="CR11",K32=L32,L32=M32,M32=E32),1,IF(AND(I32="Yes",J32="CR11",K32=M32,M32=E32),0.5,0))</f>
+        <f t="shared" ref="Q32:Q47" si="8">IF(AND(I32="Yes",J32="CR11",K32=L32,L32=M32,M32=E32),1,IF(AND(I32="Yes",J32="CR11",K32=M32,M32=E32),0.5,0))</f>
         <v>1</v>
       </c>
       <c r="R32" s="3"/>
@@ -15135,18 +15135,18 @@
         <v>25</v>
       </c>
       <c r="N33" s="18">
-        <f>IF(ISBLANK(E33),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O33" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P33" s="18">
-        <f>IF(ISBLANK(O33),IF(ISBLANK(E33),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q33" s="19">
-        <f>IF(AND(I33="Yes",J33="CR11",K33=L33,L33=M33,M33=E33),1,IF(AND(I33="Yes",J33="CR11",K33=M33,M33=E33),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R33" s="3"/>
@@ -15196,18 +15196,18 @@
         <v>25</v>
       </c>
       <c r="N34" s="18">
-        <f>IF(ISBLANK(E34),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O34" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P34" s="18">
-        <f>IF(ISBLANK(O34),IF(ISBLANK(E34),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q34" s="19">
-        <f>IF(AND(I34="Yes",J34="CR11",K34=L34,L34=M34,M34=E34),1,IF(AND(I34="Yes",J34="CR11",K34=M34,M34=E34),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R34" s="3"/>
@@ -15257,18 +15257,18 @@
         <v>25</v>
       </c>
       <c r="N35" s="18">
-        <f>IF(ISBLANK(E35),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P35" s="18">
-        <f>IF(ISBLANK(O35),IF(ISBLANK(E35),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q35" s="19">
-        <f>IF(AND(I35="Yes",J35="CR11",K35=L35,L35=M35,M35=E35),1,IF(AND(I35="Yes",J35="CR11",K35=M35,M35=E35),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R35" s="3"/>
@@ -15318,16 +15318,16 @@
         <v>27</v>
       </c>
       <c r="N36" s="18">
-        <f>IF(ISBLANK(E36),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O36" s="16"/>
       <c r="P36" s="18">
-        <f>IF(ISBLANK(O36),IF(ISBLANK(E36),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q36" s="19">
-        <f>IF(AND(I36="Yes",J36="CR11",K36=L36,L36=M36,M36=E36),1,IF(AND(I36="Yes",J36="CR11",K36=M36,M36=E36),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="R36" s="3"/>
@@ -15377,18 +15377,18 @@
         <v>25</v>
       </c>
       <c r="N37" s="18">
-        <f>IF(ISBLANK(E37),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P37" s="18">
-        <f>IF(ISBLANK(O37),IF(ISBLANK(E37),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q37" s="19">
-        <f>IF(AND(I37="Yes",J37="CR11",K37=L37,L37=M37,M37=E37),1,IF(AND(I37="Yes",J37="CR11",K37=M37,M37=E37),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R37" s="3"/>
@@ -15438,18 +15438,18 @@
         <v>25</v>
       </c>
       <c r="N38" s="18">
-        <f>IF(ISBLANK(E38),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O38" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P38" s="18">
-        <f>IF(ISBLANK(O38),IF(ISBLANK(E38),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q38" s="19">
-        <f>IF(AND(I38="Yes",J38="CR11",K38=L38,L38=M38,M38=E38),1,IF(AND(I38="Yes",J38="CR11",K38=M38,M38=E38),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R38" s="3"/>
@@ -15499,18 +15499,18 @@
         <v>25</v>
       </c>
       <c r="N39" s="18">
-        <f>IF(ISBLANK(E39),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="18">
-        <f>IF(ISBLANK(O39),IF(ISBLANK(E39),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q39" s="19">
-        <f>IF(AND(I39="Yes",J39="CR11",K39=L39,L39=M39,M39=E39),1,IF(AND(I39="Yes",J39="CR11",K39=M39,M39=E39),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R39" s="3"/>
@@ -15560,16 +15560,16 @@
         <v>29</v>
       </c>
       <c r="N40" s="18">
-        <f>IF(ISBLANK(E40),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="18">
-        <f>IF(ISBLANK(O40),IF(ISBLANK(E40),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q40" s="19">
-        <f>IF(AND(I40="Yes",J40="CR11",K40=L40,L40=M40,M40=E40),1,IF(AND(I40="Yes",J40="CR11",K40=M40,M40=E40),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R40" s="3"/>
@@ -15619,16 +15619,16 @@
         <v>19</v>
       </c>
       <c r="N41" s="18">
-        <f>IF(ISBLANK(E41),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O41" s="16"/>
       <c r="P41" s="18">
-        <f>IF(ISBLANK(O41),IF(ISBLANK(E41),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q41" s="19">
-        <f>IF(AND(I41="Yes",J41="CR11",K41=L41,L41=M41,M41=E41),1,IF(AND(I41="Yes",J41="CR11",K41=M41,M41=E41),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R41" s="3"/>
@@ -15672,16 +15672,16 @@
         <v>17</v>
       </c>
       <c r="N42" s="18">
-        <f>IF(ISBLANK(E42),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O42" s="16"/>
       <c r="P42" s="18">
-        <f>IF(ISBLANK(O42),IF(ISBLANK(E42),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q42" s="19">
-        <f>IF(AND(I42="Yes",J42="CR11",K42=L42,L42=M42,M42=E42),1,IF(AND(I42="Yes",J42="CR11",K42=M42,M42=E42),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R42" s="3"/>
@@ -15731,18 +15731,18 @@
         <v>25</v>
       </c>
       <c r="N43" s="18">
-        <f>IF(ISBLANK(E43),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="18">
-        <f>IF(ISBLANK(O43),IF(ISBLANK(E43),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q43" s="19">
-        <f>IF(AND(I43="Yes",J43="CR11",K43=L43,L43=M43,M43=E43),1,IF(AND(I43="Yes",J43="CR11",K43=M43,M43=E43),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R43" s="3"/>
@@ -15792,18 +15792,18 @@
         <v>25</v>
       </c>
       <c r="N44" s="18">
-        <f>IF(ISBLANK(E44),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O44" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="18">
-        <f>IF(ISBLANK(O44),IF(ISBLANK(E44),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f>IF(AND(I44="Yes",J44="CR11",K44=L44,L44=M44,M44=E44),1,IF(AND(I44="Yes",J44="CR11",K44=M44,M44=E44),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R44" s="3"/>
@@ -15853,16 +15853,16 @@
         <v>27</v>
       </c>
       <c r="N45" s="18">
-        <f>IF(ISBLANK(E45),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O45" s="16"/>
       <c r="P45" s="18">
-        <f>IF(ISBLANK(O45),IF(ISBLANK(E45),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q45" s="19">
-        <f>IF(AND(I45="Yes",J45="CR11",K45=L45,L45=M45,M45=E45),1,IF(AND(I45="Yes",J45="CR11",K45=M45,M45=E45),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R45" s="3"/>
@@ -15912,18 +15912,18 @@
         <v>25</v>
       </c>
       <c r="N46" s="18">
-        <f>IF(ISBLANK(E46),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O46" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P46" s="18">
-        <f>IF(ISBLANK(O46),IF(ISBLANK(E46),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q46" s="19">
-        <f>IF(AND(I46="Yes",J46="CR11",K46=L46,L46=M46,M46=E46),1,IF(AND(I46="Yes",J46="CR11",K46=M46,M46=E46),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R46" s="3"/>
@@ -15973,18 +15973,18 @@
         <v>25</v>
       </c>
       <c r="N47" s="18">
-        <f>IF(ISBLANK(E47),0,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O47" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="18">
-        <f>IF(ISBLANK(O47),IF(ISBLANK(E47),0,1),1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q47" s="19">
-        <f>IF(AND(I47="Yes",J47="CR11",K47=L47,L47=M47,M47=E47),1,IF(AND(I47="Yes",J47="CR11",K47=M47,M47=E47),0.5,0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R47" s="3"/>
@@ -16074,16 +16074,16 @@
         <v>27</v>
       </c>
       <c r="N49" s="18">
-        <f>IF(ISBLANK(E49),0,1)</f>
+        <f t="shared" ref="N49:N57" si="9">IF(ISBLANK(E49),0,1)</f>
         <v>1</v>
       </c>
       <c r="O49" s="16"/>
       <c r="P49" s="18">
-        <f>IF(ISBLANK(O49),IF(ISBLANK(E49),0,1),1)</f>
+        <f t="shared" ref="P49:P57" si="10">IF(ISBLANK(O49),IF(ISBLANK(E49),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q49" s="19">
-        <f>IF(AND(I49="Yes",J49="CR11",K49=L49,L49=M49,M49=E49),1,IF(AND(I49="Yes",J49="CR11",K49=M49,M49=E49),0.5,0))</f>
+        <f t="shared" ref="Q49:Q57" si="11">IF(AND(I49="Yes",J49="CR11",K49=L49,L49=M49,M49=E49),1,IF(AND(I49="Yes",J49="CR11",K49=M49,M49=E49),0.5,0))</f>
         <v>1</v>
       </c>
       <c r="R49" s="3"/>
@@ -16133,18 +16133,18 @@
         <v>25</v>
       </c>
       <c r="N50" s="18">
-        <f>IF(ISBLANK(E50),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O50" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="18">
-        <f>IF(ISBLANK(O50),IF(ISBLANK(E50),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q50" s="19">
-        <f>IF(AND(I50="Yes",J50="CR11",K50=L50,L50=M50,M50=E50),1,IF(AND(I50="Yes",J50="CR11",K50=M50,M50=E50),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R50" s="3"/>
@@ -16194,16 +16194,16 @@
         <v>19</v>
       </c>
       <c r="N51" s="18">
-        <f>IF(ISBLANK(E51),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O51" s="16"/>
       <c r="P51" s="18">
-        <f>IF(ISBLANK(O51),IF(ISBLANK(E51),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q51" s="19">
-        <f>IF(AND(I51="Yes",J51="CR11",K51=L51,L51=M51,M51=E51),1,IF(AND(I51="Yes",J51="CR11",K51=M51,M51=E51),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R51" s="3"/>
@@ -16253,16 +16253,16 @@
         <v>19</v>
       </c>
       <c r="N52" s="18">
-        <f>IF(ISBLANK(E52),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O52" s="16"/>
       <c r="P52" s="18">
-        <f>IF(ISBLANK(O52),IF(ISBLANK(E52),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q52" s="19">
-        <f>IF(AND(I52="Yes",J52="CR11",K52=L52,L52=M52,M52=E52),1,IF(AND(I52="Yes",J52="CR11",K52=M52,M52=E52),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R52" s="3"/>
@@ -16312,16 +16312,16 @@
         <v>19</v>
       </c>
       <c r="N53" s="18">
-        <f>IF(ISBLANK(E53),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O53" s="16"/>
       <c r="P53" s="18">
-        <f>IF(ISBLANK(O53),IF(ISBLANK(E53),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q53" s="19">
-        <f>IF(AND(I53="Yes",J53="CR11",K53=L53,L53=M53,M53=E53),1,IF(AND(I53="Yes",J53="CR11",K53=M53,M53=E53),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R53" s="3"/>
@@ -16371,16 +16371,16 @@
         <v>29</v>
       </c>
       <c r="N54" s="18">
-        <f>IF(ISBLANK(E54),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O54" s="16"/>
       <c r="P54" s="18">
-        <f>IF(ISBLANK(O54),IF(ISBLANK(E54),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q54" s="19">
-        <f>IF(AND(I54="Yes",J54="CR11",K54=L54,L54=M54,M54=E54),1,IF(AND(I54="Yes",J54="CR11",K54=M54,M54=E54),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R54" s="3"/>
@@ -16430,16 +16430,16 @@
         <v>62</v>
       </c>
       <c r="N55" s="18">
-        <f>IF(ISBLANK(E55),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O55" s="17"/>
       <c r="P55" s="18">
-        <f>IF(ISBLANK(O55),IF(ISBLANK(E55),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q55" s="19">
-        <f>IF(AND(I55="Yes",J55="CR11",K55=L55,L55=M55,M55=E55),1,IF(AND(I55="Yes",J55="CR11",K55=M55,M55=E55),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="R55" s="3"/>
@@ -16489,18 +16489,18 @@
         <v>25</v>
       </c>
       <c r="N56" s="18">
-        <f>IF(ISBLANK(E56),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O56" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P56" s="18">
-        <f>IF(ISBLANK(O56),IF(ISBLANK(E56),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q56" s="19">
-        <f>IF(AND(I56="Yes",J56="CR11",K56=L56,L56=M56,M56=E56),1,IF(AND(I56="Yes",J56="CR11",K56=M56,M56=E56),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R56" s="3"/>
@@ -16550,18 +16550,18 @@
         <v>25</v>
       </c>
       <c r="N57" s="18">
-        <f>IF(ISBLANK(E57),0,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O57" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="18">
-        <f>IF(ISBLANK(O57),IF(ISBLANK(E57),0,1),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q57" s="19">
-        <f>IF(AND(I57="Yes",J57="CR11",K57=L57,L57=M57,M57=E57),1,IF(AND(I57="Yes",J57="CR11",K57=M57,M57=E57),0.5,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R57" s="3"/>
@@ -16649,16 +16649,16 @@
         <v>62</v>
       </c>
       <c r="N59" s="18">
-        <f>IF(ISBLANK(E59),0,1)</f>
+        <f t="shared" ref="N59:N90" si="12">IF(ISBLANK(E59),0,1)</f>
         <v>1</v>
       </c>
       <c r="O59" s="16"/>
       <c r="P59" s="18">
-        <f>IF(ISBLANK(O59),IF(ISBLANK(E59),0,1),1)</f>
+        <f t="shared" ref="P59:P74" si="13">IF(ISBLANK(O59),IF(ISBLANK(E59),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q59" s="19">
-        <f>IF(AND(I59="Yes",J59="CR11",K59=L59,L59=M59,M59=E59),1,IF(AND(I59="Yes",J59="CR11",K59=M59,M59=E59),0.5,0))</f>
+        <f t="shared" ref="Q59:Q65" si="14">IF(AND(I59="Yes",J59="CR11",K59=L59,L59=M59,M59=E59),1,IF(AND(I59="Yes",J59="CR11",K59=M59,M59=E59),0.5,0))</f>
         <v>0.5</v>
       </c>
       <c r="R59" s="3"/>
@@ -16708,16 +16708,16 @@
         <v>62</v>
       </c>
       <c r="N60" s="18">
-        <f>IF(ISBLANK(E60),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O60" s="16"/>
       <c r="P60" s="18">
-        <f>IF(ISBLANK(O60),IF(ISBLANK(E60),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q60" s="19">
-        <f>IF(AND(I60="Yes",J60="CR11",K60=L60,L60=M60,M60=E60),1,IF(AND(I60="Yes",J60="CR11",K60=M60,M60=E60),0.5,0))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="R60" s="3"/>
@@ -16767,16 +16767,16 @@
         <v>29</v>
       </c>
       <c r="N61" s="18">
-        <f>IF(ISBLANK(E61),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O61" s="16"/>
       <c r="P61" s="18">
-        <f>IF(ISBLANK(O61),IF(ISBLANK(E61),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q61" s="19">
-        <f>IF(AND(I61="Yes",J61="CR11",K61=L61,L61=M61,M61=E61),1,IF(AND(I61="Yes",J61="CR11",K61=M61,M61=E61),0.5,0))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R61" s="3"/>
@@ -16826,16 +16826,16 @@
         <v>79</v>
       </c>
       <c r="N62" s="18">
-        <f>IF(ISBLANK(E62),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O62" s="16"/>
       <c r="P62" s="18">
-        <f>IF(ISBLANK(O62),IF(ISBLANK(E62),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q62" s="19">
-        <f>IF(AND(I62="Yes",J62="CR11",K62=L62,L62=M62,M62=E62),1,IF(AND(I62="Yes",J62="CR11",K62=M62,M62=E62),0.5,0))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="R62" s="3"/>
@@ -16883,16 +16883,16 @@
         <v>19</v>
       </c>
       <c r="N63" s="18">
-        <f>IF(ISBLANK(E63),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O63" s="16"/>
       <c r="P63" s="18">
-        <f>IF(ISBLANK(O63),IF(ISBLANK(E63),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q63" s="19">
-        <f>IF(AND(I63="Yes",J63="CR11",K63=L63,L63=M63,M63=E63),1,IF(AND(I63="Yes",J63="CR11",K63=M63,M63=E63),0.5,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R63" s="3"/>
@@ -16942,16 +16942,16 @@
         <v>19</v>
       </c>
       <c r="N64" s="18">
-        <f>IF(ISBLANK(E64),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O64" s="16"/>
       <c r="P64" s="18">
-        <f>IF(ISBLANK(O64),IF(ISBLANK(E64),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q64" s="19">
-        <f>IF(AND(I64="Yes",J64="CR11",K64=L64,L64=M64,M64=E64),1,IF(AND(I64="Yes",J64="CR11",K64=M64,M64=E64),0.5,0))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R64" s="3"/>
@@ -17001,16 +17001,16 @@
         <v>19</v>
       </c>
       <c r="N65" s="18">
-        <f>IF(ISBLANK(E65),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O65" s="16"/>
       <c r="P65" s="18">
-        <f>IF(ISBLANK(O65),IF(ISBLANK(E65),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q65" s="19">
-        <f>IF(AND(I65="Yes",J65="CR11",K65=L65,L65=M65,M65=E65),1,IF(AND(I65="Yes",J65="CR11",K65=M65,M65=E65),0.5,0))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R65" s="3"/>
@@ -17060,12 +17060,12 @@
         <v>86</v>
       </c>
       <c r="N66" s="18">
-        <f>IF(ISBLANK(E66),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O66" s="16"/>
       <c r="P66" s="18">
-        <f>IF(ISBLANK(O66),IF(ISBLANK(E66),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q66" s="19" t="e">
@@ -17119,16 +17119,16 @@
         <v>19</v>
       </c>
       <c r="N67" s="18">
-        <f>IF(ISBLANK(E67),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O67" s="16"/>
       <c r="P67" s="18">
-        <f>IF(ISBLANK(O67),IF(ISBLANK(E67),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q67" s="19">
-        <f>IF(AND(I67="Yes",J67="CR11",K67=L67,L67=M67,M67=E67),1,IF(AND(I67="Yes",J67="CR11",K67=M67,M67=E67),0.5,0))</f>
+        <f t="shared" ref="Q67:Q98" si="15">IF(AND(I67="Yes",J67="CR11",K67=L67,L67=M67,M67=E67),1,IF(AND(I67="Yes",J67="CR11",K67=M67,M67=E67),0.5,0))</f>
         <v>1</v>
       </c>
       <c r="R67" s="3"/>
@@ -17178,16 +17178,16 @@
         <v>19</v>
       </c>
       <c r="N68" s="18">
-        <f>IF(ISBLANK(E68),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O68" s="16"/>
       <c r="P68" s="18">
-        <f>IF(ISBLANK(O68),IF(ISBLANK(E68),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q68" s="19">
-        <f>IF(AND(I68="Yes",J68="CR11",K68=L68,L68=M68,M68=E68),1,IF(AND(I68="Yes",J68="CR11",K68=M68,M68=E68),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R68" s="3"/>
@@ -17237,16 +17237,16 @@
         <v>19</v>
       </c>
       <c r="N69" s="18">
-        <f>IF(ISBLANK(E69),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="18">
-        <f>IF(ISBLANK(O69),IF(ISBLANK(E69),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q69" s="19">
-        <f>IF(AND(I69="Yes",J69="CR11",K69=L69,L69=M69,M69=E69),1,IF(AND(I69="Yes",J69="CR11",K69=M69,M69=E69),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R69" s="3"/>
@@ -17296,16 +17296,16 @@
         <v>27</v>
       </c>
       <c r="N70" s="18">
-        <f>IF(ISBLANK(E70),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O70" s="16"/>
       <c r="P70" s="18">
-        <f>IF(ISBLANK(O70),IF(ISBLANK(E70),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q70" s="19">
-        <f>IF(AND(I70="Yes",J70="CR11",K70=L70,L70=M70,M70=E70),1,IF(AND(I70="Yes",J70="CR11",K70=M70,M70=E70),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R70" s="3"/>
@@ -17355,16 +17355,16 @@
         <v>19</v>
       </c>
       <c r="N71" s="18">
-        <f>IF(ISBLANK(E71),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O71" s="16"/>
       <c r="P71" s="18">
-        <f>IF(ISBLANK(O71),IF(ISBLANK(E71),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q71" s="19">
-        <f>IF(AND(I71="Yes",J71="CR11",K71=L71,L71=M71,M71=E71),1,IF(AND(I71="Yes",J71="CR11",K71=M71,M71=E71),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R71" s="3"/>
@@ -17414,16 +17414,16 @@
         <v>62</v>
       </c>
       <c r="N72" s="18">
-        <f>IF(ISBLANK(E72),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O72" s="17"/>
       <c r="P72" s="18">
-        <f>IF(ISBLANK(O72),IF(ISBLANK(E72),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q72" s="19">
-        <f>IF(AND(I72="Yes",J72="CR11",K72=L72,L72=M72,M72=E72),1,IF(AND(I72="Yes",J72="CR11",K72=M72,M72=E72),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="R72" s="3"/>
@@ -17473,16 +17473,16 @@
         <v>62</v>
       </c>
       <c r="N73" s="18">
-        <f>IF(ISBLANK(E73),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O73" s="17"/>
       <c r="P73" s="18">
-        <f>IF(ISBLANK(O73),IF(ISBLANK(E73),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q73" s="19">
-        <f>IF(AND(I73="Yes",J73="CR11",K73=L73,L73=M73,M73=E73),1,IF(AND(I73="Yes",J73="CR11",K73=M73,M73=E73),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="R73" s="3"/>
@@ -17532,16 +17532,16 @@
         <v>79</v>
       </c>
       <c r="N74" s="18">
-        <f>IF(ISBLANK(E74),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O74" s="16"/>
       <c r="P74" s="18">
-        <f>IF(ISBLANK(O74),IF(ISBLANK(E74),0,1),1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q74" s="19">
-        <f>IF(AND(I74="Yes",J74="CR11",K74=L74,L74=M74,M74=E74),1,IF(AND(I74="Yes",J74="CR11",K74=M74,M74=E74),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="R74" s="3"/>
@@ -17585,7 +17585,7 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="18">
-        <f>IF(ISBLANK(E75),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O75" s="16"/>
@@ -17594,7 +17594,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="19">
-        <f>IF(AND(I75="Yes",J75="CR11",K75=L75,L75=M75,M75=E75),1,IF(AND(I75="Yes",J75="CR11",K75=M75,M75=E75),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R75" s="3"/>
@@ -17644,18 +17644,18 @@
         <v>25</v>
       </c>
       <c r="N76" s="18">
-        <f>IF(ISBLANK(E76),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O76" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P76" s="18">
-        <f>IF(ISBLANK(O76),IF(ISBLANK(E76),0,1),1)</f>
+        <f t="shared" ref="P76:P98" si="16">IF(ISBLANK(O76),IF(ISBLANK(E76),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q76" s="19">
-        <f>IF(AND(I76="Yes",J76="CR11",K76=L76,L76=M76,M76=E76),1,IF(AND(I76="Yes",J76="CR11",K76=M76,M76=E76),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R76" s="3"/>
@@ -17705,16 +17705,16 @@
         <v>80</v>
       </c>
       <c r="N77" s="18">
-        <f>IF(ISBLANK(E77),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O77" s="16"/>
       <c r="P77" s="18">
-        <f>IF(ISBLANK(O77),IF(ISBLANK(E77),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q77" s="19">
-        <f>IF(AND(I77="Yes",J77="CR11",K77=L77,L77=M77,M77=E77),1,IF(AND(I77="Yes",J77="CR11",K77=M77,M77=E77),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R77" s="3"/>
@@ -17764,16 +17764,16 @@
         <v>80</v>
       </c>
       <c r="N78" s="18">
-        <f>IF(ISBLANK(E78),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O78" s="16"/>
       <c r="P78" s="18">
-        <f>IF(ISBLANK(O78),IF(ISBLANK(E78),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q78" s="19">
-        <f>IF(AND(I78="Yes",J78="CR11",K78=L78,L78=M78,M78=E78),1,IF(AND(I78="Yes",J78="CR11",K78=M78,M78=E78),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R78" s="3"/>
@@ -17823,16 +17823,16 @@
         <v>38</v>
       </c>
       <c r="N79" s="18">
-        <f>IF(ISBLANK(E79),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="18">
-        <f>IF(ISBLANK(O79),IF(ISBLANK(E79),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q79" s="19">
-        <f>IF(AND(I79="Yes",J79="CR11",K79=L79,L79=M79,M79=E79),1,IF(AND(I79="Yes",J79="CR11",K79=M79,M79=E79),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R79" s="3"/>
@@ -17884,16 +17884,16 @@
         <v>79</v>
       </c>
       <c r="N80" s="18">
-        <f>IF(ISBLANK(E80),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="18">
-        <f>IF(ISBLANK(O80),IF(ISBLANK(E80),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q80" s="19">
-        <f>IF(AND(I80="Yes",J80="CR11",K80=L80,L80=M80,M80=E80),1,IF(AND(I80="Yes",J80="CR11",K80=M80,M80=E80),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R80" s="3"/>
@@ -17945,16 +17945,16 @@
         <v>79</v>
       </c>
       <c r="N81" s="18">
-        <f>IF(ISBLANK(E81),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="18">
-        <f>IF(ISBLANK(O81),IF(ISBLANK(E81),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q81" s="19">
-        <f>IF(AND(I81="Yes",J81="CR11",K81=L81,L81=M81,M81=E81),1,IF(AND(I81="Yes",J81="CR11",K81=M81,M81=E81),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R81" s="3"/>
@@ -18004,16 +18004,16 @@
         <v>80</v>
       </c>
       <c r="N82" s="18">
-        <f>IF(ISBLANK(E82),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="18">
-        <f>IF(ISBLANK(O82),IF(ISBLANK(E82),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q82" s="19">
-        <f>IF(AND(I82="Yes",J82="CR11",K82=L82,L82=M82,M82=E82),1,IF(AND(I82="Yes",J82="CR11",K82=M82,M82=E82),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R82" s="3"/>
@@ -18063,16 +18063,16 @@
         <v>80</v>
       </c>
       <c r="N83" s="18">
-        <f>IF(ISBLANK(E83),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="18">
-        <f>IF(ISBLANK(O83),IF(ISBLANK(E83),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q83" s="19">
-        <f>IF(AND(I83="Yes",J83="CR11",K83=L83,L83=M83,M83=E83),1,IF(AND(I83="Yes",J83="CR11",K83=M83,M83=E83),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R83" s="3"/>
@@ -18122,16 +18122,16 @@
         <v>38</v>
       </c>
       <c r="N84" s="18">
-        <f>IF(ISBLANK(E84),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O84" s="16"/>
       <c r="P84" s="18">
-        <f>IF(ISBLANK(O84),IF(ISBLANK(E84),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q84" s="19">
-        <f>IF(AND(I84="Yes",J84="CR11",K84=L84,L84=M84,M84=E84),1,IF(AND(I84="Yes",J84="CR11",K84=M84,M84=E84),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R84" s="3"/>
@@ -18181,16 +18181,16 @@
         <v>80</v>
       </c>
       <c r="N85" s="18">
-        <f>IF(ISBLANK(E85),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O85" s="16"/>
       <c r="P85" s="18">
-        <f>IF(ISBLANK(O85),IF(ISBLANK(E85),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q85" s="19">
-        <f>IF(AND(I85="Yes",J85="CR11",K85=L85,L85=M85,M85=E85),1,IF(AND(I85="Yes",J85="CR11",K85=M85,M85=E85),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R85" s="3"/>
@@ -18242,16 +18242,16 @@
         <v>80</v>
       </c>
       <c r="N86" s="18">
-        <f>IF(ISBLANK(E86),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O86" s="16"/>
       <c r="P86" s="18">
-        <f>IF(ISBLANK(O86),IF(ISBLANK(E86),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q86" s="19">
-        <f>IF(AND(I86="Yes",J86="CR11",K86=L86,L86=M86,M86=E86),1,IF(AND(I86="Yes",J86="CR11",K86=M86,M86=E86),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R86" s="3"/>
@@ -18301,16 +18301,16 @@
         <v>80</v>
       </c>
       <c r="N87" s="18">
-        <f>IF(ISBLANK(E87),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O87" s="16"/>
       <c r="P87" s="18">
-        <f>IF(ISBLANK(O87),IF(ISBLANK(E87),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q87" s="19">
-        <f>IF(AND(I87="Yes",J87="CR11",K87=L87,L87=M87,M87=E87),1,IF(AND(I87="Yes",J87="CR11",K87=M87,M87=E87),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R87" s="3"/>
@@ -18360,16 +18360,16 @@
         <v>80</v>
       </c>
       <c r="N88" s="18">
-        <f>IF(ISBLANK(E88),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O88" s="16"/>
       <c r="P88" s="18">
-        <f>IF(ISBLANK(O88),IF(ISBLANK(E88),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q88" s="19">
-        <f>IF(AND(I88="Yes",J88="CR11",K88=L88,L88=M88,M88=E88),1,IF(AND(I88="Yes",J88="CR11",K88=M88,M88=E88),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R88" s="3"/>
@@ -18419,16 +18419,16 @@
         <v>29</v>
       </c>
       <c r="N89" s="18">
-        <f>IF(ISBLANK(E89),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O89" s="16"/>
       <c r="P89" s="18">
-        <f>IF(ISBLANK(O89),IF(ISBLANK(E89),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q89" s="19">
-        <f>IF(AND(I89="Yes",J89="CR11",K89=L89,L89=M89,M89=E89),1,IF(AND(I89="Yes",J89="CR11",K89=M89,M89=E89),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R89" s="3"/>
@@ -18478,16 +18478,16 @@
         <v>38</v>
       </c>
       <c r="N90" s="18">
-        <f>IF(ISBLANK(E90),0,1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O90" s="16"/>
       <c r="P90" s="18">
-        <f>IF(ISBLANK(O90),IF(ISBLANK(E90),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q90" s="19">
-        <f>IF(AND(I90="Yes",J90="CR11",K90=L90,L90=M90,M90=E90),1,IF(AND(I90="Yes",J90="CR11",K90=M90,M90=E90),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R90" s="3"/>
@@ -18537,16 +18537,16 @@
         <v>80</v>
       </c>
       <c r="N91" s="18">
-        <f>IF(ISBLANK(E91),0,1)</f>
+        <f t="shared" ref="N91:N122" si="17">IF(ISBLANK(E91),0,1)</f>
         <v>1</v>
       </c>
       <c r="O91" s="16"/>
       <c r="P91" s="18">
-        <f>IF(ISBLANK(O91),IF(ISBLANK(E91),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q91" s="19">
-        <f>IF(AND(I91="Yes",J91="CR11",K91=L91,L91=M91,M91=E91),1,IF(AND(I91="Yes",J91="CR11",K91=M91,M91=E91),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R91" s="3"/>
@@ -18596,16 +18596,16 @@
         <v>19</v>
       </c>
       <c r="N92" s="18">
-        <f>IF(ISBLANK(E92),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="18">
-        <f>IF(ISBLANK(O92),IF(ISBLANK(E92),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q92" s="19">
-        <f>IF(AND(I92="Yes",J92="CR11",K92=L92,L92=M92,M92=E92),1,IF(AND(I92="Yes",J92="CR11",K92=M92,M92=E92),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R92" s="3"/>
@@ -18655,16 +18655,16 @@
         <v>38</v>
       </c>
       <c r="N93" s="18">
-        <f>IF(ISBLANK(E93),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="18">
-        <f>IF(ISBLANK(O93),IF(ISBLANK(E93),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q93" s="19">
-        <f>IF(AND(I93="Yes",J93="CR11",K93=L93,L93=M93,M93=E93),1,IF(AND(I93="Yes",J93="CR11",K93=M93,M93=E93),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R93" s="3"/>
@@ -18714,18 +18714,18 @@
         <v>25</v>
       </c>
       <c r="N94" s="18">
-        <f>IF(ISBLANK(E94),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O94" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P94" s="18">
-        <f>IF(ISBLANK(O94),IF(ISBLANK(E94),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q94" s="19">
-        <f>IF(AND(I94="Yes",J94="CR11",K94=L94,L94=M94,M94=E94),1,IF(AND(I94="Yes",J94="CR11",K94=M94,M94=E94),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R94" s="3"/>
@@ -18777,16 +18777,16 @@
         <v>80</v>
       </c>
       <c r="N95" s="18">
-        <f>IF(ISBLANK(E95),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O95" s="16"/>
       <c r="P95" s="18">
-        <f>IF(ISBLANK(O95),IF(ISBLANK(E95),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q95" s="19">
-        <f>IF(AND(I95="Yes",J95="CR11",K95=L95,L95=M95,M95=E95),1,IF(AND(I95="Yes",J95="CR11",K95=M95,M95=E95),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="R95" s="3"/>
@@ -18836,16 +18836,16 @@
         <v>38</v>
       </c>
       <c r="N96" s="18">
-        <f>IF(ISBLANK(E96),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O96" s="16"/>
       <c r="P96" s="18">
-        <f>IF(ISBLANK(O96),IF(ISBLANK(E96),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q96" s="19">
-        <f>IF(AND(I96="Yes",J96="CR11",K96=L96,L96=M96,M96=E96),1,IF(AND(I96="Yes",J96="CR11",K96=M96,M96=E96),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R96" s="3"/>
@@ -18895,16 +18895,16 @@
         <v>79</v>
       </c>
       <c r="N97" s="18">
-        <f>IF(ISBLANK(E97),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O97" s="16"/>
       <c r="P97" s="18">
-        <f>IF(ISBLANK(O97),IF(ISBLANK(E97),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q97" s="19">
-        <f>IF(AND(I97="Yes",J97="CR11",K97=L97,L97=M97,M97=E97),1,IF(AND(I97="Yes",J97="CR11",K97=M97,M97=E97),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="R97" s="3"/>
@@ -18952,16 +18952,16 @@
         <v>79</v>
       </c>
       <c r="N98" s="18">
-        <f>IF(ISBLANK(E98),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O98" s="16"/>
       <c r="P98" s="18">
-        <f>IF(ISBLANK(O98),IF(ISBLANK(E98),0,1),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q98" s="19">
-        <f>IF(AND(I98="Yes",J98="CR11",K98=L98,L98=M98,M98=E98),1,IF(AND(I98="Yes",J98="CR11",K98=M98,M98=E98),0.5,0))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="R98" s="3"/>
@@ -19011,7 +19011,7 @@
         <v>27</v>
       </c>
       <c r="N99" s="18">
-        <f>IF(ISBLANK(E99),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O99" s="16"/>
@@ -19020,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="19">
-        <f>IF(AND(I99="Yes",J99="CR11",K99=L99,L99=M99,M99=E99),1,IF(AND(I99="Yes",J99="CR11",K99=M99,M99=E99),0.5,0))</f>
+        <f t="shared" ref="Q99:Q130" si="18">IF(AND(I99="Yes",J99="CR11",K99=L99,L99=M99,M99=E99),1,IF(AND(I99="Yes",J99="CR11",K99=M99,M99=E99),0.5,0))</f>
         <v>0</v>
       </c>
       <c r="R99" s="3"/>
@@ -19070,16 +19070,16 @@
         <v>80</v>
       </c>
       <c r="N100" s="18">
-        <f>IF(ISBLANK(E100),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O100" s="16"/>
       <c r="P100" s="18">
-        <f>IF(ISBLANK(O100),IF(ISBLANK(E100),0,1),1)</f>
+        <f t="shared" ref="P100:P136" si="19">IF(ISBLANK(O100),IF(ISBLANK(E100),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q100" s="19">
-        <f>IF(AND(I100="Yes",J100="CR11",K100=L100,L100=M100,M100=E100),1,IF(AND(I100="Yes",J100="CR11",K100=M100,M100=E100),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R100" s="3"/>
@@ -19129,16 +19129,16 @@
         <v>80</v>
       </c>
       <c r="N101" s="18">
-        <f>IF(ISBLANK(E101),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O101" s="16"/>
       <c r="P101" s="18">
-        <f>IF(ISBLANK(O101),IF(ISBLANK(E101),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q101" s="19">
-        <f>IF(AND(I101="Yes",J101="CR11",K101=L101,L101=M101,M101=E101),1,IF(AND(I101="Yes",J101="CR11",K101=M101,M101=E101),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R101" s="3"/>
@@ -19188,16 +19188,16 @@
         <v>29</v>
       </c>
       <c r="N102" s="18">
-        <f>IF(ISBLANK(E102),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O102" s="16"/>
       <c r="P102" s="18">
-        <f>IF(ISBLANK(O102),IF(ISBLANK(E102),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q102" s="19">
-        <f>IF(AND(I102="Yes",J102="CR11",K102=L102,L102=M102,M102=E102),1,IF(AND(I102="Yes",J102="CR11",K102=M102,M102=E102),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R102" s="3"/>
@@ -19247,16 +19247,16 @@
         <v>38</v>
       </c>
       <c r="N103" s="18">
-        <f>IF(ISBLANK(E103),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O103" s="16"/>
       <c r="P103" s="18">
-        <f>IF(ISBLANK(O103),IF(ISBLANK(E103),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q103" s="19">
-        <f>IF(AND(I103="Yes",J103="CR11",K103=L103,L103=M103,M103=E103),1,IF(AND(I103="Yes",J103="CR11",K103=M103,M103=E103),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R103" s="3"/>
@@ -19302,16 +19302,16 @@
         <v>79</v>
       </c>
       <c r="N104" s="18">
-        <f>IF(ISBLANK(E104),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O104" s="16"/>
       <c r="P104" s="18">
-        <f>IF(ISBLANK(O104),IF(ISBLANK(E104),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q104" s="19">
-        <f>IF(AND(I104="Yes",J104="CR11",K104=L104,L104=M104,M104=E104),1,IF(AND(I104="Yes",J104="CR11",K104=M104,M104=E104),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R104" s="3"/>
@@ -19361,16 +19361,16 @@
         <v>38</v>
       </c>
       <c r="N105" s="18">
-        <f>IF(ISBLANK(E105),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O105" s="16"/>
       <c r="P105" s="18">
-        <f>IF(ISBLANK(O105),IF(ISBLANK(E105),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q105" s="19">
-        <f>IF(AND(I105="Yes",J105="CR11",K105=L105,L105=M105,M105=E105),1,IF(AND(I105="Yes",J105="CR11",K105=M105,M105=E105),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R105" s="3"/>
@@ -19420,18 +19420,18 @@
         <v>25</v>
       </c>
       <c r="N106" s="18">
-        <f>IF(ISBLANK(E106),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O106" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P106" s="18">
-        <f>IF(ISBLANK(O106),IF(ISBLANK(E106),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q106" s="19">
-        <f>IF(AND(I106="Yes",J106="CR11",K106=L106,L106=M106,M106=E106),1,IF(AND(I106="Yes",J106="CR11",K106=M106,M106=E106),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R106" s="3"/>
@@ -19481,16 +19481,16 @@
         <v>80</v>
       </c>
       <c r="N107" s="18">
-        <f>IF(ISBLANK(E107),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O107" s="16"/>
       <c r="P107" s="18">
-        <f>IF(ISBLANK(O107),IF(ISBLANK(E107),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q107" s="19">
-        <f>IF(AND(I107="Yes",J107="CR11",K107=L107,L107=M107,M107=E107),1,IF(AND(I107="Yes",J107="CR11",K107=M107,M107=E107),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R107" s="3"/>
@@ -19540,16 +19540,16 @@
         <v>80</v>
       </c>
       <c r="N108" s="18">
-        <f>IF(ISBLANK(E108),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="18">
-        <f>IF(ISBLANK(O108),IF(ISBLANK(E108),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q108" s="19">
-        <f>IF(AND(I108="Yes",J108="CR11",K108=L108,L108=M108,M108=E108),1,IF(AND(I108="Yes",J108="CR11",K108=M108,M108=E108),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R108" s="3"/>
@@ -19599,16 +19599,16 @@
         <v>80</v>
       </c>
       <c r="N109" s="18">
-        <f>IF(ISBLANK(E109),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O109" s="16"/>
       <c r="P109" s="18">
-        <f>IF(ISBLANK(O109),IF(ISBLANK(E109),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q109" s="19">
-        <f>IF(AND(I109="Yes",J109="CR11",K109=L109,L109=M109,M109=E109),1,IF(AND(I109="Yes",J109="CR11",K109=M109,M109=E109),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R109" s="3"/>
@@ -19658,16 +19658,16 @@
         <v>80</v>
       </c>
       <c r="N110" s="18">
-        <f>IF(ISBLANK(E110),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O110" s="16"/>
       <c r="P110" s="18">
-        <f>IF(ISBLANK(O110),IF(ISBLANK(E110),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q110" s="19">
-        <f>IF(AND(I110="Yes",J110="CR11",K110=L110,L110=M110,M110=E110),1,IF(AND(I110="Yes",J110="CR11",K110=M110,M110=E110),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R110" s="3"/>
@@ -19717,16 +19717,16 @@
         <v>80</v>
       </c>
       <c r="N111" s="18">
-        <f>IF(ISBLANK(E111),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O111" s="16"/>
       <c r="P111" s="18">
-        <f>IF(ISBLANK(O111),IF(ISBLANK(E111),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q111" s="19">
-        <f>IF(AND(I111="Yes",J111="CR11",K111=L111,L111=M111,M111=E111),1,IF(AND(I111="Yes",J111="CR11",K111=M111,M111=E111),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R111" s="3"/>
@@ -19776,16 +19776,16 @@
         <v>80</v>
       </c>
       <c r="N112" s="18">
-        <f>IF(ISBLANK(E112),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O112" s="16"/>
       <c r="P112" s="18">
-        <f>IF(ISBLANK(O112),IF(ISBLANK(E112),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q112" s="19">
-        <f>IF(AND(I112="Yes",J112="CR11",K112=L112,L112=M112,M112=E112),1,IF(AND(I112="Yes",J112="CR11",K112=M112,M112=E112),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R112" s="3"/>
@@ -19835,16 +19835,16 @@
         <v>38</v>
       </c>
       <c r="N113" s="18">
-        <f>IF(ISBLANK(E113),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O113" s="16"/>
       <c r="P113" s="18">
-        <f>IF(ISBLANK(O113),IF(ISBLANK(E113),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q113" s="19">
-        <f>IF(AND(I113="Yes",J113="CR11",K113=L113,L113=M113,M113=E113),1,IF(AND(I113="Yes",J113="CR11",K113=M113,M113=E113),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R113" s="3"/>
@@ -19894,16 +19894,16 @@
         <v>80</v>
       </c>
       <c r="N114" s="18">
-        <f>IF(ISBLANK(E114),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O114" s="16"/>
       <c r="P114" s="18">
-        <f>IF(ISBLANK(O114),IF(ISBLANK(E114),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q114" s="19">
-        <f>IF(AND(I114="Yes",J114="CR11",K114=L114,L114=M114,M114=E114),1,IF(AND(I114="Yes",J114="CR11",K114=M114,M114=E114),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R114" s="3"/>
@@ -19953,16 +19953,16 @@
         <v>80</v>
       </c>
       <c r="N115" s="18">
-        <f>IF(ISBLANK(E115),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O115" s="16"/>
       <c r="P115" s="18">
-        <f>IF(ISBLANK(O115),IF(ISBLANK(E115),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q115" s="19">
-        <f>IF(AND(I115="Yes",J115="CR11",K115=L115,L115=M115,M115=E115),1,IF(AND(I115="Yes",J115="CR11",K115=M115,M115=E115),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R115" s="3"/>
@@ -20012,16 +20012,16 @@
         <v>80</v>
       </c>
       <c r="N116" s="18">
-        <f>IF(ISBLANK(E116),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O116" s="16"/>
       <c r="P116" s="18">
-        <f>IF(ISBLANK(O116),IF(ISBLANK(E116),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q116" s="19">
-        <f>IF(AND(I116="Yes",J116="CR11",K116=L116,L116=M116,M116=E116),1,IF(AND(I116="Yes",J116="CR11",K116=M116,M116=E116),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R116" s="3"/>
@@ -20071,16 +20071,16 @@
         <v>80</v>
       </c>
       <c r="N117" s="18">
-        <f>IF(ISBLANK(E117),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O117" s="16"/>
       <c r="P117" s="18">
-        <f>IF(ISBLANK(O117),IF(ISBLANK(E117),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q117" s="19">
-        <f>IF(AND(I117="Yes",J117="CR11",K117=L117,L117=M117,M117=E117),1,IF(AND(I117="Yes",J117="CR11",K117=M117,M117=E117),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R117" s="3"/>
@@ -20130,16 +20130,16 @@
         <v>80</v>
       </c>
       <c r="N118" s="18">
-        <f>IF(ISBLANK(E118),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O118" s="16"/>
       <c r="P118" s="18">
-        <f>IF(ISBLANK(O118),IF(ISBLANK(E118),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q118" s="19">
-        <f>IF(AND(I118="Yes",J118="CR11",K118=L118,L118=M118,M118=E118),1,IF(AND(I118="Yes",J118="CR11",K118=M118,M118=E118),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R118" s="3"/>
@@ -20189,16 +20189,16 @@
         <v>19</v>
       </c>
       <c r="N119" s="18">
-        <f>IF(ISBLANK(E119),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O119" s="16"/>
       <c r="P119" s="18">
-        <f>IF(ISBLANK(O119),IF(ISBLANK(E119),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q119" s="19">
-        <f>IF(AND(I119="Yes",J119="CR11",K119=L119,L119=M119,M119=E119),1,IF(AND(I119="Yes",J119="CR11",K119=M119,M119=E119),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R119" s="3"/>
@@ -20248,16 +20248,16 @@
         <v>38</v>
       </c>
       <c r="N120" s="18">
-        <f>IF(ISBLANK(E120),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O120" s="16"/>
       <c r="P120" s="18">
-        <f>IF(ISBLANK(O120),IF(ISBLANK(E120),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q120" s="19">
-        <f>IF(AND(I120="Yes",J120="CR11",K120=L120,L120=M120,M120=E120),1,IF(AND(I120="Yes",J120="CR11",K120=M120,M120=E120),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R120" s="3"/>
@@ -20307,16 +20307,16 @@
         <v>38</v>
       </c>
       <c r="N121" s="18">
-        <f>IF(ISBLANK(E121),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O121" s="16"/>
       <c r="P121" s="18">
-        <f>IF(ISBLANK(O121),IF(ISBLANK(E121),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q121" s="19">
-        <f>IF(AND(I121="Yes",J121="CR11",K121=L121,L121=M121,M121=E121),1,IF(AND(I121="Yes",J121="CR11",K121=M121,M121=E121),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R121" s="3"/>
@@ -20366,16 +20366,16 @@
         <v>38</v>
       </c>
       <c r="N122" s="18">
-        <f>IF(ISBLANK(E122),0,1)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O122" s="16"/>
       <c r="P122" s="18">
-        <f>IF(ISBLANK(O122),IF(ISBLANK(E122),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q122" s="19">
-        <f>IF(AND(I122="Yes",J122="CR11",K122=L122,L122=M122,M122=E122),1,IF(AND(I122="Yes",J122="CR11",K122=M122,M122=E122),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R122" s="3"/>
@@ -20425,16 +20425,16 @@
         <v>29</v>
       </c>
       <c r="N123" s="18">
-        <f>IF(ISBLANK(E123),0,1)</f>
+        <f t="shared" ref="N123:N136" si="20">IF(ISBLANK(E123),0,1)</f>
         <v>1</v>
       </c>
       <c r="O123" s="16"/>
       <c r="P123" s="18">
-        <f>IF(ISBLANK(O123),IF(ISBLANK(E123),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q123" s="19">
-        <f>IF(AND(I123="Yes",J123="CR11",K123=L123,L123=M123,M123=E123),1,IF(AND(I123="Yes",J123="CR11",K123=M123,M123=E123),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R123" s="3"/>
@@ -20484,16 +20484,16 @@
         <v>80</v>
       </c>
       <c r="N124" s="18">
-        <f>IF(ISBLANK(E124),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O124" s="16"/>
       <c r="P124" s="18">
-        <f>IF(ISBLANK(O124),IF(ISBLANK(E124),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q124" s="19">
-        <f>IF(AND(I124="Yes",J124="CR11",K124=L124,L124=M124,M124=E124),1,IF(AND(I124="Yes",J124="CR11",K124=M124,M124=E124),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R124" s="3"/>
@@ -20543,16 +20543,16 @@
         <v>80</v>
       </c>
       <c r="N125" s="18">
-        <f>IF(ISBLANK(E125),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O125" s="16"/>
       <c r="P125" s="18">
-        <f>IF(ISBLANK(O125),IF(ISBLANK(E125),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q125" s="19">
-        <f>IF(AND(I125="Yes",J125="CR11",K125=L125,L125=M125,M125=E125),1,IF(AND(I125="Yes",J125="CR11",K125=M125,M125=E125),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R125" s="3"/>
@@ -20604,16 +20604,16 @@
         <v>79</v>
       </c>
       <c r="N126" s="18">
-        <f>IF(ISBLANK(E126),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O126" s="16"/>
       <c r="P126" s="18">
-        <f>IF(ISBLANK(O126),IF(ISBLANK(E126),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q126" s="19">
-        <f>IF(AND(I126="Yes",J126="CR11",K126=L126,L126=M126,M126=E126),1,IF(AND(I126="Yes",J126="CR11",K126=M126,M126=E126),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R126" s="3"/>
@@ -20663,16 +20663,16 @@
         <v>80</v>
       </c>
       <c r="N127" s="18">
-        <f>IF(ISBLANK(E127),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O127" s="16"/>
       <c r="P127" s="18">
-        <f>IF(ISBLANK(O127),IF(ISBLANK(E127),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q127" s="19">
-        <f>IF(AND(I127="Yes",J127="CR11",K127=L127,L127=M127,M127=E127),1,IF(AND(I127="Yes",J127="CR11",K127=M127,M127=E127),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R127" s="3"/>
@@ -20722,16 +20722,16 @@
         <v>29</v>
       </c>
       <c r="N128" s="18">
-        <f>IF(ISBLANK(E128),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O128" s="16"/>
       <c r="P128" s="18">
-        <f>IF(ISBLANK(O128),IF(ISBLANK(E128),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q128" s="19">
-        <f>IF(AND(I128="Yes",J128="CR11",K128=L128,L128=M128,M128=E128),1,IF(AND(I128="Yes",J128="CR11",K128=M128,M128=E128),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R128" s="3"/>
@@ -20781,16 +20781,16 @@
         <v>29</v>
       </c>
       <c r="N129" s="18">
-        <f>IF(ISBLANK(E129),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O129" s="16"/>
       <c r="P129" s="18">
-        <f>IF(ISBLANK(O129),IF(ISBLANK(E129),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q129" s="19">
-        <f>IF(AND(I129="Yes",J129="CR11",K129=L129,L129=M129,M129=E129),1,IF(AND(I129="Yes",J129="CR11",K129=M129,M129=E129),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R129" s="3"/>
@@ -20840,16 +20840,16 @@
         <v>38</v>
       </c>
       <c r="N130" s="18">
-        <f>IF(ISBLANK(E130),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O130" s="16"/>
       <c r="P130" s="18">
-        <f>IF(ISBLANK(O130),IF(ISBLANK(E130),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q130" s="19">
-        <f>IF(AND(I130="Yes",J130="CR11",K130=L130,L130=M130,M130=E130),1,IF(AND(I130="Yes",J130="CR11",K130=M130,M130=E130),0.5,0))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R130" s="3"/>
@@ -20899,16 +20899,16 @@
         <v>80</v>
       </c>
       <c r="N131" s="18">
-        <f>IF(ISBLANK(E131),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O131" s="16"/>
       <c r="P131" s="18">
-        <f>IF(ISBLANK(O131),IF(ISBLANK(E131),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q131" s="19">
-        <f>IF(AND(I131="Yes",J131="CR11",K131=L131,L131=M131,M131=E131),1,IF(AND(I131="Yes",J131="CR11",K131=M131,M131=E131),0.5,0))</f>
+        <f t="shared" ref="Q131:Q136" si="21">IF(AND(I131="Yes",J131="CR11",K131=L131,L131=M131,M131=E131),1,IF(AND(I131="Yes",J131="CR11",K131=M131,M131=E131),0.5,0))</f>
         <v>1</v>
       </c>
       <c r="R131" s="3"/>
@@ -20954,16 +20954,16 @@
         <v>29</v>
       </c>
       <c r="N132" s="18">
-        <f>IF(ISBLANK(E132),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O132" s="16"/>
       <c r="P132" s="18">
-        <f>IF(ISBLANK(O132),IF(ISBLANK(E132),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q132" s="19">
-        <f>IF(AND(I132="Yes",J132="CR11",K132=L132,L132=M132,M132=E132),1,IF(AND(I132="Yes",J132="CR11",K132=M132,M132=E132),0.5,0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R132" s="3"/>
@@ -21013,16 +21013,16 @@
         <v>80</v>
       </c>
       <c r="N133" s="18">
-        <f>IF(ISBLANK(E133),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O133" s="16"/>
       <c r="P133" s="18">
-        <f>IF(ISBLANK(O133),IF(ISBLANK(E133),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q133" s="19">
-        <f>IF(AND(I133="Yes",J133="CR11",K133=L133,L133=M133,M133=E133),1,IF(AND(I133="Yes",J133="CR11",K133=M133,M133=E133),0.5,0))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R133" s="3"/>
@@ -21072,16 +21072,16 @@
         <v>38</v>
       </c>
       <c r="N134" s="18">
-        <f>IF(ISBLANK(E134),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O134" s="16"/>
       <c r="P134" s="18">
-        <f>IF(ISBLANK(O134),IF(ISBLANK(E134),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q134" s="19">
-        <f>IF(AND(I134="Yes",J134="CR11",K134=L134,L134=M134,M134=E134),1,IF(AND(I134="Yes",J134="CR11",K134=M134,M134=E134),0.5,0))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R134" s="3"/>
@@ -21131,16 +21131,16 @@
         <v>79</v>
       </c>
       <c r="N135" s="18">
-        <f>IF(ISBLANK(E135),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O135" s="16"/>
       <c r="P135" s="18">
-        <f>IF(ISBLANK(O135),IF(ISBLANK(E135),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q135" s="19">
-        <f>IF(AND(I135="Yes",J135="CR11",K135=L135,L135=M135,M135=E135),1,IF(AND(I135="Yes",J135="CR11",K135=M135,M135=E135),0.5,0))</f>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="R135" s="3"/>
@@ -21190,16 +21190,16 @@
         <v>80</v>
       </c>
       <c r="N136" s="18">
-        <f>IF(ISBLANK(E136),0,1)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O136" s="16"/>
       <c r="P136" s="18">
-        <f>IF(ISBLANK(O136),IF(ISBLANK(E136),0,1),1)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q136" s="19">
-        <f>IF(AND(I136="Yes",J136="CR11",K136=L136,L136=M136,M136=E136),1,IF(AND(I136="Yes",J136="CR11",K136=M136,M136=E136),0.5,0))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R136" s="3"/>
@@ -21287,16 +21287,16 @@
         <v>79</v>
       </c>
       <c r="N138" s="18">
-        <f>IF(ISBLANK(E138),0,1)</f>
+        <f t="shared" ref="N138:N143" si="22">IF(ISBLANK(E138),0,1)</f>
         <v>1</v>
       </c>
       <c r="O138" s="16"/>
       <c r="P138" s="18">
-        <f>IF(ISBLANK(O138),IF(ISBLANK(E138),0,1),1)</f>
+        <f t="shared" ref="P138:P143" si="23">IF(ISBLANK(O138),IF(ISBLANK(E138),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q138" s="19">
-        <f>IF(AND(I138="Yes",J138="CR11",K138=L138,L138=M138,M138=E138),1,IF(AND(I138="Yes",J138="CR11",K138=M138,M138=E138),0.5,0))</f>
+        <f t="shared" ref="Q138:Q143" si="24">IF(AND(I138="Yes",J138="CR11",K138=L138,L138=M138,M138=E138),1,IF(AND(I138="Yes",J138="CR11",K138=M138,M138=E138),0.5,0))</f>
         <v>0</v>
       </c>
       <c r="R138" s="3"/>
@@ -21346,16 +21346,16 @@
         <v>80</v>
       </c>
       <c r="N139" s="18">
-        <f>IF(ISBLANK(E139),0,1)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O139" s="16"/>
       <c r="P139" s="18">
-        <f>IF(ISBLANK(O139),IF(ISBLANK(E139),0,1),1)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q139" s="19">
-        <f>IF(AND(I139="Yes",J139="CR11",K139=L139,L139=M139,M139=E139),1,IF(AND(I139="Yes",J139="CR11",K139=M139,M139=E139),0.5,0))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="R139" s="3"/>
@@ -21403,16 +21403,16 @@
         <v>79</v>
       </c>
       <c r="N140" s="18">
-        <f>IF(ISBLANK(E140),0,1)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O140" s="16"/>
       <c r="P140" s="18">
-        <f>IF(ISBLANK(O140),IF(ISBLANK(E140),0,1),1)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q140" s="19">
-        <f>IF(AND(I140="Yes",J140="CR11",K140=L140,L140=M140,M140=E140),1,IF(AND(I140="Yes",J140="CR11",K140=M140,M140=E140),0.5,0))</f>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="R140" s="3"/>
@@ -21462,16 +21462,16 @@
         <v>80</v>
       </c>
       <c r="N141" s="18">
-        <f>IF(ISBLANK(E141),0,1)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O141" s="16"/>
       <c r="P141" s="18">
-        <f>IF(ISBLANK(O141),IF(ISBLANK(E141),0,1),1)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q141" s="19">
-        <f>IF(AND(I141="Yes",J141="CR11",K141=L141,L141=M141,M141=E141),1,IF(AND(I141="Yes",J141="CR11",K141=M141,M141=E141),0.5,0))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="R141" s="3"/>
@@ -21517,16 +21517,16 @@
         <v>79</v>
       </c>
       <c r="N142" s="18">
-        <f>IF(ISBLANK(E142),0,1)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O142" s="16"/>
       <c r="P142" s="18">
-        <f>IF(ISBLANK(O142),IF(ISBLANK(E142),0,1),1)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q142" s="19">
-        <f>IF(AND(I142="Yes",J142="CR11",K142=L142,L142=M142,M142=E142),1,IF(AND(I142="Yes",J142="CR11",K142=M142,M142=E142),0.5,0))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R142" s="3"/>
@@ -21576,16 +21576,16 @@
         <v>19</v>
       </c>
       <c r="N143" s="18">
-        <f>IF(ISBLANK(E143),0,1)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O143" s="16"/>
       <c r="P143" s="18">
-        <f>IF(ISBLANK(O143),IF(ISBLANK(E143),0,1),1)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q143" s="19">
-        <f>IF(AND(I143="Yes",J143="CR11",K143=L143,L143=M143,M143=E143),1,IF(AND(I143="Yes",J143="CR11",K143=M143,M143=E143),0.5,0))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="R143" s="3"/>
@@ -21667,16 +21667,16 @@
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
       <c r="N145" s="18">
-        <f>IF(ISBLANK(E145),0,1)</f>
+        <f t="shared" ref="N145:N177" si="25">IF(ISBLANK(E145),0,1)</f>
         <v>1</v>
       </c>
       <c r="O145" s="16"/>
       <c r="P145" s="18">
-        <f>IF(ISBLANK(O145),IF(ISBLANK(E145),0,1),1)</f>
+        <f t="shared" ref="P145:P177" si="26">IF(ISBLANK(O145),IF(ISBLANK(E145),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q145" s="19">
-        <f>IF(AND(I145="Yes",J145="CR11",K145=L145,L145=M145,M145=E145),1,IF(AND(I145="Yes",J145="CR11",K145=M145,M145=E145),0.5,0))</f>
+        <f t="shared" ref="Q145:Q177" si="27">IF(AND(I145="Yes",J145="CR11",K145=L145,L145=M145,M145=E145),1,IF(AND(I145="Yes",J145="CR11",K145=M145,M145=E145),0.5,0))</f>
         <v>0</v>
       </c>
       <c r="R145" s="3"/>
@@ -21726,16 +21726,16 @@
         <v>79</v>
       </c>
       <c r="N146" s="18">
-        <f>IF(ISBLANK(E146),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O146" s="17"/>
       <c r="P146" s="18">
-        <f>IF(ISBLANK(O146),IF(ISBLANK(E146),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q146" s="19">
-        <f>IF(AND(I146="Yes",J146="CR11",K146=L146,L146=M146,M146=E146),1,IF(AND(I146="Yes",J146="CR11",K146=M146,M146=E146),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R146" s="3"/>
@@ -21785,16 +21785,16 @@
         <v>79</v>
       </c>
       <c r="N147" s="18">
-        <f>IF(ISBLANK(E147),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O147" s="16"/>
       <c r="P147" s="18">
-        <f>IF(ISBLANK(O147),IF(ISBLANK(E147),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q147" s="19">
-        <f>IF(AND(I147="Yes",J147="CR11",K147=L147,L147=M147,M147=E147),1,IF(AND(I147="Yes",J147="CR11",K147=M147,M147=E147),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R147" s="3"/>
@@ -21844,16 +21844,16 @@
         <v>79</v>
       </c>
       <c r="N148" s="18">
-        <f>IF(ISBLANK(E148),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O148" s="16"/>
       <c r="P148" s="18">
-        <f>IF(ISBLANK(O148),IF(ISBLANK(E148),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q148" s="19">
-        <f>IF(AND(I148="Yes",J148="CR11",K148=L148,L148=M148,M148=E148),1,IF(AND(I148="Yes",J148="CR11",K148=M148,M148=E148),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R148" s="3"/>
@@ -21903,16 +21903,16 @@
         <v>80</v>
       </c>
       <c r="N149" s="18">
-        <f>IF(ISBLANK(E149),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O149" s="16"/>
       <c r="P149" s="18">
-        <f>IF(ISBLANK(O149),IF(ISBLANK(E149),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q149" s="19">
-        <f>IF(AND(I149="Yes",J149="CR11",K149=L149,L149=M149,M149=E149),1,IF(AND(I149="Yes",J149="CR11",K149=M149,M149=E149),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R149" s="3"/>
@@ -21962,16 +21962,16 @@
         <v>38</v>
       </c>
       <c r="N150" s="18">
-        <f>IF(ISBLANK(E150),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O150" s="16"/>
       <c r="P150" s="18">
-        <f>IF(ISBLANK(O150),IF(ISBLANK(E150),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q150" s="19">
-        <f>IF(AND(I150="Yes",J150="CR11",K150=L150,L150=M150,M150=E150),1,IF(AND(I150="Yes",J150="CR11",K150=M150,M150=E150),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R150" s="3"/>
@@ -22021,16 +22021,16 @@
         <v>79</v>
       </c>
       <c r="N151" s="18">
-        <f>IF(ISBLANK(E151),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O151" s="16"/>
       <c r="P151" s="18">
-        <f>IF(ISBLANK(O151),IF(ISBLANK(E151),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q151" s="19">
-        <f>IF(AND(I151="Yes",J151="CR11",K151=L151,L151=M151,M151=E151),1,IF(AND(I151="Yes",J151="CR11",K151=M151,M151=E151),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R151" s="3"/>
@@ -22080,16 +22080,16 @@
         <v>79</v>
       </c>
       <c r="N152" s="18">
-        <f>IF(ISBLANK(E152),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O152" s="16"/>
       <c r="P152" s="18">
-        <f>IF(ISBLANK(O152),IF(ISBLANK(E152),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q152" s="19">
-        <f>IF(AND(I152="Yes",J152="CR11",K152=L152,L152=M152,M152=E152),1,IF(AND(I152="Yes",J152="CR11",K152=M152,M152=E152),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R152" s="3"/>
@@ -22139,16 +22139,16 @@
         <v>79</v>
       </c>
       <c r="N153" s="18">
-        <f>IF(ISBLANK(E153),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O153" s="17"/>
       <c r="P153" s="18">
-        <f>IF(ISBLANK(O153),IF(ISBLANK(E153),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q153" s="19">
-        <f>IF(AND(I153="Yes",J153="CR11",K153=L153,L153=M153,M153=E153),1,IF(AND(I153="Yes",J153="CR11",K153=M153,M153=E153),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R153" s="3"/>
@@ -22198,18 +22198,18 @@
         <v>25</v>
       </c>
       <c r="N154" s="18">
-        <f>IF(ISBLANK(E154),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O154" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P154" s="18">
-        <f>IF(ISBLANK(O154),IF(ISBLANK(E154),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q154" s="19">
-        <f>IF(AND(I154="Yes",J154="CR11",K154=L154,L154=M154,M154=E154),1,IF(AND(I154="Yes",J154="CR11",K154=M154,M154=E154),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R154" s="3"/>
@@ -22259,16 +22259,16 @@
         <v>80</v>
       </c>
       <c r="N155" s="18">
-        <f>IF(ISBLANK(E155),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O155" s="16"/>
       <c r="P155" s="18">
-        <f>IF(ISBLANK(O155),IF(ISBLANK(E155),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q155" s="19">
-        <f>IF(AND(I155="Yes",J155="CR11",K155=L155,L155=M155,M155=E155),1,IF(AND(I155="Yes",J155="CR11",K155=M155,M155=E155),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R155" s="3"/>
@@ -22318,16 +22318,16 @@
         <v>79</v>
       </c>
       <c r="N156" s="18">
-        <f>IF(ISBLANK(E156),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O156" s="16"/>
       <c r="P156" s="18">
-        <f>IF(ISBLANK(O156),IF(ISBLANK(E156),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q156" s="19">
-        <f>IF(AND(I156="Yes",J156="CR11",K156=L156,L156=M156,M156=E156),1,IF(AND(I156="Yes",J156="CR11",K156=M156,M156=E156),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R156" s="3"/>
@@ -22377,18 +22377,18 @@
         <v>25</v>
       </c>
       <c r="N157" s="18">
-        <f>IF(ISBLANK(E157),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P157" s="18">
-        <f>IF(ISBLANK(O157),IF(ISBLANK(E157),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q157" s="19">
-        <f>IF(AND(I157="Yes",J157="CR11",K157=L157,L157=M157,M157=E157),1,IF(AND(I157="Yes",J157="CR11",K157=M157,M157=E157),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R157" s="3"/>
@@ -22438,16 +22438,16 @@
         <v>38</v>
       </c>
       <c r="N158" s="18">
-        <f>IF(ISBLANK(E158),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O158" s="16"/>
       <c r="P158" s="18">
-        <f>IF(ISBLANK(O158),IF(ISBLANK(E158),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q158" s="19">
-        <f>IF(AND(I158="Yes",J158="CR11",K158=L158,L158=M158,M158=E158),1,IF(AND(I158="Yes",J158="CR11",K158=M158,M158=E158),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R158" s="3"/>
@@ -22497,16 +22497,16 @@
         <v>27</v>
       </c>
       <c r="N159" s="18">
-        <f>IF(ISBLANK(E159),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O159" s="16"/>
       <c r="P159" s="18">
-        <f>IF(ISBLANK(O159),IF(ISBLANK(E159),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q159" s="19">
-        <f>IF(AND(I159="Yes",J159="CR11",K159=L159,L159=M159,M159=E159),1,IF(AND(I159="Yes",J159="CR11",K159=M159,M159=E159),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R159" s="3"/>
@@ -22556,16 +22556,16 @@
         <v>27</v>
       </c>
       <c r="N160" s="18">
-        <f>IF(ISBLANK(E160),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O160" s="16"/>
       <c r="P160" s="18">
-        <f>IF(ISBLANK(O160),IF(ISBLANK(E160),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q160" s="19">
-        <f>IF(AND(I160="Yes",J160="CR11",K160=L160,L160=M160,M160=E160),1,IF(AND(I160="Yes",J160="CR11",K160=M160,M160=E160),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R160" s="3"/>
@@ -22615,16 +22615,16 @@
         <v>19</v>
       </c>
       <c r="N161" s="18">
-        <f>IF(ISBLANK(E161),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O161" s="16"/>
       <c r="P161" s="18">
-        <f>IF(ISBLANK(O161),IF(ISBLANK(E161),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q161" s="19">
-        <f>IF(AND(I161="Yes",J161="CR11",K161=L161,L161=M161,M161=E161),1,IF(AND(I161="Yes",J161="CR11",K161=M161,M161=E161),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R161" s="3"/>
@@ -22674,16 +22674,16 @@
         <v>62</v>
       </c>
       <c r="N162" s="18">
-        <f>IF(ISBLANK(E162),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O162" s="17"/>
       <c r="P162" s="18">
-        <f>IF(ISBLANK(O162),IF(ISBLANK(E162),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q162" s="19">
-        <f>IF(AND(I162="Yes",J162="CR11",K162=L162,L162=M162,M162=E162),1,IF(AND(I162="Yes",J162="CR11",K162=M162,M162=E162),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R162" s="3"/>
@@ -22733,16 +22733,16 @@
         <v>62</v>
       </c>
       <c r="N163" s="18">
-        <f>IF(ISBLANK(E163),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O163" s="17"/>
       <c r="P163" s="18">
-        <f>IF(ISBLANK(O163),IF(ISBLANK(E163),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q163" s="19">
-        <f>IF(AND(I163="Yes",J163="CR11",K163=L163,L163=M163,M163=E163),1,IF(AND(I163="Yes",J163="CR11",K163=M163,M163=E163),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R163" s="3"/>
@@ -22792,18 +22792,18 @@
         <v>25</v>
       </c>
       <c r="N164" s="18">
-        <f>IF(ISBLANK(E164),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O164" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P164" s="18">
-        <f>IF(ISBLANK(O164),IF(ISBLANK(E164),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q164" s="19">
-        <f>IF(AND(I164="Yes",J164="CR11",K164=L164,L164=M164,M164=E164),1,IF(AND(I164="Yes",J164="CR11",K164=M164,M164=E164),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R164" s="3"/>
@@ -22853,18 +22853,18 @@
         <v>25</v>
       </c>
       <c r="N165" s="18">
-        <f>IF(ISBLANK(E165),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O165" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P165" s="18">
-        <f>IF(ISBLANK(O165),IF(ISBLANK(E165),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q165" s="19">
-        <f>IF(AND(I165="Yes",J165="CR11",K165=L165,L165=M165,M165=E165),1,IF(AND(I165="Yes",J165="CR11",K165=M165,M165=E165),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R165" s="3"/>
@@ -22914,16 +22914,16 @@
         <v>19</v>
       </c>
       <c r="N166" s="18">
-        <f>IF(ISBLANK(E166),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O166" s="16"/>
       <c r="P166" s="18">
-        <f>IF(ISBLANK(O166),IF(ISBLANK(E166),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q166" s="19">
-        <f>IF(AND(I166="Yes",J166="CR11",K166=L166,L166=M166,M166=E166),1,IF(AND(I166="Yes",J166="CR11",K166=M166,M166=E166),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R166" s="3"/>
@@ -22973,16 +22973,16 @@
         <v>19</v>
       </c>
       <c r="N167" s="18">
-        <f>IF(ISBLANK(E167),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O167" s="16"/>
       <c r="P167" s="18">
-        <f>IF(ISBLANK(O167),IF(ISBLANK(E167),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q167" s="19">
-        <f>IF(AND(I167="Yes",J167="CR11",K167=L167,L167=M167,M167=E167),1,IF(AND(I167="Yes",J167="CR11",K167=M167,M167=E167),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R167" s="3"/>
@@ -23032,16 +23032,16 @@
         <v>19</v>
       </c>
       <c r="N168" s="18">
-        <f>IF(ISBLANK(E168),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O168" s="16"/>
       <c r="P168" s="18">
-        <f>IF(ISBLANK(O168),IF(ISBLANK(E168),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q168" s="19">
-        <f>IF(AND(I168="Yes",J168="CR11",K168=L168,L168=M168,M168=E168),1,IF(AND(I168="Yes",J168="CR11",K168=M168,M168=E168),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R168" s="3"/>
@@ -23091,16 +23091,16 @@
         <v>19</v>
       </c>
       <c r="N169" s="18">
-        <f>IF(ISBLANK(E169),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O169" s="16"/>
       <c r="P169" s="18">
-        <f>IF(ISBLANK(O169),IF(ISBLANK(E169),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q169" s="19">
-        <f>IF(AND(I169="Yes",J169="CR11",K169=L169,L169=M169,M169=E169),1,IF(AND(I169="Yes",J169="CR11",K169=M169,M169=E169),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R169" s="3"/>
@@ -23150,18 +23150,18 @@
         <v>25</v>
       </c>
       <c r="N170" s="18">
-        <f>IF(ISBLANK(E170),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O170" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P170" s="18">
-        <f>IF(ISBLANK(O170),IF(ISBLANK(E170),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q170" s="19">
-        <f>IF(AND(I170="Yes",J170="CR11",K170=L170,L170=M170,M170=E170),1,IF(AND(I170="Yes",J170="CR11",K170=M170,M170=E170),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R170" s="3"/>
@@ -23211,16 +23211,16 @@
         <v>29</v>
       </c>
       <c r="N171" s="18">
-        <f>IF(ISBLANK(E171),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O171" s="16"/>
       <c r="P171" s="18">
-        <f>IF(ISBLANK(O171),IF(ISBLANK(E171),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q171" s="19">
-        <f>IF(AND(I171="Yes",J171="CR11",K171=L171,L171=M171,M171=E171),1,IF(AND(I171="Yes",J171="CR11",K171=M171,M171=E171),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R171" s="3"/>
@@ -23270,16 +23270,16 @@
         <v>29</v>
       </c>
       <c r="N172" s="18">
-        <f>IF(ISBLANK(E172),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O172" s="16"/>
       <c r="P172" s="18">
-        <f>IF(ISBLANK(O172),IF(ISBLANK(E172),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q172" s="19">
-        <f>IF(AND(I172="Yes",J172="CR11",K172=L172,L172=M172,M172=E172),1,IF(AND(I172="Yes",J172="CR11",K172=M172,M172=E172),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R172" s="3"/>
@@ -23329,16 +23329,16 @@
         <v>29</v>
       </c>
       <c r="N173" s="18">
-        <f>IF(ISBLANK(E173),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O173" s="16"/>
       <c r="P173" s="18">
-        <f>IF(ISBLANK(O173),IF(ISBLANK(E173),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q173" s="19">
-        <f>IF(AND(I173="Yes",J173="CR11",K173=L173,L173=M173,M173=E173),1,IF(AND(I173="Yes",J173="CR11",K173=M173,M173=E173),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R173" s="3"/>
@@ -23388,16 +23388,16 @@
         <v>27</v>
       </c>
       <c r="N174" s="18">
-        <f>IF(ISBLANK(E174),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O174" s="16"/>
       <c r="P174" s="18">
-        <f>IF(ISBLANK(O174),IF(ISBLANK(E174),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q174" s="19">
-        <f>IF(AND(I174="Yes",J174="CR11",K174=L174,L174=M174,M174=E174),1,IF(AND(I174="Yes",J174="CR11",K174=M174,M174=E174),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R174" s="3"/>
@@ -23447,18 +23447,18 @@
         <v>25</v>
       </c>
       <c r="N175" s="18">
-        <f>IF(ISBLANK(E175),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O175" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P175" s="18">
-        <f>IF(ISBLANK(O175),IF(ISBLANK(E175),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q175" s="19">
-        <f>IF(AND(I175="Yes",J175="CR11",K175=L175,L175=M175,M175=E175),1,IF(AND(I175="Yes",J175="CR11",K175=M175,M175=E175),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R175" s="3"/>
@@ -23508,18 +23508,18 @@
         <v>25</v>
       </c>
       <c r="N176" s="18">
-        <f>IF(ISBLANK(E176),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O176" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P176" s="18">
-        <f>IF(ISBLANK(O176),IF(ISBLANK(E176),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q176" s="19">
-        <f>IF(AND(I176="Yes",J176="CR11",K176=L176,L176=M176,M176=E176),1,IF(AND(I176="Yes",J176="CR11",K176=M176,M176=E176),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R176" s="3"/>
@@ -23569,18 +23569,18 @@
         <v>25</v>
       </c>
       <c r="N177" s="18">
-        <f>IF(ISBLANK(E177),0,1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O177" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P177" s="18">
-        <f>IF(ISBLANK(O177),IF(ISBLANK(E177),0,1),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q177" s="19">
-        <f>IF(AND(I177="Yes",J177="CR11",K177=L177,L177=M177,M177=E177),1,IF(AND(I177="Yes",J177="CR11",K177=M177,M177=E177),0.5,0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R177" s="3"/>
@@ -23672,7 +23672,7 @@
         <v>29</v>
       </c>
       <c r="N179" s="18">
-        <f>IF(ISBLANK(E179),0,1)</f>
+        <f t="shared" ref="N179:N187" si="28">IF(ISBLANK(E179),0,1)</f>
         <v>1</v>
       </c>
       <c r="O179" s="16"/>
@@ -23681,7 +23681,7 @@
         <v>1</v>
       </c>
       <c r="Q179" s="19">
-        <f>IF(AND(I179="Yes",J179="CR11",K179=L179,L179=M179,M179=E179),1,IF(AND(I179="Yes",J179="CR11",K179=M179,M179=E179),0.5,0))</f>
+        <f t="shared" ref="Q179:Q187" si="29">IF(AND(I179="Yes",J179="CR11",K179=L179,L179=M179,M179=E179),1,IF(AND(I179="Yes",J179="CR11",K179=M179,M179=E179),0.5,0))</f>
         <v>0</v>
       </c>
       <c r="R179" s="3"/>
@@ -23731,7 +23731,7 @@
         <v>27</v>
       </c>
       <c r="N180" s="18">
-        <f>IF(ISBLANK(E180),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O180" s="16"/>
@@ -23740,7 +23740,7 @@
         <v>1</v>
       </c>
       <c r="Q180" s="19">
-        <f>IF(AND(I180="Yes",J180="CR11",K180=L180,L180=M180,M180=E180),1,IF(AND(I180="Yes",J180="CR11",K180=M180,M180=E180),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R180" s="3"/>
@@ -23790,7 +23790,7 @@
         <v>27</v>
       </c>
       <c r="N181" s="18">
-        <f>IF(ISBLANK(E181),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O181" s="16"/>
@@ -23799,7 +23799,7 @@
         <v>1</v>
       </c>
       <c r="Q181" s="19">
-        <f>IF(AND(I181="Yes",J181="CR11",K181=L181,L181=M181,M181=E181),1,IF(AND(I181="Yes",J181="CR11",K181=M181,M181=E181),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R181" s="3"/>
@@ -23849,7 +23849,7 @@
         <v>27</v>
       </c>
       <c r="N182" s="18">
-        <f>IF(ISBLANK(E182),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O182" s="16"/>
@@ -23858,7 +23858,7 @@
         <v>1</v>
       </c>
       <c r="Q182" s="19">
-        <f>IF(AND(I182="Yes",J182="CR11",K182=L182,L182=M182,M182=E182),1,IF(AND(I182="Yes",J182="CR11",K182=M182,M182=E182),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R182" s="3"/>
@@ -23908,7 +23908,7 @@
         <v>29</v>
       </c>
       <c r="N183" s="18">
-        <f>IF(ISBLANK(E183),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O183" s="16"/>
@@ -23917,7 +23917,7 @@
         <v>1</v>
       </c>
       <c r="Q183" s="19">
-        <f>IF(AND(I183="Yes",J183="CR11",K183=L183,L183=M183,M183=E183),1,IF(AND(I183="Yes",J183="CR11",K183=M183,M183=E183),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R183" s="3"/>
@@ -23967,7 +23967,7 @@
         <v>29</v>
       </c>
       <c r="N184" s="18">
-        <f>IF(ISBLANK(E184),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O184" s="16"/>
@@ -23976,7 +23976,7 @@
         <v>1</v>
       </c>
       <c r="Q184" s="19">
-        <f>IF(AND(I184="Yes",J184="CR11",K184=L184,L184=M184,M184=E184),1,IF(AND(I184="Yes",J184="CR11",K184=M184,M184=E184),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R184" s="3"/>
@@ -24026,7 +24026,7 @@
         <v>19</v>
       </c>
       <c r="N185" s="18">
-        <f>IF(ISBLANK(E185),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O185" s="16"/>
@@ -24035,7 +24035,7 @@
         <v>1</v>
       </c>
       <c r="Q185" s="19">
-        <f>IF(AND(I185="Yes",J185="CR11",K185=L185,L185=M185,M185=E185),1,IF(AND(I185="Yes",J185="CR11",K185=M185,M185=E185),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R185" s="3"/>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="M186" s="16"/>
       <c r="N186" s="18">
-        <f>IF(ISBLANK(E186),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O186" s="17" t="s">
@@ -24094,7 +24094,7 @@
         <v>1</v>
       </c>
       <c r="Q186" s="19">
-        <f>IF(AND(I186="Yes",J186="CR11",K186=L186,L186=M186,M186=E186),1,IF(AND(I186="Yes",J186="CR11",K186=M186,M186=E186),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R186" s="3"/>
@@ -24146,7 +24146,7 @@
         <v>27</v>
       </c>
       <c r="N187" s="18">
-        <f>IF(ISBLANK(E187),0,1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O187" s="16"/>
@@ -24155,7 +24155,7 @@
         <v>1</v>
       </c>
       <c r="Q187" s="19">
-        <f>IF(AND(I187="Yes",J187="CR11",K187=L187,L187=M187,M187=E187),1,IF(AND(I187="Yes",J187="CR11",K187=M187,M187=E187),0.5,0))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R187" s="3"/>
@@ -24245,16 +24245,16 @@
         <v>27</v>
       </c>
       <c r="N189" s="18">
-        <f>IF(ISBLANK(E189),0,1)</f>
+        <f t="shared" ref="N189:N204" si="30">IF(ISBLANK(E189),0,1)</f>
         <v>1</v>
       </c>
       <c r="O189" s="16"/>
       <c r="P189" s="18">
-        <f>IF(ISBLANK(O189),IF(ISBLANK(E189),0,1),1)</f>
+        <f t="shared" ref="P189:P200" si="31">IF(ISBLANK(O189),IF(ISBLANK(E189),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q189" s="19">
-        <f>IF(AND(I189="Yes",J189="CR11",K189=L189,L189=M189,M189=E189),1,IF(AND(I189="Yes",J189="CR11",K189=M189,M189=E189),0.5,0))</f>
+        <f t="shared" ref="Q189:Q204" si="32">IF(AND(I189="Yes",J189="CR11",K189=L189,L189=M189,M189=E189),1,IF(AND(I189="Yes",J189="CR11",K189=M189,M189=E189),0.5,0))</f>
         <v>1</v>
       </c>
       <c r="R189" s="3"/>
@@ -24304,16 +24304,16 @@
         <v>19</v>
       </c>
       <c r="N190" s="18">
-        <f>IF(ISBLANK(E190),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O190" s="16"/>
       <c r="P190" s="18">
-        <f>IF(ISBLANK(O190),IF(ISBLANK(E190),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q190" s="19">
-        <f>IF(AND(I190="Yes",J190="CR11",K190=L190,L190=M190,M190=E190),1,IF(AND(I190="Yes",J190="CR11",K190=M190,M190=E190),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R190" s="3"/>
@@ -24363,16 +24363,16 @@
         <v>19</v>
       </c>
       <c r="N191" s="18">
-        <f>IF(ISBLANK(E191),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O191" s="16"/>
       <c r="P191" s="18">
-        <f>IF(ISBLANK(O191),IF(ISBLANK(E191),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q191" s="19">
-        <f>IF(AND(I191="Yes",J191="CR11",K191=L191,L191=M191,M191=E191),1,IF(AND(I191="Yes",J191="CR11",K191=M191,M191=E191),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R191" s="3"/>
@@ -24422,18 +24422,18 @@
         <v>25</v>
       </c>
       <c r="N192" s="18">
-        <f>IF(ISBLANK(E192),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O192" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P192" s="18">
-        <f>IF(ISBLANK(O192),IF(ISBLANK(E192),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q192" s="19">
-        <f>IF(AND(I192="Yes",J192="CR11",K192=L192,L192=M192,M192=E192),1,IF(AND(I192="Yes",J192="CR11",K192=M192,M192=E192),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R192" s="3"/>
@@ -24483,18 +24483,18 @@
         <v>25</v>
       </c>
       <c r="N193" s="18">
-        <f>IF(ISBLANK(E193),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O193" s="17" t="s">
         <v>24</v>
       </c>
       <c r="P193" s="18">
-        <f>IF(ISBLANK(O193),IF(ISBLANK(E193),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q193" s="19">
-        <f>IF(AND(I193="Yes",J193="CR11",K193=L193,L193=M193,M193=E193),1,IF(AND(I193="Yes",J193="CR11",K193=M193,M193=E193),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R193" s="3"/>
@@ -24544,16 +24544,16 @@
         <v>79</v>
       </c>
       <c r="N194" s="18">
-        <f>IF(ISBLANK(E194),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O194" s="16"/>
       <c r="P194" s="18">
-        <f>IF(ISBLANK(O194),IF(ISBLANK(E194),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q194" s="19">
-        <f>IF(AND(I194="Yes",J194="CR11",K194=L194,L194=M194,M194=E194),1,IF(AND(I194="Yes",J194="CR11",K194=M194,M194=E194),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R194" s="3"/>
@@ -24603,16 +24603,16 @@
         <v>38</v>
       </c>
       <c r="N195" s="18">
-        <f>IF(ISBLANK(E195),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O195" s="16"/>
       <c r="P195" s="18">
-        <f>IF(ISBLANK(O195),IF(ISBLANK(E195),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q195" s="19">
-        <f>IF(AND(I195="Yes",J195="CR11",K195=L195,L195=M195,M195=E195),1,IF(AND(I195="Yes",J195="CR11",K195=M195,M195=E195),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R195" s="3"/>
@@ -24662,16 +24662,16 @@
         <v>38</v>
       </c>
       <c r="N196" s="18">
-        <f>IF(ISBLANK(E196),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O196" s="16"/>
       <c r="P196" s="18">
-        <f>IF(ISBLANK(O196),IF(ISBLANK(E196),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q196" s="19">
-        <f>IF(AND(I196="Yes",J196="CR11",K196=L196,L196=M196,M196=E196),1,IF(AND(I196="Yes",J196="CR11",K196=M196,M196=E196),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R196" s="3"/>
@@ -24721,16 +24721,16 @@
         <v>80</v>
       </c>
       <c r="N197" s="18">
-        <f>IF(ISBLANK(E197),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O197" s="16"/>
       <c r="P197" s="18">
-        <f>IF(ISBLANK(O197),IF(ISBLANK(E197),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q197" s="19">
-        <f>IF(AND(I197="Yes",J197="CR11",K197=L197,L197=M197,M197=E197),1,IF(AND(I197="Yes",J197="CR11",K197=M197,M197=E197),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R197" s="3"/>
@@ -24780,16 +24780,16 @@
         <v>19</v>
       </c>
       <c r="N198" s="18">
-        <f>IF(ISBLANK(E198),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O198" s="16"/>
       <c r="P198" s="18">
-        <f>IF(ISBLANK(O198),IF(ISBLANK(E198),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q198" s="19">
-        <f>IF(AND(I198="Yes",J198="CR11",K198=L198,L198=M198,M198=E198),1,IF(AND(I198="Yes",J198="CR11",K198=M198,M198=E198),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R198" s="3"/>
@@ -24839,16 +24839,16 @@
         <v>19</v>
       </c>
       <c r="N199" s="18">
-        <f>IF(ISBLANK(E199),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O199" s="16"/>
       <c r="P199" s="18">
-        <f>IF(ISBLANK(O199),IF(ISBLANK(E199),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q199" s="19">
-        <f>IF(AND(I199="Yes",J199="CR11",K199=L199,L199=M199,M199=E199),1,IF(AND(I199="Yes",J199="CR11",K199=M199,M199=E199),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="R199" s="3"/>
@@ -24892,16 +24892,16 @@
         <v>17</v>
       </c>
       <c r="N200" s="18">
-        <f>IF(ISBLANK(E200),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O200" s="16"/>
       <c r="P200" s="18">
-        <f>IF(ISBLANK(O200),IF(ISBLANK(E200),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q200" s="19">
-        <f>IF(AND(I200="Yes",J200="CR11",K200=L200,L200=M200,M200=E200),1,IF(AND(I200="Yes",J200="CR11",K200=M200,M200=E200),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R200" s="3"/>
@@ -24941,7 +24941,7 @@
         <v>62</v>
       </c>
       <c r="N201" s="18">
-        <f>IF(ISBLANK(E201),0,1)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O201" s="16"/>
@@ -24950,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="Q201" s="19">
-        <f>IF(AND(I201="Yes",J201="CR11",K201=L201,L201=M201,M201=E201),1,IF(AND(I201="Yes",J201="CR11",K201=M201,M201=E201),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R201" s="3"/>
@@ -24994,7 +24994,7 @@
         <v>17</v>
       </c>
       <c r="N202" s="18">
-        <f>IF(ISBLANK(E202),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O202" s="16"/>
@@ -25003,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="Q202" s="19">
-        <f>IF(AND(I202="Yes",J202="CR11",K202=L202,L202=M202,M202=E202),1,IF(AND(I202="Yes",J202="CR11",K202=M202,M202=E202),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R202" s="3"/>
@@ -25045,7 +25045,7 @@
       <c r="L203" s="16"/>
       <c r="M203" s="16"/>
       <c r="N203" s="18">
-        <f>IF(ISBLANK(E203),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O203" s="17" t="s">
@@ -25056,7 +25056,7 @@
         <v>1</v>
       </c>
       <c r="Q203" s="19">
-        <f>IF(AND(I203="Yes",J203="CR11",K203=L203,L203=M203,M203=E203),1,IF(AND(I203="Yes",J203="CR11",K203=M203,M203=E203),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R203" s="3"/>
@@ -25098,7 +25098,7 @@
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
       <c r="N204" s="18">
-        <f>IF(ISBLANK(E204),0,1)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="O204" s="17" t="s">
@@ -25109,7 +25109,7 @@
         <v>1</v>
       </c>
       <c r="Q204" s="19">
-        <f>IF(AND(I204="Yes",J204="CR11",K204=L204,L204=M204,M204=E204),1,IF(AND(I204="Yes",J204="CR11",K204=M204,M204=E204),0.5,0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R204" s="3"/>

--- a/config_management/change_requests/modulesCR11.xlsx
+++ b/config_management/change_requests/modulesCR11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21160" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-6440" yWindow="-21160" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="CR_210-2 (2)" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master CRs listing'!$A$1:$Q$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master CRs listing'!$A$1:$Q$207</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="329">
   <si>
     <t>Part number</t>
   </si>
@@ -1499,7 +1499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1741,6 +1741,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -11462,8 +11465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q206" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:Q206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q207" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:Q207"/>
   <sortState ref="A2:Q206">
     <sortCondition ref="A1:A206"/>
   </sortState>
@@ -13343,13 +13346,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y206"/>
+  <dimension ref="A1:Y207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
+      <selection pane="bottomRight" activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -13362,14 +13365,15 @@
     <col min="6" max="6" width="19.1640625" style="28" customWidth="1"/>
     <col min="7" max="7" width="35.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="19" style="44" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.33203125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="15" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="20" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.33203125" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="10" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.33203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="15" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="20" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="17.33203125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="10.83203125" collapsed="1"/>
     <col min="20" max="20" width="13.33203125" style="5" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="10.83203125" customWidth="1" outlineLevel="1"/>
     <col min="22" max="23" width="13.83203125" style="3" customWidth="1" outlineLevel="1"/>
@@ -21667,16 +21671,16 @@
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
       <c r="N145" s="18">
-        <f t="shared" ref="N145:N177" si="25">IF(ISBLANK(E145),0,1)</f>
+        <f t="shared" ref="N145:N178" si="25">IF(ISBLANK(E145),0,1)</f>
         <v>1</v>
       </c>
       <c r="O145" s="16"/>
       <c r="P145" s="18">
-        <f t="shared" ref="P145:P177" si="26">IF(ISBLANK(O145),IF(ISBLANK(E145),0,1),1)</f>
+        <f t="shared" ref="P145:P178" si="26">IF(ISBLANK(O145),IF(ISBLANK(E145),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q145" s="19">
-        <f t="shared" ref="Q145:Q177" si="27">IF(AND(I145="Yes",J145="CR11",K145=L145,L145=M145,M145=E145),1,IF(AND(I145="Yes",J145="CR11",K145=M145,M145=E145),0.5,0))</f>
+        <f t="shared" ref="Q145:Q178" si="27">IF(AND(I145="Yes",J145="CR11",K145=L145,L145=M145,M145=E145),1,IF(AND(I145="Yes",J145="CR11",K145=M145,M145=E145),0.5,0))</f>
         <v>0</v>
       </c>
       <c r="R145" s="3"/>
@@ -23409,58 +23413,37 @@
     </row>
     <row r="175" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="98">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C175" s="54">
+        <v>216</v>
+      </c>
+      <c r="C175" s="36">
         <v>3</v>
       </c>
-      <c r="D175" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E175" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F175" s="72" t="s">
+      <c r="D175" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E175" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F175" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="G175" s="20"/>
-      <c r="H175" s="65">
+      <c r="G175" s="72"/>
+      <c r="H175" s="102">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
-      <c r="I175" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J175" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K175" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L175" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M175" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N175" s="18">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="O175" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P175" s="18">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="Q175" s="19">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="I175" s="16"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="37"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="17"/>
+      <c r="N175" s="18"/>
+      <c r="O175" s="16"/>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="19"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
@@ -23470,18 +23453,18 @@
     </row>
     <row r="176" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="98">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C176" s="54">
-        <v>2</v>
-      </c>
-      <c r="D176" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E176" s="87" t="s">
         <v>24</v>
       </c>
       <c r="F176" s="72" t="s">
@@ -23501,7 +23484,7 @@
       <c r="K176" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="L176" s="17" t="s">
+      <c r="L176" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M176" s="21" t="s">
@@ -23531,10 +23514,10 @@
     </row>
     <row r="177" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="98">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C177" s="54">
         <v>2</v>
@@ -23545,7 +23528,7 @@
       <c r="E177" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F177" s="87" t="s">
+      <c r="F177" s="72" t="s">
         <v>320</v>
       </c>
       <c r="G177" s="20"/>
@@ -23592,37 +23575,58 @@
     </row>
     <row r="178" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="98">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C178" s="36">
+        <v>219</v>
+      </c>
+      <c r="C178" s="54">
         <v>2</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F178" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="G178" s="72"/>
+        <v>24</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="G178" s="20"/>
       <c r="H178" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
-      <c r="I178" s="16"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="37"/>
-      <c r="L178" s="16"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="17"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="19"/>
+      <c r="I178" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K178" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L178" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M178" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N178" s="18">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O178" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P178" s="18">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q178" s="19">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
@@ -23638,52 +23642,31 @@
         <v>220</v>
       </c>
       <c r="C179" s="36">
-        <v>3</v>
-      </c>
-      <c r="D179" s="56" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="E179" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F179" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="G179" s="20" t="s">
-        <v>317</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F179" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="G179" s="72"/>
       <c r="H179" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
-      <c r="I179" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J179" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K179" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="L179" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M179" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N179" s="18">
-        <f t="shared" ref="N179:N187" si="28">IF(ISBLANK(E179),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O179" s="16"/>
-      <c r="P179" s="18">
-        <f>IF(ISBLANK(O179),IF(ISBLANK(E179),0,1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q179" s="19">
-        <f t="shared" ref="Q179:Q187" si="29">IF(AND(I179="Yes",J179="CR11",K179=L179,L179=M179,M179=E179),1,IF(AND(I179="Yes",J179="CR11",K179=M179,M179=E179),0.5,0))</f>
-        <v>0</v>
-      </c>
+      <c r="I179" s="16"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="37"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="21"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="17"/>
+      <c r="P179" s="18"/>
+      <c r="Q179" s="19"/>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
@@ -23693,24 +23676,26 @@
     </row>
     <row r="180" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="98">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C180" s="54">
-        <v>2</v>
-      </c>
-      <c r="D180" s="31" t="s">
-        <v>27</v>
+        <v>220</v>
+      </c>
+      <c r="C180" s="36">
+        <v>3</v>
+      </c>
+      <c r="D180" s="56" t="s">
+        <v>38</v>
       </c>
       <c r="E180" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F180" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="G180" s="72"/>
+        <v>38</v>
+      </c>
+      <c r="F180" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="G180" s="20" t="s">
+        <v>317</v>
+      </c>
       <c r="H180" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
@@ -23722,16 +23707,16 @@
         <v>21</v>
       </c>
       <c r="K180" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L180" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="L180" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="M180" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N180" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="N180:N188" si="28">IF(ISBLANK(E180),0,1)</f>
         <v>1</v>
       </c>
       <c r="O180" s="16"/>
@@ -23740,8 +23725,8 @@
         <v>1</v>
       </c>
       <c r="Q180" s="19">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" ref="Q180:Q188" si="29">IF(AND(I180="Yes",J180="CR11",K180=L180,L180=M180,M180=E180),1,IF(AND(I180="Yes",J180="CR11",K180=M180,M180=E180),0.5,0))</f>
+        <v>0</v>
       </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
@@ -23752,18 +23737,18 @@
     </row>
     <row r="181" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="98">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C181" s="54">
         <v>2</v>
       </c>
-      <c r="D181" s="87" t="s">
+      <c r="D181" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E181" s="86" t="s">
+      <c r="E181" s="53" t="s">
         <v>27</v>
       </c>
       <c r="F181" s="71" t="s">
@@ -23811,13 +23796,13 @@
     </row>
     <row r="182" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="98">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C182" s="54" t="s">
-        <v>128</v>
+        <v>222</v>
+      </c>
+      <c r="C182" s="54">
+        <v>2</v>
       </c>
       <c r="D182" s="87" t="s">
         <v>27</v>
@@ -23828,10 +23813,8 @@
       <c r="F182" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="G182" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="H182" s="94">
+      <c r="G182" s="72"/>
+      <c r="H182" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -23841,9 +23824,11 @@
       <c r="J182" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K182" s="55"/>
-      <c r="L182" s="16" t="s">
-        <v>29</v>
+      <c r="K182" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L182" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="M182" s="17" t="s">
         <v>27</v>
@@ -23854,12 +23839,12 @@
       </c>
       <c r="O182" s="16"/>
       <c r="P182" s="18">
-        <f>IF(ISBLANK(G182),IF(ISBLANK(E182),0,1),1)</f>
+        <f>IF(ISBLANK(O182),IF(ISBLANK(E182),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q182" s="19">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
@@ -23870,25 +23855,27 @@
     </row>
     <row r="183" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="98">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C183" s="54">
-        <v>2</v>
-      </c>
-      <c r="D183" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F183" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="G183" s="72"/>
-      <c r="H183" s="65">
+        <v>223</v>
+      </c>
+      <c r="C183" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D183" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="G183" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="H183" s="94">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
@@ -23898,14 +23885,12 @@
       <c r="J183" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K183" s="55" t="s">
-        <v>29</v>
-      </c>
+      <c r="K183" s="55"/>
       <c r="L183" s="16" t="s">
         <v>29</v>
       </c>
       <c r="M183" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N183" s="18">
         <f t="shared" si="28"/>
@@ -23913,12 +23898,12 @@
       </c>
       <c r="O183" s="16"/>
       <c r="P183" s="18">
-        <f>IF(ISBLANK(O183),IF(ISBLANK(E183),0,1),1)</f>
+        <f>IF(ISBLANK(G183),IF(ISBLANK(E183),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q183" s="19">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
@@ -23929,10 +23914,10 @@
     </row>
     <row r="184" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="98">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C184" s="54">
         <v>2</v>
@@ -23988,22 +23973,22 @@
     </row>
     <row r="185" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="98">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C185" s="54">
         <v>2</v>
       </c>
-      <c r="D185" s="56" t="s">
-        <v>19</v>
+      <c r="D185" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="E185" s="53" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F185" s="86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G185" s="72"/>
       <c r="H185" s="65">
@@ -24017,13 +24002,13 @@
         <v>21</v>
       </c>
       <c r="K185" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L185" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="L185" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="M185" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N185" s="18">
         <f t="shared" si="28"/>
@@ -24047,24 +24032,24 @@
     </row>
     <row r="186" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="98">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C186" s="54">
         <v>2</v>
       </c>
-      <c r="D186" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F186" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="G186" s="20"/>
+      <c r="D186" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="G186" s="72"/>
       <c r="H186" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
@@ -24076,26 +24061,26 @@
         <v>21</v>
       </c>
       <c r="K186" s="55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L186" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M186" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="M186" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="N186" s="18">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="O186" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="O186" s="16"/>
       <c r="P186" s="18">
         <f>IF(ISBLANK(O186),IF(ISBLANK(E186),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q186" s="19">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
@@ -24106,26 +24091,24 @@
     </row>
     <row r="187" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="98">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C187" s="54">
         <v>2</v>
       </c>
-      <c r="D187" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E187" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F187" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="G187" s="72" t="s">
-        <v>318</v>
-      </c>
+      <c r="D187" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="G187" s="20"/>
       <c r="H187" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
@@ -24137,26 +24120,26 @@
         <v>21</v>
       </c>
       <c r="K187" s="55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L187" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M187" s="17" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M187" s="16"/>
       <c r="N187" s="18">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="O187" s="16"/>
+      <c r="O187" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="P187" s="18">
         <f>IF(ISBLANK(O187),IF(ISBLANK(E187),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q187" s="19">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
@@ -24173,31 +24156,52 @@
         <v>228</v>
       </c>
       <c r="C188" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E188" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F188" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="G188" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E188" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="G188" s="72" t="s">
+        <v>318</v>
+      </c>
       <c r="H188" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
-      <c r="I188" s="16"/>
-      <c r="J188" s="16"/>
-      <c r="K188" s="37"/>
-      <c r="L188" s="16"/>
-      <c r="M188" s="17"/>
-      <c r="N188" s="18"/>
+      <c r="I188" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J188" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K188" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L188" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M188" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N188" s="18">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
       <c r="O188" s="16"/>
-      <c r="P188" s="18"/>
-      <c r="Q188" s="19"/>
+      <c r="P188" s="18">
+        <f>IF(ISBLANK(O188),IF(ISBLANK(E188),0,1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q188" s="19">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
@@ -24207,56 +24211,37 @@
     </row>
     <row r="189" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="98">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C189" s="54">
-        <v>2</v>
-      </c>
-      <c r="D189" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E189" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="F189" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="G189" s="72"/>
+        <v>3</v>
+      </c>
+      <c r="D189" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="G189" s="20"/>
       <c r="H189" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
-      <c r="I189" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J189" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K189" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L189" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M189" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N189" s="18">
-        <f t="shared" ref="N189:N204" si="30">IF(ISBLANK(E189),0,1)</f>
-        <v>1</v>
-      </c>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="37"/>
+      <c r="L189" s="16"/>
+      <c r="M189" s="17"/>
+      <c r="N189" s="18"/>
       <c r="O189" s="16"/>
-      <c r="P189" s="18">
-        <f t="shared" ref="P189:P200" si="31">IF(ISBLANK(O189),IF(ISBLANK(E189),0,1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q189" s="19">
-        <f t="shared" ref="Q189:Q204" si="32">IF(AND(I189="Yes",J189="CR11",K189=L189,L189=M189,M189=E189),1,IF(AND(I189="Yes",J189="CR11",K189=M189,M189=E189),0.5,0))</f>
-        <v>1</v>
-      </c>
+      <c r="P189" s="18"/>
+      <c r="Q189" s="19"/>
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
@@ -24266,19 +24251,19 @@
     </row>
     <row r="190" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="98">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C190" s="54">
         <v>2</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E190" s="86" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F190" s="71" t="s">
         <v>323</v>
@@ -24295,25 +24280,25 @@
         <v>21</v>
       </c>
       <c r="K190" s="55" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L190" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M190" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N190" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="N190:N205" si="30">IF(ISBLANK(E190),0,1)</f>
         <v>1</v>
       </c>
       <c r="O190" s="16"/>
       <c r="P190" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="P190:P201" si="31">IF(ISBLANK(O190),IF(ISBLANK(E190),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q190" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="Q190:Q205" si="32">IF(AND(I190="Yes",J190="CR11",K190=L190,L190=M190,M190=E190),1,IF(AND(I190="Yes",J190="CR11",K190=M190,M190=E190),0.5,0))</f>
         <v>1</v>
       </c>
       <c r="R190" s="3"/>
@@ -24325,21 +24310,21 @@
     </row>
     <row r="191" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="98">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C191" s="54">
         <v>2</v>
       </c>
-      <c r="D191" s="56" t="s">
+      <c r="D191" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E191" s="53" t="s">
+      <c r="E191" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F191" s="86" t="s">
+      <c r="F191" s="71" t="s">
         <v>323</v>
       </c>
       <c r="G191" s="72"/>
@@ -24384,24 +24369,24 @@
     </row>
     <row r="192" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="98">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C192" s="54">
         <v>2</v>
       </c>
-      <c r="D192" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F192" s="87" t="s">
-        <v>320</v>
-      </c>
-      <c r="G192" s="20"/>
+      <c r="D192" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="G192" s="72"/>
       <c r="H192" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
@@ -24413,28 +24398,26 @@
         <v>21</v>
       </c>
       <c r="K192" s="55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L192" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M192" s="21" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="M192" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="N192" s="18">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="O192" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="O192" s="16"/>
       <c r="P192" s="18">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q192" s="19">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
@@ -24445,18 +24428,18 @@
     </row>
     <row r="193" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="98">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C193" s="54">
         <v>2</v>
       </c>
-      <c r="D193" s="87" t="s">
+      <c r="D193" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E193" s="87" t="s">
+      <c r="E193" s="31" t="s">
         <v>24</v>
       </c>
       <c r="F193" s="87" t="s">
@@ -24506,22 +24489,22 @@
     </row>
     <row r="194" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="98">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C194" s="54">
-        <v>1</v>
-      </c>
-      <c r="D194" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E194" s="53" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D194" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="87" t="s">
+        <v>24</v>
       </c>
       <c r="F194" s="87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="65">
@@ -24535,19 +24518,21 @@
         <v>21</v>
       </c>
       <c r="K194" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="L194" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="M194" s="17" t="s">
-        <v>79</v>
+        <v>24</v>
+      </c>
+      <c r="L194" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M194" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="N194" s="18">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="O194" s="16"/>
+      <c r="O194" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="P194" s="18">
         <f t="shared" si="31"/>
         <v>1</v>
@@ -24565,10 +24550,10 @@
     </row>
     <row r="195" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="98">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C195" s="54">
         <v>1</v>
@@ -24594,13 +24579,13 @@
         <v>21</v>
       </c>
       <c r="K195" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L195" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="L195" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M195" s="16" t="s">
-        <v>38</v>
+      <c r="M195" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="N195" s="18">
         <f t="shared" si="30"/>
@@ -24613,7 +24598,7 @@
       </c>
       <c r="Q195" s="19">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
@@ -24624,10 +24609,10 @@
     </row>
     <row r="196" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="98">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C196" s="54">
         <v>1</v>
@@ -24638,7 +24623,7 @@
       <c r="E196" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F196" s="72" t="s">
+      <c r="F196" s="87" t="s">
         <v>321</v>
       </c>
       <c r="G196" s="20"/>
@@ -24655,7 +24640,7 @@
       <c r="K196" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L196" s="17" t="s">
+      <c r="L196" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M196" s="16" t="s">
@@ -24683,22 +24668,22 @@
     </row>
     <row r="197" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="98">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C197" s="54">
         <v>1</v>
       </c>
-      <c r="D197" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E197" s="31" t="s">
-        <v>80</v>
+      <c r="D197" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" s="53" t="s">
+        <v>38</v>
       </c>
       <c r="F197" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G197" s="20"/>
       <c r="H197" s="65">
@@ -24712,13 +24697,13 @@
         <v>21</v>
       </c>
       <c r="K197" s="55" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L197" s="17" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="M197" s="16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N197" s="18">
         <f t="shared" si="30"/>
@@ -24742,24 +24727,24 @@
     </row>
     <row r="198" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="98">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C198" s="54">
         <v>1</v>
       </c>
-      <c r="D198" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="G198" s="72"/>
+      <c r="D198" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F198" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="G198" s="20"/>
       <c r="H198" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
@@ -24771,13 +24756,13 @@
         <v>21</v>
       </c>
       <c r="K198" s="55" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="L198" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M198" s="17" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="M198" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="N198" s="18">
         <f t="shared" si="30"/>
@@ -24801,10 +24786,10 @@
     </row>
     <row r="199" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="98">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C199" s="54">
         <v>1</v>
@@ -24859,37 +24844,43 @@
       <c r="Y199" s="3"/>
     </row>
     <row r="200" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="97">
-        <v>1834</v>
+      <c r="A200" s="98">
+        <v>1831</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C200" s="54">
         <v>1</v>
       </c>
-      <c r="D200" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F200" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="G200" s="20"/>
+      <c r="D200" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="G200" s="72"/>
       <c r="H200" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16"/>
+      <c r="I200" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J200" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="K200" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L200" s="16"/>
-      <c r="M200" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L200" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M200" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="N200" s="18">
         <f t="shared" si="30"/>
@@ -24902,7 +24893,7 @@
       </c>
       <c r="Q200" s="19">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
@@ -24912,41 +24903,45 @@
       <c r="Y200" s="3"/>
     </row>
     <row r="201" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="26">
-        <v>1835</v>
-      </c>
-      <c r="B201" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="C201" s="83">
-        <v>1</v>
-      </c>
-      <c r="D201" s="80"/>
-      <c r="E201" s="80"/>
+      <c r="A201" s="97">
+        <v>1834</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C201" s="54">
+        <v>1</v>
+      </c>
+      <c r="D201" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="F201" s="87" t="s">
         <v>321</v>
       </c>
-      <c r="G201" s="20" t="s">
-        <v>326</v>
-      </c>
+      <c r="G201" s="20"/>
       <c r="H201" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I201" s="16"/>
       <c r="J201" s="16"/>
-      <c r="K201" s="16"/>
+      <c r="K201" s="55" t="s">
+        <v>17</v>
+      </c>
       <c r="L201" s="16"/>
-      <c r="M201" s="17" t="s">
-        <v>62</v>
+      <c r="M201" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="N201" s="18">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201" s="16"/>
       <c r="P201" s="18">
-        <f>IF(ISBLANK(G201),IF(ISBLANK(E201),0,1),1)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q201" s="19">
@@ -24961,45 +24956,41 @@
       <c r="Y201" s="3"/>
     </row>
     <row r="202" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="97">
-        <v>1836</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C202" s="54">
-        <v>1</v>
-      </c>
-      <c r="D202" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="87" t="s">
-        <v>17</v>
-      </c>
+      <c r="A202" s="26">
+        <v>1835</v>
+      </c>
+      <c r="B202" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C202" s="83">
+        <v>1</v>
+      </c>
+      <c r="D202" s="80"/>
+      <c r="E202" s="80"/>
       <c r="F202" s="87" t="s">
         <v>321</v>
       </c>
-      <c r="G202" s="20"/>
+      <c r="G202" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="H202" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I202" s="16"/>
       <c r="J202" s="16"/>
-      <c r="K202" s="55" t="s">
-        <v>17</v>
-      </c>
+      <c r="K202" s="16"/>
       <c r="L202" s="16"/>
-      <c r="M202" s="16" t="s">
-        <v>17</v>
+      <c r="M202" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="N202" s="18">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O202" s="16"/>
       <c r="P202" s="18">
-        <f>IF(ISBLANK(O202),IF(ISBLANK(E202),0,1),1)</f>
+        <f>IF(ISBLANK(G202),IF(ISBLANK(E202),0,1),1)</f>
         <v>1</v>
       </c>
       <c r="Q202" s="19">
@@ -25014,43 +25005,43 @@
       <c r="Y202" s="3"/>
     </row>
     <row r="203" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="26">
-        <v>1844</v>
+      <c r="A203" s="97">
+        <v>1836</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C203" s="19">
-        <v>1</v>
-      </c>
-      <c r="D203" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E203" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="F203" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="54">
+        <v>1</v>
+      </c>
+      <c r="D203" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="87" t="s">
         <v>321</v>
       </c>
-      <c r="G203" s="20" t="s">
-        <v>319</v>
-      </c>
+      <c r="G203" s="20"/>
       <c r="H203" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I203" s="16"/>
       <c r="J203" s="16"/>
-      <c r="K203" s="16"/>
+      <c r="K203" s="55" t="s">
+        <v>17</v>
+      </c>
       <c r="L203" s="16"/>
-      <c r="M203" s="16"/>
+      <c r="M203" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="N203" s="18">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="O203" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="O203" s="16"/>
       <c r="P203" s="18">
         <f>IF(ISBLANK(O203),IF(ISBLANK(E203),0,1),1)</f>
         <v>1</v>
@@ -25067,22 +25058,22 @@
       <c r="Y203" s="3"/>
     </row>
     <row r="204" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="97">
-        <v>1845</v>
-      </c>
-      <c r="B204" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C204" s="74">
-        <v>1</v>
-      </c>
-      <c r="D204" s="100" t="s">
+      <c r="A204" s="26">
+        <v>1844</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C204" s="19">
+        <v>1</v>
+      </c>
+      <c r="D204" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E204" s="101" t="s">
+      <c r="E204" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F204" s="87" t="s">
+      <c r="F204" s="72" t="s">
         <v>321</v>
       </c>
       <c r="G204" s="20" t="s">
@@ -25119,95 +25110,148 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" spans="1:25" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B205" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C205" s="63">
-        <v>1</v>
-      </c>
-      <c r="D205" s="31"/>
-      <c r="E205" s="31"/>
-      <c r="F205" s="72" t="s">
+    <row r="205" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="97">
+        <v>1845</v>
+      </c>
+      <c r="B205" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C205" s="74">
+        <v>1</v>
+      </c>
+      <c r="D205" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E205" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" s="87" t="s">
         <v>321</v>
       </c>
-      <c r="G205" s="20"/>
+      <c r="G205" s="20" t="s">
+        <v>319</v>
+      </c>
       <c r="H205" s="65">
         <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
         <v>1</v>
       </c>
       <c r="I205" s="16"/>
       <c r="J205" s="16"/>
-      <c r="K205" s="37"/>
+      <c r="K205" s="16"/>
       <c r="L205" s="16"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="17"/>
-      <c r="P205" s="18"/>
-      <c r="Q205" s="19"/>
-    </row>
-    <row r="206" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="43" t="s">
+      <c r="M205" s="16"/>
+      <c r="N205" s="18">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O205" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P205" s="18">
+        <f>IF(ISBLANK(O205),IF(ISBLANK(E205),0,1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q205" s="19">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="X205" s="3"/>
+      <c r="Y205" s="3"/>
+    </row>
+    <row r="206" spans="1:25" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B206" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C206" s="63">
+        <v>1</v>
+      </c>
+      <c r="D206" s="31"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="G206" s="20"/>
+      <c r="H206" s="65">
+        <f>IF(Table2[[#This Row],[STEPmod publication index]]=Table2[[#This Row],[Final Listing]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I206" s="16"/>
+      <c r="J206" s="16"/>
+      <c r="K206" s="37"/>
+      <c r="L206" s="16"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="18"/>
+      <c r="O206" s="17"/>
+      <c r="P206" s="18"/>
+      <c r="Q206" s="19"/>
+    </row>
+    <row r="207" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="B206" s="79" t="s">
+      <c r="B207" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="C206" s="82">
-        <f>COUNTBLANK(C205:C205)</f>
+      <c r="C207" s="82">
+        <f>COUNTBLANK(C206:C206)</f>
         <v>0</v>
       </c>
-      <c r="D206" s="85">
-        <f>COUNTBLANK(D205:D205)</f>
-        <v>1</v>
-      </c>
-      <c r="E206" s="85">
-        <f>COUNTBLANK(E205:E205)</f>
-        <v>1</v>
-      </c>
-      <c r="F206" s="89"/>
-      <c r="G206" s="91"/>
-      <c r="H206" s="93"/>
-      <c r="I206" s="35">
-        <f>COUNTBLANK(I205:I205)</f>
-        <v>1</v>
-      </c>
-      <c r="J206" s="35">
-        <f>COUNTBLANK(J205:J205)</f>
-        <v>1</v>
-      </c>
-      <c r="K206" s="35">
-        <f>COUNTBLANK(K205:K205)</f>
-        <v>1</v>
-      </c>
-      <c r="L206" s="35">
-        <f>COUNTBLANK(L205:L205)</f>
-        <v>1</v>
-      </c>
-      <c r="M206" s="35">
-        <f>COUNTBLANK(M205:M205)</f>
-        <v>1</v>
-      </c>
-      <c r="N206" s="34"/>
-      <c r="O206" s="35"/>
-      <c r="P206" s="34"/>
-      <c r="Q206" s="34"/>
-      <c r="R206" s="3"/>
-      <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
-      <c r="U206" s="3"/>
-      <c r="X206" s="3"/>
-      <c r="Y206" s="3"/>
+      <c r="D207" s="85">
+        <f>COUNTBLANK(D206:D206)</f>
+        <v>1</v>
+      </c>
+      <c r="E207" s="85">
+        <f>COUNTBLANK(E206:E206)</f>
+        <v>1</v>
+      </c>
+      <c r="F207" s="89"/>
+      <c r="G207" s="91"/>
+      <c r="H207" s="93"/>
+      <c r="I207" s="35">
+        <f>COUNTBLANK(I206:I206)</f>
+        <v>1</v>
+      </c>
+      <c r="J207" s="35">
+        <f>COUNTBLANK(J206:J206)</f>
+        <v>1</v>
+      </c>
+      <c r="K207" s="35">
+        <f>COUNTBLANK(K206:K206)</f>
+        <v>1</v>
+      </c>
+      <c r="L207" s="35">
+        <f>COUNTBLANK(L206:L206)</f>
+        <v>1</v>
+      </c>
+      <c r="M207" s="35">
+        <f>COUNTBLANK(M206:M206)</f>
+        <v>1</v>
+      </c>
+      <c r="N207" s="34"/>
+      <c r="O207" s="35"/>
+      <c r="P207" s="34"/>
+      <c r="Q207" s="34"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:T196">
     <sortCondition ref="A2:A196"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="T207:T1048576 Q1 N66:N196 N1:N4 Y207:Y1048576 Q76:Q196 Q198 N198 N200:N206 Q200:Q206 N6:N64">
+  <conditionalFormatting sqref="T208:T1048576 Q1 N66:N197 N1:N4 Y208:Y1048576 Q76:Q197 Q199 N199 N201:N207 Q201:Q207 N6:N64">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -25216,7 +25260,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X207:X1048576 P1:P4 P66:P196 P198 P200:P206 P6:P64">
+  <conditionalFormatting sqref="X208:X1048576 P1:P4 P66:P197 P199 P201:P207 P6:P64">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -25306,7 +25350,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N197 Q197">
+  <conditionalFormatting sqref="N198 Q198">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -25315,7 +25359,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P197">
+  <conditionalFormatting sqref="P198">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -25324,7 +25368,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q199 N199">
+  <conditionalFormatting sqref="Q200 N200">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -25333,7 +25377,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P199">
+  <conditionalFormatting sqref="P200">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
